--- a/output/results/production_wells/forecast_results.xlsx
+++ b/output/results/production_wells/forecast_results.xlsx
@@ -470,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74.54352637334452</v>
+        <v>75.35744333971034</v>
       </c>
       <c r="D2" t="n">
-        <v>60.25946989054713</v>
+        <v>61.85055154462324</v>
       </c>
       <c r="E2" t="n">
-        <v>19.16203482413347</v>
+        <v>17.92376598314013</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C3" t="n">
-        <v>73.60200977186665</v>
+        <v>74.12595293034306</v>
       </c>
       <c r="D3" t="n">
-        <v>59.40573001582037</v>
+        <v>60.74649413633724</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28789689309899</v>
+        <v>18.04962805210564</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C4" t="n">
-        <v>72.67238492751359</v>
+        <v>72.91458752205267</v>
       </c>
       <c r="D4" t="n">
-        <v>58.5639432857024</v>
+        <v>59.6620038701622</v>
       </c>
       <c r="E4" t="n">
-        <v>19.41375896206451</v>
+        <v>18.17549012107116</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C5" t="n">
-        <v>71.75450164230975</v>
+        <v>71.72301823231984</v>
       </c>
       <c r="D5" t="n">
-        <v>57.73394394869821</v>
+        <v>58.59673606429877</v>
       </c>
       <c r="E5" t="n">
-        <v>19.53962103103002</v>
+        <v>18.30135219003668</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C6" t="n">
-        <v>70.8482116153442</v>
+        <v>70.55092155321937</v>
       </c>
       <c r="D6" t="n">
-        <v>56.91556853347961</v>
+        <v>57.55035207690707</v>
       </c>
       <c r="E6" t="n">
-        <v>19.66548309999554</v>
+        <v>18.4272142590022</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C7" t="n">
-        <v>69.95336841880989</v>
+        <v>69.39797926358851</v>
       </c>
       <c r="D7" t="n">
-        <v>56.10865581772823</v>
+        <v>56.52251920074773</v>
       </c>
       <c r="E7" t="n">
-        <v>19.79134516896106</v>
+        <v>18.55307632796771</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C8" t="n">
-        <v>69.06982747434554</v>
+        <v>68.26387834263087</v>
       </c>
       <c r="D8" t="n">
-        <v>55.31304679740179</v>
+        <v>55.51291055965341</v>
       </c>
       <c r="E8" t="n">
-        <v>19.91720723792658</v>
+        <v>18.67893839693323</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C9" t="n">
-        <v>68.19744602967643</v>
+        <v>67.14831088493203</v>
       </c>
       <c r="D9" t="n">
-        <v>54.52858465641805</v>
+        <v>54.5212050067992</v>
       </c>
       <c r="E9" t="n">
-        <v>20.04306930689209</v>
+        <v>18.80480046589875</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C10" t="n">
-        <v>67.33608313555003</v>
+        <v>66.05097401686407</v>
       </c>
       <c r="D10" t="n">
-        <v>53.75511473675051</v>
+        <v>53.54708702474066</v>
       </c>
       <c r="E10" t="n">
-        <v>20.16893137585761</v>
+        <v>18.93066253486426</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C11" t="n">
-        <v>66.48559962296315</v>
+        <v>64.97156981435614</v>
       </c>
       <c r="D11" t="n">
-        <v>52.99248450893068</v>
+        <v>52.59024662718892</v>
       </c>
       <c r="E11" t="n">
-        <v>20.29479344482313</v>
+        <v>19.05652460382978</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C12" t="n">
-        <v>65.6458580806766</v>
+        <v>63.90980522200892</v>
       </c>
       <c r="D12" t="n">
-        <v>52.24054354295105</v>
+        <v>51.65037926249285</v>
       </c>
       <c r="E12" t="n">
-        <v>20.42065551378864</v>
+        <v>19.1823866727953</v>
       </c>
     </row>
     <row r="13">
@@ -679,13 +679,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C13" t="n">
-        <v>64.81672283301386</v>
+        <v>62.86539197353076</v>
       </c>
       <c r="D13" t="n">
-        <v>51.49914347956363</v>
+        <v>50.7271857187985</v>
       </c>
       <c r="E13" t="n">
-        <v>20.54651758275416</v>
+        <v>19.30824874176081</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +698,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C14" t="n">
-        <v>63.9980599179402</v>
+        <v>61.83804651347423</v>
       </c>
       <c r="D14" t="n">
-        <v>50.76813800196857</v>
+        <v>49.82037203085716</v>
       </c>
       <c r="E14" t="n">
-        <v>20.67237965171968</v>
+        <v>19.43411081072633</v>
       </c>
     </row>
     <row r="15">
@@ -717,13 +717,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C15" t="n">
-        <v>63.18973706541868</v>
+        <v>60.82748992025152</v>
       </c>
       <c r="D15" t="n">
-        <v>50.04738280788749</v>
+        <v>48.92964938845303</v>
       </c>
       <c r="E15" t="n">
-        <v>20.79824172068519</v>
+        <v>19.55997287969185</v>
       </c>
     </row>
     <row r="16">
@@ -736,13 +736,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C16" t="n">
-        <v>62.3916236760394</v>
+        <v>59.83344783040794</v>
       </c>
       <c r="D16" t="n">
-        <v>49.33673558201664</v>
+        <v>48.05473404642282</v>
       </c>
       <c r="E16" t="n">
-        <v>20.92410378965071</v>
+        <v>19.68583494865737</v>
       </c>
     </row>
     <row r="17">
@@ -755,13 +755,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C17" t="n">
-        <v>61.6035907999189</v>
+        <v>58.85565036413301</v>
       </c>
       <c r="D17" t="n">
-        <v>48.63605596885432</v>
+        <v>47.19534723623951</v>
       </c>
       <c r="E17" t="n">
-        <v>21.04996585861623</v>
+        <v>19.81169701762288</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C18" t="n">
-        <v>60.82551111586584</v>
+        <v>57.89383205198879</v>
       </c>
       <c r="D18" t="n">
-        <v>47.94520554589798</v>
+        <v>46.35121507913327</v>
       </c>
       <c r="E18" t="n">
-        <v>21.17582792758175</v>
+        <v>19.9375590865884</v>
       </c>
     </row>
     <row r="19">
@@ -793,13 +793,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C19" t="n">
-        <v>60.05725891080994</v>
+        <v>56.9477317628356</v>
       </c>
       <c r="D19" t="n">
-        <v>47.26404779720545</v>
+        <v>45.52206850072275</v>
       </c>
       <c r="E19" t="n">
-        <v>21.30168999654726</v>
+        <v>20.06342115555392</v>
       </c>
     </row>
     <row r="20">
@@ -812,13 +812,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C20" t="n">
-        <v>59.29871005949074</v>
+        <v>56.01709263293565</v>
       </c>
       <c r="D20" t="n">
-        <v>46.5924480873159</v>
+        <v>44.70764314713086</v>
       </c>
       <c r="E20" t="n">
-        <v>21.42755206551278</v>
+        <v>20.18928322451944</v>
       </c>
     </row>
     <row r="21">
@@ -831,13 +831,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C21" t="n">
-        <v>58.5497420044029</v>
+        <v>55.10166199621516</v>
       </c>
       <c r="D21" t="n">
-        <v>45.93027363552535</v>
+        <v>43.90767930255907</v>
       </c>
       <c r="E21" t="n">
-        <v>21.5534141344783</v>
+        <v>20.31514529348495</v>
       </c>
     </row>
     <row r="22">
@@ -850,13 +850,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C22" t="n">
-        <v>57.81023373599473</v>
+        <v>54.20119131566624</v>
       </c>
       <c r="D22" t="n">
-        <v>45.27739349051197</v>
+        <v>43.12192180829503</v>
       </c>
       <c r="E22" t="n">
-        <v>21.67927620344382</v>
+        <v>20.44100736245047</v>
       </c>
     </row>
     <row r="23">
@@ -869,13 +869,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C23" t="n">
-        <v>57.08006577311689</v>
+        <v>53.31543611586965</v>
       </c>
       <c r="D23" t="n">
-        <v>44.63367850530656</v>
+        <v>42.35011998312874</v>
       </c>
       <c r="E23" t="n">
-        <v>21.80513827240933</v>
+        <v>20.56686943141599</v>
       </c>
     </row>
     <row r="24">
@@ -888,13 +888,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C24" t="n">
-        <v>56.35912014371807</v>
+        <v>52.44415591662053</v>
       </c>
       <c r="D24" t="n">
-        <v>43.9990013126034</v>
+        <v>41.5920275451528</v>
       </c>
       <c r="E24" t="n">
-        <v>21.93100034137485</v>
+        <v>20.69273150038151</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +907,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C25" t="n">
-        <v>55.64728036578437</v>
+        <v>51.58711416763848</v>
       </c>
       <c r="D25" t="n">
-        <v>43.37323630040696</v>
+        <v>40.84740253492279</v>
       </c>
       <c r="E25" t="n">
-        <v>22.05686241034037</v>
+        <v>20.81859356934702</v>
       </c>
     </row>
     <row r="26">
@@ -926,13 +926,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C26" t="n">
-        <v>54.94443142851951</v>
+        <v>50.74407818434491</v>
       </c>
       <c r="D26" t="n">
-        <v>42.75625958800988</v>
+        <v>40.11600723995416</v>
       </c>
       <c r="E26" t="n">
-        <v>22.18272447930589</v>
+        <v>20.94445563831254</v>
       </c>
     </row>
     <row r="27">
@@ -945,13 +945,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C27" t="n">
-        <v>54.25045977376277</v>
+        <v>49.91481908468973</v>
       </c>
       <c r="D27" t="n">
-        <v>42.14794900229774</v>
+        <v>39.39760812053255</v>
       </c>
       <c r="E27" t="n">
-        <v>22.3085865482714</v>
+        <v>21.07031770727806</v>
       </c>
     </row>
     <row r="28">
@@ -964,13 +964,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C28" t="n">
-        <v>53.56525327764147</v>
+        <v>49.09911172701049</v>
       </c>
       <c r="D28" t="n">
-        <v>41.54818405437618</v>
+        <v>38.69197573681465</v>
       </c>
       <c r="E28" t="n">
-        <v>22.43444861723692</v>
+        <v>21.19617977624358</v>
       </c>
     </row>
     <row r="29">
@@ -983,13 +983,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C29" t="n">
-        <v>52.88870123245542</v>
+        <v>48.29673464890699</v>
       </c>
       <c r="D29" t="n">
-        <v>40.9568459165161</v>
+        <v>37.99888467719745</v>
       </c>
       <c r="E29" t="n">
-        <v>22.56031068620244</v>
+        <v>21.32204184520909</v>
       </c>
     </row>
     <row r="30">
@@ -1002,13 +1002,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C30" t="n">
-        <v>52.22069432879</v>
+        <v>47.50747000711488</v>
       </c>
       <c r="D30" t="n">
-        <v>40.3738173994125</v>
+        <v>37.31811348793357</v>
       </c>
       <c r="E30" t="n">
-        <v>22.68617275516795</v>
+        <v>21.44790391417461</v>
       </c>
     </row>
     <row r="31">
@@ -1021,13 +1021,13 @@
         <v>365</v>
       </c>
       <c r="C31" t="n">
-        <v>51.56112463785519</v>
+        <v>46.73110351836172</v>
       </c>
       <c r="D31" t="n">
-        <v>39.7989829297528</v>
+        <v>36.6494446039714</v>
       </c>
       <c r="E31" t="n">
-        <v>22.81203482413347</v>
+        <v>21.57376598314012</v>
       </c>
     </row>
     <row r="32">
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.4208107176196</v>
+        <v>27.06652090686436</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28210774517803</v>
+        <v>20.75009912051755</v>
       </c>
       <c r="E32" t="n">
-        <v>13.99906101510858</v>
+        <v>23.33665936631293</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1059,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C33" t="n">
-        <v>22.22267581429239</v>
+        <v>26.87558101124086</v>
       </c>
       <c r="D33" t="n">
-        <v>19.08373994830045</v>
+        <v>20.56989205562285</v>
       </c>
       <c r="E33" t="n">
-        <v>14.1249230840741</v>
+        <v>23.46252143527845</v>
       </c>
     </row>
     <row r="34">
@@ -1078,13 +1078,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C34" t="n">
-        <v>22.0262918485388</v>
+        <v>26.68598809493052</v>
       </c>
       <c r="D34" t="n">
-        <v>18.88737232002206</v>
+        <v>20.39119488120141</v>
       </c>
       <c r="E34" t="n">
-        <v>14.25078515303962</v>
+        <v>23.58838350424396</v>
       </c>
     </row>
     <row r="35">
@@ -1097,13 +1097,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C35" t="n">
-        <v>21.83164334715176</v>
+        <v>26.49773265571137</v>
       </c>
       <c r="D35" t="n">
-        <v>18.6929850003654</v>
+        <v>20.21399526240345</v>
       </c>
       <c r="E35" t="n">
-        <v>14.37664722200514</v>
+        <v>23.71424557320948</v>
       </c>
     </row>
     <row r="36">
@@ -1116,13 +1116,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C36" t="n">
-        <v>21.63871497366245</v>
+        <v>26.31080525839457</v>
       </c>
       <c r="D36" t="n">
-        <v>18.50055832416039</v>
+        <v>20.03828096327026</v>
       </c>
       <c r="E36" t="n">
-        <v>14.50250929097065</v>
+        <v>23.840107642175</v>
       </c>
     </row>
     <row r="37">
@@ -1135,13 +1135,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C37" t="n">
-        <v>21.44749152713193</v>
+        <v>26.1251965343515</v>
       </c>
       <c r="D37" t="n">
-        <v>18.31007281915223</v>
+        <v>19.86403984595288</v>
       </c>
       <c r="E37" t="n">
-        <v>14.62837135993617</v>
+        <v>23.96596971114052</v>
       </c>
     </row>
     <row r="38">
@@ -1154,13 +1154,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C38" t="n">
-        <v>21.25795794095344</v>
+        <v>25.94089718104424</v>
       </c>
       <c r="D38" t="n">
-        <v>18.12150920412743</v>
+        <v>19.69125986993679</v>
       </c>
       <c r="E38" t="n">
-        <v>14.75423342890169</v>
+        <v>24.09183178010603</v>
       </c>
     </row>
     <row r="39">
@@ -1173,13 +1173,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C39" t="n">
-        <v>21.07009928166532</v>
+        <v>25.75789796155932</v>
       </c>
       <c r="D39" t="n">
-        <v>17.93484838705809</v>
+        <v>19.51992909127264</v>
       </c>
       <c r="E39" t="n">
-        <v>14.8800954978672</v>
+        <v>24.21769384907155</v>
       </c>
     </row>
     <row r="40">
@@ -1192,13 +1192,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C40" t="n">
-        <v>20.88390074777436</v>
+        <v>25.57618970414476</v>
       </c>
       <c r="D40" t="n">
-        <v>17.75007146326388</v>
+        <v>19.35003566181304</v>
       </c>
       <c r="E40" t="n">
-        <v>15.00595756683272</v>
+        <v>24.34355591803707</v>
       </c>
     </row>
     <row r="41">
@@ -1211,13 +1211,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C41" t="n">
-        <v>20.6993476685896</v>
+        <v>25.39576330175044</v>
       </c>
       <c r="D41" t="n">
-        <v>17.56715971359182</v>
+        <v>19.18156782845531</v>
       </c>
       <c r="E41" t="n">
-        <v>15.13181963579824</v>
+        <v>24.46941798700259</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C42" t="n">
-        <v>20.51642550306642</v>
+        <v>25.2166097115716</v>
       </c>
       <c r="D42" t="n">
-        <v>17.38609460261357</v>
+        <v>19.01451393239012</v>
       </c>
       <c r="E42" t="n">
-        <v>15.25768170476376</v>
+        <v>24.5952800559681</v>
       </c>
     </row>
     <row r="43">
@@ -1249,13 +1249,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C43" t="n">
-        <v>20.33511983866083</v>
+        <v>25.03871995459567</v>
       </c>
       <c r="D43" t="n">
-        <v>17.20685777684013</v>
+        <v>18.84886240835596</v>
       </c>
       <c r="E43" t="n">
-        <v>15.38354377372927</v>
+        <v>24.72114212493362</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C44" t="n">
-        <v>20.15541639019391</v>
+        <v>24.86208511515223</v>
       </c>
       <c r="D44" t="n">
-        <v>17.02943106295372</v>
+        <v>18.68460178389958</v>
       </c>
       <c r="E44" t="n">
-        <v>15.50940584269479</v>
+        <v>24.84700419389914</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C45" t="n">
-        <v>19.97730099872627</v>
+        <v>24.68669634046616</v>
       </c>
       <c r="D45" t="n">
-        <v>16.85379646605663</v>
+        <v>18.52172067864204</v>
       </c>
       <c r="E45" t="n">
-        <v>15.63526791166031</v>
+        <v>24.97286626286465</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C46" t="n">
-        <v>19.80075963044244</v>
+        <v>24.51254484021397</v>
       </c>
       <c r="D46" t="n">
-        <v>16.67993616793713</v>
+        <v>18.36020780355061</v>
       </c>
       <c r="E46" t="n">
-        <v>15.76112998062582</v>
+        <v>25.09872833183017</v>
       </c>
     </row>
     <row r="47">
@@ -1325,13 +1325,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C47" t="n">
-        <v>19.62577837554518</v>
+        <v>24.33962188608321</v>
       </c>
       <c r="D47" t="n">
-        <v>16.5078325253519</v>
+        <v>18.2000519602163</v>
       </c>
       <c r="E47" t="n">
-        <v>15.88699204959134</v>
+        <v>25.22459040079569</v>
       </c>
     </row>
     <row r="48">
@@ -1344,13 +1344,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C48" t="n">
-        <v>19.45234344715947</v>
+        <v>24.16791881133505</v>
       </c>
       <c r="D48" t="n">
-        <v>16.33746806832517</v>
+        <v>18.04124204013708</v>
       </c>
       <c r="E48" t="n">
-        <v>16.01285411855686</v>
+        <v>25.3504524697612</v>
       </c>
     </row>
     <row r="49">
@@ -1363,13 +1363,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C49" t="n">
-        <v>19.28044118024627</v>
+        <v>23.99742701036985</v>
       </c>
       <c r="D49" t="n">
-        <v>16.16882549846414</v>
+        <v>17.88376702400666</v>
       </c>
       <c r="E49" t="n">
-        <v>16.13871618752238</v>
+        <v>25.47631453872672</v>
       </c>
     </row>
     <row r="50">
@@ -1382,13 +1382,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C50" t="n">
-        <v>19.11005803052582</v>
+        <v>23.82813793829592</v>
       </c>
       <c r="D50" t="n">
-        <v>16.0018876872907</v>
+        <v>17.72761598100888</v>
       </c>
       <c r="E50" t="n">
-        <v>16.26457825648789</v>
+        <v>25.60217660769224</v>
       </c>
     </row>
     <row r="51">
@@ -1401,13 +1401,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C51" t="n">
-        <v>18.9411805734105</v>
+        <v>23.66004311050123</v>
       </c>
       <c r="D51" t="n">
-        <v>15.83663767458927</v>
+        <v>17.57277806811758</v>
       </c>
       <c r="E51" t="n">
-        <v>16.39044032545341</v>
+        <v>25.72803867665776</v>
       </c>
     </row>
     <row r="52">
@@ -1420,13 +1420,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C52" t="n">
-        <v>18.77379550294707</v>
+        <v>23.49313410222818</v>
       </c>
       <c r="D52" t="n">
-        <v>15.67305866677051</v>
+        <v>17.41924252940193</v>
       </c>
       <c r="E52" t="n">
-        <v>16.51630239441893</v>
+        <v>25.85390074562327</v>
       </c>
     </row>
     <row r="53">
@@ -1439,13 +1439,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C53" t="n">
-        <v>18.60788963076832</v>
+        <v>23.32740254815132</v>
       </c>
       <c r="D53" t="n">
-        <v>15.51113403525079</v>
+        <v>17.26699869533727</v>
       </c>
       <c r="E53" t="n">
-        <v>16.64216446338445</v>
+        <v>25.97976281458879</v>
       </c>
     </row>
     <row r="54">
@@ -1458,13 +1458,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C54" t="n">
-        <v>18.44344988505394</v>
+        <v>23.16284014195815</v>
       </c>
       <c r="D54" t="n">
-        <v>15.35084731484742</v>
+        <v>17.11603598212122</v>
       </c>
       <c r="E54" t="n">
-        <v>16.76802653234996</v>
+        <v>26.10562488355431</v>
       </c>
     </row>
     <row r="55">
@@ -1477,13 +1477,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C55" t="n">
-        <v>18.28046330950055</v>
+        <v>22.99943863593277</v>
       </c>
       <c r="D55" t="n">
-        <v>15.19218220218918</v>
+        <v>16.96634389099526</v>
       </c>
       <c r="E55" t="n">
-        <v>16.89388860131548</v>
+        <v>26.23148695251983</v>
       </c>
     </row>
     <row r="56">
@@ -1496,13 +1496,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C56" t="n">
-        <v>18.11891706230093</v>
+        <v>22.8371898405425</v>
       </c>
       <c r="D56" t="n">
-        <v>15.03512255414231</v>
+        <v>16.81791200757152</v>
       </c>
       <c r="E56" t="n">
-        <v>17.019750670281</v>
+        <v>26.35734902148534</v>
       </c>
     </row>
     <row r="57">
@@ -1515,13 +1515,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C57" t="n">
-        <v>17.95879841513214</v>
+        <v>22.6760856240275</v>
       </c>
       <c r="D57" t="n">
-        <v>14.87965238625164</v>
+        <v>16.67073000116492</v>
       </c>
       <c r="E57" t="n">
-        <v>17.14561273924652</v>
+        <v>26.48321109045086</v>
       </c>
     </row>
     <row r="58">
@@ -1534,13 +1534,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C58" t="n">
-        <v>17.8000947521527</v>
+        <v>22.51611791199314</v>
       </c>
       <c r="D58" t="n">
-        <v>14.72575587119677</v>
+        <v>16.52478762413043</v>
       </c>
       <c r="E58" t="n">
-        <v>17.27147480821203</v>
+        <v>26.60907315941638</v>
       </c>
     </row>
     <row r="59">
@@ -1553,13 +1553,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C59" t="n">
-        <v>17.64279356900853</v>
+        <v>22.35727868700533</v>
       </c>
       <c r="D59" t="n">
-        <v>14.5734173372631</v>
+        <v>16.38007471120563</v>
       </c>
       <c r="E59" t="n">
-        <v>17.39733687717755</v>
+        <v>26.7349352283819</v>
       </c>
     </row>
     <row r="60">
@@ -1572,13 +1572,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C60" t="n">
-        <v>17.48688247184779</v>
+        <v>22.19955998818876</v>
       </c>
       <c r="D60" t="n">
-        <v>14.42262126682768</v>
+        <v>16.23658117885834</v>
       </c>
       <c r="E60" t="n">
-        <v>17.52319894614307</v>
+        <v>26.86079729734741</v>
       </c>
     </row>
     <row r="61">
@@ -1591,13 +1591,13 @@
         <v>365</v>
       </c>
       <c r="C61" t="n">
-        <v>17.33234917634429</v>
+        <v>22.0429539108278</v>
       </c>
       <c r="D61" t="n">
-        <v>14.27335229485961</v>
+        <v>16.09429702463935</v>
       </c>
       <c r="E61" t="n">
-        <v>17.64906101510858</v>
+        <v>26.98665936631293</v>
       </c>
     </row>
     <row r="62">
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>50.90945143085908</v>
+        <v>17.80486869037646</v>
       </c>
       <c r="D62" t="n">
-        <v>45.16856410545084</v>
+        <v>15.71597782510111</v>
       </c>
       <c r="E62" t="n">
-        <v>11.27666310293095</v>
+        <v>11.73213294408845</v>
       </c>
     </row>
     <row r="63">
@@ -1629,13 +1629,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C63" t="n">
-        <v>50.23297301722726</v>
+        <v>17.58485325178762</v>
       </c>
       <c r="D63" t="n">
-        <v>44.50514562434596</v>
+        <v>15.49964223013779</v>
       </c>
       <c r="E63" t="n">
-        <v>11.40252517189647</v>
+        <v>11.85799501305397</v>
       </c>
     </row>
     <row r="64">
@@ -1648,13 +1648,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C64" t="n">
-        <v>49.56548356401925</v>
+        <v>17.36755655232903</v>
       </c>
       <c r="D64" t="n">
-        <v>43.85138268095331</v>
+        <v>15.28625339645901</v>
       </c>
       <c r="E64" t="n">
-        <v>11.52838724086198</v>
+        <v>11.98385708201949</v>
       </c>
     </row>
     <row r="65">
@@ -1667,13 +1667,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C65" t="n">
-        <v>48.90686362705491</v>
+        <v>17.15294499643801</v>
       </c>
       <c r="D65" t="n">
-        <v>43.20713581034059</v>
+        <v>15.07577153124643</v>
       </c>
       <c r="E65" t="n">
-        <v>11.6542493098275</v>
+        <v>12.10971915098501</v>
       </c>
     </row>
     <row r="66">
@@ -1686,13 +1686,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C66" t="n">
-        <v>48.25699534931339</v>
+        <v>16.94098540369351</v>
       </c>
       <c r="D66" t="n">
-        <v>42.57226754910531</v>
+        <v>14.86815737516462</v>
       </c>
       <c r="E66" t="n">
-        <v>11.78011137879302</v>
+        <v>12.23558121995052</v>
       </c>
     </row>
     <row r="67">
@@ -1705,13 +1705,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C67" t="n">
-        <v>47.6157624398432</v>
+        <v>16.73164500368621</v>
       </c>
       <c r="D67" t="n">
-        <v>41.94664240680769</v>
+        <v>14.66337219525279</v>
       </c>
       <c r="E67" t="n">
-        <v>11.90597344775853</v>
+        <v>12.36144328891604</v>
       </c>
     </row>
     <row r="68">
@@ -1724,13 +1724,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C68" t="n">
-        <v>46.98305015295241</v>
+        <v>16.52489143095201</v>
       </c>
       <c r="D68" t="n">
-        <v>41.3301268378092</v>
+        <v>14.46137777791063</v>
       </c>
       <c r="E68" t="n">
-        <v>12.03183551672405</v>
+        <v>12.48730535788156</v>
       </c>
     </row>
     <row r="69">
@@ -1743,13 +1743,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C69" t="n">
-        <v>46.35874526767549</v>
+        <v>16.32069271996803</v>
       </c>
       <c r="D69" t="n">
-        <v>40.72258921351133</v>
+        <v>14.26213642197722</v>
       </c>
       <c r="E69" t="n">
-        <v>12.15769758568957</v>
+        <v>12.61316742684707</v>
       </c>
     </row>
     <row r="70">
@@ -1762,13 +1762,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C70" t="n">
-        <v>45.74273606751292</v>
+        <v>16.11901730021061</v>
       </c>
       <c r="D70" t="n">
-        <v>40.12389979498855</v>
+        <v>14.06561093190165</v>
       </c>
       <c r="E70" t="n">
-        <v>12.28355965465509</v>
+        <v>12.73902949581259</v>
       </c>
     </row>
     <row r="71">
@@ -1781,13 +1781,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C71" t="n">
-        <v>45.13491232044003</v>
+        <v>15.91983399127423</v>
       </c>
       <c r="D71" t="n">
-        <v>39.53393070601023</v>
+        <v>13.87176461100412</v>
       </c>
       <c r="E71" t="n">
-        <v>12.4094217236206</v>
+        <v>12.86489156477811</v>
       </c>
     </row>
     <row r="72">
@@ -1800,13 +1800,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C72" t="n">
-        <v>44.53516525918148</v>
+        <v>15.72311199805084</v>
       </c>
       <c r="D72" t="n">
-        <v>38.95255590644586</v>
+        <v>13.68056125482647</v>
       </c>
       <c r="E72" t="n">
-        <v>12.53528379258612</v>
+        <v>12.99075363374363</v>
       </c>
     </row>
     <row r="73">
@@ -1819,13 +1819,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C73" t="n">
-        <v>43.94338756174788</v>
+        <v>15.52882090596868</v>
       </c>
       <c r="D73" t="n">
-        <v>38.37965116604803</v>
+        <v>13.49196514457082</v>
       </c>
       <c r="E73" t="n">
-        <v>12.66114586155164</v>
+        <v>13.11661570270914</v>
       </c>
     </row>
     <row r="74">
@@ -1838,13 +1838,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C74" t="n">
-        <v>43.35947333223095</v>
+        <v>15.33693067629005</v>
       </c>
       <c r="D74" t="n">
-        <v>37.8150940386081</v>
+        <v>13.30594104062519</v>
       </c>
       <c r="E74" t="n">
-        <v>12.78700793051716</v>
+        <v>13.24247777167466</v>
       </c>
     </row>
     <row r="75">
@@ -1857,13 +1857,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C75" t="n">
-        <v>42.78331808185402</v>
+        <v>15.14741164146705</v>
       </c>
       <c r="D75" t="n">
-        <v>37.25876383647905</v>
+        <v>13.12245417617504</v>
       </c>
       <c r="E75" t="n">
-        <v>12.91286999948267</v>
+        <v>13.36833984064018</v>
       </c>
     </row>
     <row r="76">
@@ -1876,13 +1876,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C76" t="n">
-        <v>42.21481871027418</v>
+        <v>14.96023450055478</v>
       </c>
       <c r="D76" t="n">
-        <v>36.71054160546039</v>
+        <v>12.94147025089942</v>
       </c>
       <c r="E76" t="n">
-        <v>13.03873206844819</v>
+        <v>13.49420190960569</v>
       </c>
     </row>
     <row r="77">
@@ -1895,13 +1895,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C77" t="n">
-        <v>41.65387348713295</v>
+        <v>14.77537031468126</v>
       </c>
       <c r="D77" t="n">
-        <v>36.17031010004012</v>
+        <v>12.76295542475085</v>
       </c>
       <c r="E77" t="n">
-        <v>13.16459413741371</v>
+        <v>13.62006397857121</v>
       </c>
     </row>
     <row r="78">
@@ -1914,13 +1914,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C78" t="n">
-        <v>41.10038203385211</v>
+        <v>14.59279050257322</v>
       </c>
       <c r="D78" t="n">
-        <v>35.63795375898844</v>
+        <v>12.58687631181755</v>
       </c>
       <c r="E78" t="n">
-        <v>13.29045620637922</v>
+        <v>13.74592604753673</v>
       </c>
     </row>
     <row r="79">
@@ -1933,13 +1933,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C79" t="n">
-        <v>40.55424530567145</v>
+        <v>14.41246683613731</v>
       </c>
       <c r="D79" t="n">
-        <v>35.11335868129851</v>
+        <v>12.41319997426719</v>
       </c>
       <c r="E79" t="n">
-        <v>13.41631827534474</v>
+        <v>13.87178811650225</v>
       </c>
     </row>
     <row r="80">
@@ -1952,13 +1952,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C80" t="n">
-        <v>40.01536557392507</v>
+        <v>14.23437143609577</v>
       </c>
       <c r="D80" t="n">
-        <v>34.59641260246909</v>
+        <v>12.24189391637094</v>
       </c>
       <c r="E80" t="n">
-        <v>13.54218034431026</v>
+        <v>13.99765018546776</v>
       </c>
     </row>
     <row r="81">
@@ -1971,13 +1971,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C81" t="n">
-        <v>39.4836464085534</v>
+        <v>14.05847676767612</v>
       </c>
       <c r="D81" t="n">
-        <v>34.08700487112449</v>
+        <v>12.07292607860673</v>
       </c>
       <c r="E81" t="n">
-        <v>13.66804241327578</v>
+        <v>14.12351225443328</v>
       </c>
     </row>
     <row r="82">
@@ -1990,13 +1990,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C82" t="n">
-        <v>38.95899266084739</v>
+        <v>13.88475563635416</v>
       </c>
       <c r="D82" t="n">
-        <v>33.5850264259667</v>
+        <v>11.90626483184084</v>
       </c>
       <c r="E82" t="n">
-        <v>13.79390448224129</v>
+        <v>14.2493743233988</v>
       </c>
     </row>
     <row r="83">
@@ -2009,13 +2009,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C83" t="n">
-        <v>38.4413104464221</v>
+        <v>13.71318118364941</v>
       </c>
       <c r="D83" t="n">
-        <v>33.09036977305546</v>
+        <v>11.74187897158658</v>
       </c>
       <c r="E83" t="n">
-        <v>13.91976655120681</v>
+        <v>14.37523639236432</v>
       </c>
     </row>
     <row r="84">
@@ -2028,13 +2028,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C84" t="n">
-        <v>37.93050712841658</v>
+        <v>13.54372688297267</v>
       </c>
       <c r="D84" t="n">
-        <v>32.60292896341119</v>
+        <v>11.57973771233921</v>
       </c>
       <c r="E84" t="n">
-        <v>14.04562862017233</v>
+        <v>14.50109846132983</v>
       </c>
     </row>
     <row r="85">
@@ -2047,13 +2047,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C85" t="n">
-        <v>37.42649130091685</v>
+        <v>13.37636653552483</v>
       </c>
       <c r="D85" t="n">
-        <v>32.12259957093644</v>
+        <v>11.41981068198598</v>
       </c>
       <c r="E85" t="n">
-        <v>14.17149068913784</v>
+        <v>14.62696053029535</v>
       </c>
     </row>
     <row r="86">
@@ -2066,13 +2066,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C86" t="n">
-        <v>36.92917277259929</v>
+        <v>13.2110742662463</v>
       </c>
       <c r="D86" t="n">
-        <v>31.64927867065131</v>
+        <v>11.26206791629038</v>
       </c>
       <c r="E86" t="n">
-        <v>14.29735275810336</v>
+        <v>14.75282259926087</v>
       </c>
     </row>
     <row r="87">
@@ -2085,13 +2085,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C87" t="n">
-        <v>36.43846255059128</v>
+        <v>13.04782451981661</v>
       </c>
       <c r="D87" t="n">
-        <v>31.18286481723845</v>
+        <v>11.10647985344957</v>
       </c>
       <c r="E87" t="n">
-        <v>14.42321482706888</v>
+        <v>14.87868466822638</v>
       </c>
     </row>
     <row r="88">
@@ -2104,13 +2104,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C88" t="n">
-        <v>35.95427282454632</v>
+        <v>12.88659205670334</v>
       </c>
       <c r="D88" t="n">
-        <v>30.72325802389308</v>
+        <v>10.95301732872403</v>
       </c>
       <c r="E88" t="n">
-        <v>14.5490768960344</v>
+        <v>15.0045467371919</v>
       </c>
     </row>
     <row r="89">
@@ -2123,13 +2123,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C89" t="n">
-        <v>35.47651695093085</v>
+        <v>12.72735194925995</v>
       </c>
       <c r="D89" t="n">
-        <v>30.2703597414739</v>
+        <v>10.80165156913848</v>
       </c>
       <c r="E89" t="n">
-        <v>14.67493896499991</v>
+        <v>15.13040880615742</v>
       </c>
     </row>
     <row r="90">
@@ -2142,13 +2142,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C90" t="n">
-        <v>35.00510943751968</v>
+        <v>12.57007957787176</v>
       </c>
       <c r="D90" t="n">
-        <v>29.82407283795053</v>
+        <v>10.65235418825313</v>
       </c>
       <c r="E90" t="n">
-        <v>14.80080103396543</v>
+        <v>15.25627087512294</v>
       </c>
     </row>
     <row r="91">
@@ -2161,13 +2161,13 @@
         <v>365</v>
       </c>
       <c r="C91" t="n">
-        <v>34.53996592809762</v>
+        <v>12.4147506271496</v>
       </c>
       <c r="D91" t="n">
-        <v>29.38430157814335</v>
+        <v>10.50509718100439</v>
       </c>
       <c r="E91" t="n">
-        <v>14.92666310293095</v>
+        <v>15.38213294408845</v>
       </c>
     </row>
     <row r="92">
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>69.8214373326083</v>
+        <v>33.11374513252724</v>
       </c>
       <c r="D92" t="n">
-        <v>58.92162879024596</v>
+        <v>20.89578822884072</v>
       </c>
       <c r="E92" t="n">
-        <v>15.61097702764114</v>
+        <v>36.89693465595037</v>
       </c>
     </row>
     <row r="93">
@@ -2199,13 +2199,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C93" t="n">
-        <v>68.81714947178834</v>
+        <v>32.89575474179463</v>
       </c>
       <c r="D93" t="n">
-        <v>57.98750538854171</v>
+        <v>20.71682633261313</v>
       </c>
       <c r="E93" t="n">
-        <v>15.73683909660666</v>
+        <v>37.02279672491589</v>
       </c>
     </row>
     <row r="94">
@@ -2218,13 +2218,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C94" t="n">
-        <v>67.82730694675523</v>
+        <v>32.67919939896318</v>
       </c>
       <c r="D94" t="n">
-        <v>57.06806393713607</v>
+        <v>20.5393151176702</v>
       </c>
       <c r="E94" t="n">
-        <v>15.86270116557218</v>
+        <v>37.14865879388141</v>
       </c>
     </row>
     <row r="95">
@@ -2237,13 +2237,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C95" t="n">
-        <v>66.85170198070101</v>
+        <v>32.46406965699958</v>
       </c>
       <c r="D95" t="n">
-        <v>56.16307533615194</v>
+        <v>20.36324323977211</v>
       </c>
       <c r="E95" t="n">
-        <v>15.98856323453769</v>
+        <v>37.27452086284693</v>
       </c>
     </row>
     <row r="96">
@@ -2256,13 +2256,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C96" t="n">
-        <v>65.89012978540883</v>
+        <v>32.25035613106112</v>
       </c>
       <c r="D96" t="n">
-        <v>55.27231403875781</v>
+        <v>20.18859944117101</v>
       </c>
       <c r="E96" t="n">
-        <v>16.11442530350321</v>
+        <v>37.40038293181244</v>
       </c>
     </row>
     <row r="97">
@@ -2275,13 +2275,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C97" t="n">
-        <v>64.94238851826603</v>
+        <v>32.03804949808623</v>
       </c>
       <c r="D97" t="n">
-        <v>54.39555799635449</v>
+        <v>20.01537254996387</v>
       </c>
       <c r="E97" t="n">
-        <v>16.24028737246873</v>
+        <v>37.52624500077796</v>
       </c>
     </row>
     <row r="98">
@@ -2294,13 +2294,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C98" t="n">
-        <v>64.0082792398956</v>
+        <v>31.82714049638777</v>
       </c>
       <c r="D98" t="n">
-        <v>53.53258860460376</v>
+        <v>19.84355147945016</v>
       </c>
       <c r="E98" t="n">
-        <v>16.36614944143425</v>
+        <v>37.65210706974348</v>
       </c>
     </row>
     <row r="99">
@@ -2313,13 +2313,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C99" t="n">
-        <v>63.08760587239705</v>
+        <v>31.61761992524905</v>
       </c>
       <c r="D99" t="n">
-        <v>52.68319065028569</v>
+        <v>19.67312522749416</v>
       </c>
       <c r="E99" t="n">
-        <v>16.49201151039976</v>
+        <v>37.777969138709</v>
       </c>
     </row>
     <row r="100">
@@ -2332,13 +2332,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C100" t="n">
-        <v>62.18017515818784</v>
+        <v>31.4094786445224</v>
       </c>
       <c r="D100" t="n">
-        <v>51.84715225897229</v>
+        <v>19.50408287589206</v>
       </c>
       <c r="E100" t="n">
-        <v>16.61787357936528</v>
+        <v>37.90383120767451</v>
       </c>
     </row>
     <row r="101">
@@ -2351,13 +2351,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C101" t="n">
-        <v>61.28579661943692</v>
+        <v>31.20270757423047</v>
       </c>
       <c r="D101" t="n">
-        <v>51.02426484350474</v>
+        <v>19.33641358974369</v>
       </c>
       <c r="E101" t="n">
-        <v>16.7437356483308</v>
+        <v>38.02969327664003</v>
       </c>
     </row>
     <row r="102">
@@ -2370,13 +2370,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C102" t="n">
-        <v>60.40428251808174</v>
+        <v>30.9972976941701</v>
       </c>
       <c r="D102" t="n">
-        <v>50.21432305326221</v>
+        <v>19.17010661682892</v>
       </c>
       <c r="E102" t="n">
-        <v>16.86959771729631</v>
+        <v>38.15555534560555</v>
       </c>
     </row>
     <row r="103">
@@ -2389,13 +2389,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C103" t="n">
-        <v>59.53544781642031</v>
+        <v>30.79324004351888</v>
       </c>
       <c r="D103" t="n">
-        <v>49.4171247242097</v>
+        <v>19.00515128698857</v>
       </c>
       <c r="E103" t="n">
-        <v>16.99545978626183</v>
+        <v>38.28141741457107</v>
       </c>
     </row>
     <row r="104">
@@ -2408,13 +2408,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C104" t="n">
-        <v>58.67911013827016</v>
+        <v>30.59052572044414</v>
       </c>
       <c r="D104" t="n">
-        <v>48.63247082971359</v>
+        <v>18.84153701151002</v>
       </c>
       <c r="E104" t="n">
-        <v>17.12132185522735</v>
+        <v>38.40727948353658</v>
       </c>
     </row>
     <row r="105">
@@ -2427,13 +2427,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C105" t="n">
-        <v>57.83508973068597</v>
+        <v>30.38914588171472</v>
       </c>
       <c r="D105" t="n">
-        <v>47.86016543211258</v>
+        <v>18.67925328251722</v>
       </c>
       <c r="E105" t="n">
-        <v>17.24718392419286</v>
+        <v>38.5331415525021</v>
       </c>
     </row>
     <row r="106">
@@ -2446,13 +2446,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C106" t="n">
-        <v>57.00320942622775</v>
+        <v>30.18909174231513</v>
       </c>
       <c r="D106" t="n">
-        <v>47.1000156350328</v>
+        <v>18.51828967236534</v>
       </c>
       <c r="E106" t="n">
-        <v>17.37304599315838</v>
+        <v>38.65900362146762</v>
       </c>
     </row>
     <row r="107">
@@ -2465,13 +2465,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C107" t="n">
-        <v>56.18329460577184</v>
+        <v>29.99035457506232</v>
       </c>
       <c r="D107" t="n">
-        <v>46.35183153643561</v>
+        <v>18.35863583303973</v>
       </c>
       <c r="E107" t="n">
-        <v>17.4989080621239</v>
+        <v>38.78486569043314</v>
       </c>
     </row>
     <row r="108">
@@ -2484,13 +2484,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C108" t="n">
-        <v>55.37517316185684</v>
+        <v>29.792925710225</v>
       </c>
       <c r="D108" t="n">
-        <v>45.61542618238685</v>
+        <v>18.20028149555946</v>
       </c>
       <c r="E108" t="n">
-        <v>17.62477013108942</v>
+        <v>38.91072775939865</v>
       </c>
     </row>
     <row r="109">
@@ -2503,13 +2503,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C109" t="n">
-        <v>54.57867546255663</v>
+        <v>29.59679653514537</v>
       </c>
       <c r="D109" t="n">
-        <v>44.89061552153657</v>
+        <v>18.04321646938517</v>
       </c>
       <c r="E109" t="n">
-        <v>17.75063220005493</v>
+        <v>39.03658982836417</v>
       </c>
     </row>
     <row r="110">
@@ -2522,13 +2522,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C110" t="n">
-        <v>53.79363431587316</v>
+        <v>29.40195849386347</v>
       </c>
       <c r="D110" t="n">
-        <v>44.17721836029828</v>
+        <v>17.88743064183135</v>
       </c>
       <c r="E110" t="n">
-        <v>17.87649426902045</v>
+        <v>39.16245189732969</v>
       </c>
     </row>
     <row r="111">
@@ -2541,13 +2541,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C111" t="n">
-        <v>53.01988493464139</v>
+        <v>29.20840308674386</v>
       </c>
       <c r="D111" t="n">
-        <v>43.47505631871711</v>
+        <v>17.73291397748287</v>
       </c>
       <c r="E111" t="n">
-        <v>18.00235633798597</v>
+        <v>39.28831396629521</v>
       </c>
     </row>
     <row r="112">
@@ -2560,13 +2560,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C112" t="n">
-        <v>52.25726490193885</v>
+        <v>29.0161218701049</v>
       </c>
       <c r="D112" t="n">
-        <v>42.78395378701617</v>
+        <v>17.57965651761597</v>
       </c>
       <c r="E112" t="n">
-        <v>18.12821840695149</v>
+        <v>39.41417603526072</v>
       </c>
     </row>
     <row r="113">
@@ -2579,13 +2579,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C113" t="n">
-        <v>51.50561413699305</v>
+        <v>28.82510645585035</v>
       </c>
       <c r="D113" t="n">
-        <v>42.10373788281106</v>
+        <v>17.42764837962335</v>
       </c>
       <c r="E113" t="n">
-        <v>18.254080475917</v>
+        <v>39.54003810422623</v>
       </c>
     </row>
     <row r="114">
@@ -2598,13 +2598,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C114" t="n">
-        <v>50.76477486157897</v>
+        <v>28.63534851110349</v>
       </c>
       <c r="D114" t="n">
-        <v>41.43423840898179</v>
+        <v>17.27687975644363</v>
       </c>
       <c r="E114" t="n">
-        <v>18.37994254488252</v>
+        <v>39.66590017319175</v>
       </c>
     </row>
     <row r="115">
@@ -2617,13 +2617,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C115" t="n">
-        <v>50.03459156690004</v>
+        <v>28.44683975784356</v>
       </c>
       <c r="D115" t="n">
-        <v>40.77528781219263</v>
+        <v>17.12734091599498</v>
       </c>
       <c r="E115" t="n">
-        <v>18.50580461384804</v>
+        <v>39.79176224215727</v>
       </c>
     </row>
     <row r="116">
@@ -2636,13 +2636,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C116" t="n">
-        <v>49.31491098094546</v>
+        <v>28.25957197254467</v>
       </c>
       <c r="D116" t="n">
-        <v>40.12672114204948</v>
+        <v>16.97902220061294</v>
       </c>
       <c r="E116" t="n">
-        <v>18.63166668281356</v>
+        <v>39.91762431112279</v>
       </c>
     </row>
     <row r="117">
@@ -2655,13 +2655,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C117" t="n">
-        <v>48.60558203631701</v>
+        <v>28.07353698581706</v>
       </c>
       <c r="D117" t="n">
-        <v>39.48837601088528</v>
+        <v>16.83191402649236</v>
       </c>
       <c r="E117" t="n">
-        <v>18.75752875177907</v>
+        <v>40.0434863800883</v>
       </c>
     </row>
     <row r="118">
@@ -2674,13 +2674,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C118" t="n">
-        <v>47.90645583851867</v>
+        <v>27.88872668205069</v>
       </c>
       <c r="D118" t="n">
-        <v>38.86009255416377</v>
+        <v>16.6860068831335</v>
       </c>
       <c r="E118" t="n">
-        <v>18.88339082074459</v>
+        <v>40.16934844905382</v>
       </c>
     </row>
     <row r="119">
@@ -2693,13 +2693,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C119" t="n">
-        <v>47.2173856347023</v>
+        <v>27.70513299906122</v>
       </c>
       <c r="D119" t="n">
-        <v>38.24171339149209</v>
+        <v>16.54129133279226</v>
       </c>
       <c r="E119" t="n">
-        <v>19.00925288971011</v>
+        <v>40.29521051801934</v>
       </c>
     </row>
     <row r="120">
@@ -2712,13 +2712,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C120" t="n">
-        <v>46.53822678286296</v>
+        <v>27.52274792773833</v>
       </c>
       <c r="D120" t="n">
-        <v>37.63308358823296</v>
+        <v>16.39775800993435</v>
       </c>
       <c r="E120" t="n">
-        <v>19.13511495867562</v>
+        <v>40.42107258698486</v>
       </c>
     </row>
     <row r="121">
@@ -2731,13 +2731,13 @@
         <v>365</v>
       </c>
       <c r="C121" t="n">
-        <v>45.86883672147722</v>
+        <v>27.34156351169626</v>
       </c>
       <c r="D121" t="n">
-        <v>37.03405061770727</v>
+        <v>16.25539762069361</v>
       </c>
       <c r="E121" t="n">
-        <v>19.26097702764114</v>
+        <v>40.54693465595037</v>
       </c>
     </row>
     <row r="122">
@@ -2750,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>77.6999618625315</v>
+        <v>68.15040714569363</v>
       </c>
       <c r="D122" t="n">
-        <v>65.88080219818754</v>
+        <v>44.2761296323477</v>
       </c>
       <c r="E122" t="n">
-        <v>15.2112811654331</v>
+        <v>35.03174597667027</v>
       </c>
     </row>
     <row r="123">
@@ -2769,13 +2769,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C123" t="n">
-        <v>75.77112158674164</v>
+        <v>66.88650193357678</v>
       </c>
       <c r="D123" t="n">
-        <v>64.14999613867275</v>
+        <v>43.37080774833325</v>
       </c>
       <c r="E123" t="n">
-        <v>15.33714323439861</v>
+        <v>35.15760804563578</v>
       </c>
     </row>
     <row r="124">
@@ -2788,13 +2788,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C124" t="n">
-        <v>73.89016324963394</v>
+        <v>65.64603688054513</v>
       </c>
       <c r="D124" t="n">
-        <v>62.46452338767863</v>
+        <v>42.48383707637784</v>
       </c>
       <c r="E124" t="n">
-        <v>15.46300530336413</v>
+        <v>35.2834701146013</v>
       </c>
     </row>
     <row r="125">
@@ -2807,13 +2807,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C125" t="n">
-        <v>72.05589821984236</v>
+        <v>64.42857726961779</v>
       </c>
       <c r="D125" t="n">
-        <v>60.82319981241029</v>
+        <v>41.61484832307281</v>
       </c>
       <c r="E125" t="n">
-        <v>15.58886737232965</v>
+        <v>35.40933218356682</v>
       </c>
     </row>
     <row r="126">
@@ -2826,13 +2826,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C126" t="n">
-        <v>70.26716737283704</v>
+        <v>63.23369644599692</v>
       </c>
       <c r="D126" t="n">
-        <v>59.22487213413366</v>
+        <v>40.76347958085528</v>
       </c>
       <c r="E126" t="n">
-        <v>15.71472944129517</v>
+        <v>35.53519425253234</v>
       </c>
     </row>
     <row r="127">
@@ -2845,13 +2845,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C127" t="n">
-        <v>68.52284035844049</v>
+        <v>62.06097566754798</v>
       </c>
       <c r="D127" t="n">
-        <v>57.66841712603188</v>
+        <v>39.92937618107262</v>
       </c>
       <c r="E127" t="n">
-        <v>15.84059151026068</v>
+        <v>35.66105632149785</v>
       </c>
     </row>
     <row r="128">
@@ -2864,13 +2864,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C128" t="n">
-        <v>66.82181488652694</v>
+        <v>60.9100039580528</v>
       </c>
       <c r="D128" t="n">
-        <v>56.15274083187315</v>
+        <v>39.11219054995644</v>
       </c>
       <c r="E128" t="n">
-        <v>15.9664535792262</v>
+        <v>35.78691839046337</v>
       </c>
     </row>
     <row r="129">
@@ -2883,13 +2883,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C129" t="n">
-        <v>65.16301603045362</v>
+        <v>59.7803779631844</v>
       </c>
       <c r="D129" t="n">
-        <v>54.67677780495126</v>
+        <v>38.31158206744917</v>
       </c>
       <c r="E129" t="n">
-        <v>16.09231564819172</v>
+        <v>35.91278045942889</v>
       </c>
     </row>
     <row r="130">
@@ -2902,13 +2902,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C130" t="n">
-        <v>63.54539554778399</v>
+        <v>58.67170180915267</v>
       </c>
       <c r="D130" t="n">
-        <v>53.23949036677386</v>
+        <v>37.52721692882663</v>
       </c>
       <c r="E130" t="n">
-        <v>16.21817771715724</v>
+        <v>36.0386425283944</v>
       </c>
     </row>
     <row r="131">
@@ -2921,13 +2921,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C131" t="n">
-        <v>61.96793121787331</v>
+        <v>57.58358696397173</v>
       </c>
       <c r="D131" t="n">
-        <v>51.83986788498692</v>
+        <v>36.75876800906143</v>
       </c>
       <c r="E131" t="n">
-        <v>16.34403978612275</v>
+        <v>36.16450459735992</v>
       </c>
     </row>
     <row r="132">
@@ -2940,13 +2940,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C132" t="n">
-        <v>60.42962619589816</v>
+        <v>56.51565210130016</v>
       </c>
       <c r="D132" t="n">
-        <v>50.47692607003702</v>
+        <v>36.00591472987347</v>
       </c>
       <c r="E132" t="n">
-        <v>16.46990185508827</v>
+        <v>36.29036666632544</v>
       </c>
     </row>
     <row r="133">
@@ -2959,13 +2959,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C133" t="n">
-        <v>58.92950838292172</v>
+        <v>55.46752296680636</v>
       </c>
       <c r="D133" t="n">
-        <v>49.14970629008654</v>
+        <v>35.26834292941411</v>
       </c>
       <c r="E133" t="n">
-        <v>16.59576392405378</v>
+        <v>36.41622873529096</v>
       </c>
     </row>
     <row r="134">
@@ -2978,13 +2978,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C134" t="n">
-        <v>57.4666298115966</v>
+        <v>54.43883224701236</v>
       </c>
       <c r="D134" t="n">
-        <v>47.85727490370849</v>
+        <v>34.54574473453225</v>
       </c>
       <c r="E134" t="n">
-        <v>16.7216259930193</v>
+        <v>36.54209080425647</v>
       </c>
     </row>
     <row r="135">
@@ -2997,13 +2997,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C135" t="n">
-        <v>56.04006604711726</v>
+        <v>53.42921944056999</v>
       </c>
       <c r="D135" t="n">
-        <v>46.59872260990078</v>
+        <v>33.83781843557142</v>
       </c>
       <c r="E135" t="n">
-        <v>16.84748806198482</v>
+        <v>36.66795287322199</v>
       </c>
     </row>
     <row r="136">
@@ -3016,13 +3016,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C136" t="n">
-        <v>54.64891560304314</v>
+        <v>52.43833073192435</v>
       </c>
       <c r="D136" t="n">
-        <v>45.37316381497108</v>
+        <v>33.14426836364786</v>
       </c>
       <c r="E136" t="n">
-        <v>16.97335013095034</v>
+        <v>36.79381494218751</v>
       </c>
     </row>
     <row r="137">
@@ -3035,13 +3035,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C137" t="n">
-        <v>53.29229937162358</v>
+        <v>51.46581886732024</v>
       </c>
       <c r="D137" t="n">
-        <v>44.17973601585523</v>
+        <v>32.46480477036055</v>
       </c>
       <c r="E137" t="n">
-        <v>17.09921219991585</v>
+        <v>36.91967701115303</v>
       </c>
     </row>
     <row r="138">
@@ -3054,13 +3054,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C138" t="n">
-        <v>51.96936006826459</v>
+        <v>50.51134303310833</v>
       </c>
       <c r="D138" t="n">
-        <v>43.01759919944363</v>
+        <v>31.79914370988545</v>
       </c>
       <c r="E138" t="n">
-        <v>17.22507426888137</v>
+        <v>37.04553908011854</v>
       </c>
     </row>
     <row r="139">
@@ -3073,13 +3073,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C139" t="n">
-        <v>50.67926168978607</v>
+        <v>49.57456873630793</v>
       </c>
       <c r="D139" t="n">
-        <v>41.88593525750046</v>
+        <v>31.1470069234065</v>
       </c>
       <c r="E139" t="n">
-        <v>17.35093633784689</v>
+        <v>37.17140114908406</v>
       </c>
     </row>
     <row r="140">
@@ -3092,13 +3092,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C140" t="n">
-        <v>49.42118898612762</v>
+        <v>48.65516768738515</v>
       </c>
       <c r="D140" t="n">
-        <v>40.78394741677232</v>
+        <v>30.5081217258377</v>
       </c>
       <c r="E140" t="n">
-        <v>17.47679840681241</v>
+        <v>37.29726321804958</v>
       </c>
     </row>
     <row r="141">
@@ -3111,13 +3111,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C141" t="n">
-        <v>48.19434694516862</v>
+        <v>47.75281768520485</v>
       </c>
       <c r="D141" t="n">
-        <v>39.71085968389214</v>
+        <v>29.88222089479073</v>
       </c>
       <c r="E141" t="n">
-        <v>17.60266047577792</v>
+        <v>37.4231252870151</v>
       </c>
     </row>
     <row r="142">
@@ -3130,13 +3130,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C142" t="n">
-        <v>46.99796029033735</v>
+        <v>46.86720250411623</v>
       </c>
       <c r="D142" t="n">
-        <v>38.66591630469532</v>
+        <v>29.2690425617438</v>
       </c>
       <c r="E142" t="n">
-        <v>17.72852254474344</v>
+        <v>37.54898735598061</v>
       </c>
     </row>
     <row r="143">
@@ -3149,13 +3149,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C143" t="n">
-        <v>45.83127299069159</v>
+        <v>45.99801178313267</v>
       </c>
       <c r="D143" t="n">
-        <v>37.6483812375746</v>
+        <v>28.66833010536846</v>
       </c>
       <c r="E143" t="n">
-        <v>17.85438461370896</v>
+        <v>37.67484942494612</v>
       </c>
     </row>
     <row r="144">
@@ -3168,13 +3168,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C144" t="n">
-        <v>44.69354778316102</v>
+        <v>45.14494091716665</v>
       </c>
       <c r="D144" t="n">
-        <v>36.65753764050968</v>
+        <v>28.07983204697162</v>
       </c>
       <c r="E144" t="n">
-        <v>17.98024668267448</v>
+        <v>37.80071149391164</v>
       </c>
     </row>
     <row r="145">
@@ -3187,13 +3187,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C145" t="n">
-        <v>43.5840657066496</v>
+        <v>44.30769095028189</v>
       </c>
       <c r="D145" t="n">
-        <v>35.69268737141739</v>
+        <v>27.50330194801096</v>
       </c>
       <c r="E145" t="n">
-        <v>18.10610875163999</v>
+        <v>37.92657356287716</v>
       </c>
     </row>
     <row r="146">
@@ -3206,13 +3206,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C146" t="n">
-        <v>42.50212564770349</v>
+        <v>43.48596847092526</v>
       </c>
       <c r="D146" t="n">
-        <v>34.7531505014771</v>
+        <v>26.93849830964302</v>
       </c>
       <c r="E146" t="n">
-        <v>18.23197082060551</v>
+        <v>38.05243563184268</v>
       </c>
     </row>
     <row r="147">
@@ -3225,13 +3225,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C147" t="n">
-        <v>41.44704389745744</v>
+        <v>42.67948550910154</v>
       </c>
       <c r="D147" t="n">
-        <v>33.83826484109506</v>
+        <v>26.38518447426346</v>
       </c>
       <c r="E147" t="n">
-        <v>18.35783288957103</v>
+        <v>38.17829770080819</v>
       </c>
     </row>
     <row r="148">
@@ -3244,13 +3244,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C148" t="n">
-        <v>40.41815371957954</v>
+        <v>41.88795943545536</v>
       </c>
       <c r="D148" t="n">
-        <v>32.94738547818006</v>
+        <v>25.84312852900054</v>
       </c>
       <c r="E148" t="n">
-        <v>18.48369495853655</v>
+        <v>38.30415976977371</v>
       </c>
     </row>
     <row r="149">
@@ -3263,13 +3263,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C149" t="n">
-        <v>39.41480492894153</v>
+        <v>41.11111286222462</v>
       </c>
       <c r="D149" t="n">
-        <v>32.07988432841146</v>
+        <v>25.31210321112297</v>
       </c>
       <c r="E149" t="n">
-        <v>18.60955702750206</v>
+        <v>38.43002183873923</v>
       </c>
     </row>
     <row r="150">
@@ -3282,13 +3282,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C150" t="n">
-        <v>38.43636348074818</v>
+        <v>40.34867354603085</v>
       </c>
       <c r="D150" t="n">
-        <v>31.2351496971884</v>
+        <v>24.79188581532442</v>
       </c>
       <c r="E150" t="n">
-        <v>18.73541909646758</v>
+        <v>38.55588390770475</v>
       </c>
     </row>
     <row r="151">
@@ -3301,13 +3301,13 @@
         <v>365</v>
       </c>
       <c r="C151" t="n">
-        <v>37.48221106986629</v>
+        <v>39.60037429247236</v>
       </c>
       <c r="D151" t="n">
-        <v>30.41258585295772</v>
+        <v>24.28225810284757</v>
       </c>
       <c r="E151" t="n">
-        <v>18.86128116543309</v>
+        <v>38.68174597667026</v>
       </c>
     </row>
     <row r="152">
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>55.13606862702827</v>
+        <v>35.46335867184844</v>
       </c>
       <c r="D152" t="n">
-        <v>29.80969787309075</v>
+        <v>25.08333941915792</v>
       </c>
       <c r="E152" t="n">
-        <v>45.93430649772928</v>
+        <v>29.26970157773126</v>
       </c>
     </row>
     <row r="153">
@@ -3339,13 +3339,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C153" t="n">
-        <v>53.86646442004474</v>
+        <v>35.22592306334213</v>
       </c>
       <c r="D153" t="n">
-        <v>29.05548010725346</v>
+        <v>24.87106442912096</v>
       </c>
       <c r="E153" t="n">
-        <v>46.0601685666948</v>
+        <v>29.39556364669678</v>
       </c>
     </row>
     <row r="154">
@@ -3358,13 +3358,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C154" t="n">
-        <v>52.62609506571809</v>
+        <v>34.99007714262339</v>
       </c>
       <c r="D154" t="n">
-        <v>28.32019067631381</v>
+        <v>24.66050751111089</v>
       </c>
       <c r="E154" t="n">
-        <v>46.18603063566032</v>
+        <v>29.5214257156623</v>
       </c>
     </row>
     <row r="155">
@@ -3377,13 +3377,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C155" t="n">
-        <v>51.41428738054343</v>
+        <v>34.75581026635494</v>
       </c>
       <c r="D155" t="n">
-        <v>27.60335777401817</v>
+        <v>24.45165517480947</v>
       </c>
       <c r="E155" t="n">
-        <v>46.31189270462583</v>
+        <v>29.64728778462781</v>
       </c>
     </row>
     <row r="156">
@@ -3396,13 +3396,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C156" t="n">
-        <v>50.23038368224094</v>
+        <v>34.52311186245919</v>
       </c>
       <c r="D156" t="n">
-        <v>26.90452128604785</v>
+        <v>24.24449403352556</v>
       </c>
       <c r="E156" t="n">
-        <v>46.43775477359135</v>
+        <v>29.77314985359333</v>
       </c>
     </row>
     <row r="157">
@@ -3415,13 +3415,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C157" t="n">
-        <v>49.07374143281317</v>
+        <v>34.29197142964109</v>
       </c>
       <c r="D157" t="n">
-        <v>26.22323250173097</v>
+        <v>24.03901080341223</v>
       </c>
       <c r="E157" t="n">
-        <v>46.56361684255687</v>
+        <v>29.89901192255885</v>
       </c>
     </row>
     <row r="158">
@@ -3434,13 +3434,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C158" t="n">
-        <v>47.94373288982143</v>
+        <v>34.0623785369143</v>
       </c>
       <c r="D158" t="n">
-        <v>25.55905383283163</v>
+        <v>23.83519230268974</v>
       </c>
       <c r="E158" t="n">
-        <v>46.68947891152239</v>
+        <v>30.02487399152437</v>
       </c>
     </row>
     <row r="159">
@@ -3453,13 +3453,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C159" t="n">
-        <v>46.83974476569222</v>
+        <v>33.83432282313035</v>
       </c>
       <c r="D159" t="n">
-        <v>24.91155853924318</v>
+        <v>23.63302545087423</v>
       </c>
       <c r="E159" t="n">
-        <v>46.8153409804879</v>
+        <v>30.15073606048988</v>
       </c>
     </row>
     <row r="160">
@@ -3472,13 +3472,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C160" t="n">
-        <v>45.76117789486884</v>
+        <v>33.60779399651117</v>
       </c>
       <c r="D160" t="n">
-        <v>24.28033046141686</v>
+        <v>23.43249726801224</v>
       </c>
       <c r="E160" t="n">
-        <v>46.94120304945342</v>
+        <v>30.2765981294554</v>
       </c>
     </row>
     <row r="161">
@@ -3491,13 +3491,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C161" t="n">
-        <v>44.70744690862716</v>
+        <v>33.38278183418458</v>
       </c>
       <c r="D161" t="n">
-        <v>23.66496375936104</v>
+        <v>23.23359487392092</v>
       </c>
       <c r="E161" t="n">
-        <v>47.06706511841894</v>
+        <v>30.40246019842092</v>
       </c>
     </row>
     <row r="162">
@@ -3510,13 +3510,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C162" t="n">
-        <v>43.6779799173796</v>
+        <v>33.15927618172292</v>
       </c>
       <c r="D162" t="n">
-        <v>23.06506265805024</v>
+        <v>23.03630548743384</v>
       </c>
       <c r="E162" t="n">
-        <v>47.19292718738446</v>
+        <v>30.52832226738643</v>
       </c>
     </row>
     <row r="163">
@@ -3529,13 +3529,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C163" t="n">
-        <v>42.67221820029441</v>
+        <v>32.93726695268489</v>
       </c>
       <c r="D163" t="n">
-        <v>22.48024119908728</v>
+        <v>22.84061642565254</v>
       </c>
       <c r="E163" t="n">
-        <v>47.31878925634997</v>
+        <v>30.65418433635195</v>
       </c>
     </row>
     <row r="164">
@@ -3548,13 +3548,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C164" t="n">
-        <v>41.68961590206209</v>
+        <v>32.71674412816029</v>
       </c>
       <c r="D164" t="n">
-        <v>21.91012299846545</v>
+        <v>22.64651510320357</v>
       </c>
       <c r="E164" t="n">
-        <v>47.44465132531549</v>
+        <v>30.78004640531747</v>
       </c>
     </row>
     <row r="165">
@@ -3567,13 +3567,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C165" t="n">
-        <v>40.72963973664433</v>
+        <v>32.49769775631786</v>
       </c>
       <c r="D165" t="n">
-        <v>21.35434101028154</v>
+        <v>22.45398903150115</v>
       </c>
       <c r="E165" t="n">
-        <v>47.57051339428101</v>
+        <v>30.90590847428298</v>
       </c>
     </row>
     <row r="166">
@@ -3586,13 +3586,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C166" t="n">
-        <v>39.79176869784455</v>
+        <v>32.28011795195628</v>
       </c>
       <c r="D166" t="n">
-        <v>20.81253729625401</v>
+        <v>22.26302581801524</v>
       </c>
       <c r="E166" t="n">
-        <v>47.69637546324653</v>
+        <v>31.0317705432485</v>
       </c>
     </row>
     <row r="167">
@@ -3605,13 +3605,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C167" t="n">
-        <v>38.87549377654314</v>
+        <v>32.06399489605796</v>
       </c>
       <c r="D167" t="n">
-        <v>20.28436280090437</v>
+        <v>22.07361316554516</v>
       </c>
       <c r="E167" t="n">
-        <v>47.82223753221204</v>
+        <v>31.15763261221402</v>
       </c>
     </row>
     <row r="168">
@@ -3624,13 +3624,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C168" t="n">
-        <v>37.98031768444386</v>
+        <v>31.84931883534597</v>
       </c>
       <c r="D168" t="n">
-        <v>19.76947713226306</v>
+        <v>21.8857388714986</v>
       </c>
       <c r="E168" t="n">
-        <v>47.94809960117756</v>
+        <v>31.28349468117954</v>
       </c>
     </row>
     <row r="169">
@@ -3643,13 +3643,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C169" t="n">
-        <v>37.10575458418134</v>
+        <v>31.6360800818439</v>
       </c>
       <c r="D169" t="n">
-        <v>19.26754834796464</v>
+        <v>21.69939082717596</v>
       </c>
       <c r="E169" t="n">
-        <v>48.07396167014308</v>
+        <v>31.40935675014505</v>
       </c>
     </row>
     <row r="170">
@@ -3662,13 +3662,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C170" t="n">
-        <v>36.2513298256435</v>
+        <v>31.42426901243863</v>
       </c>
       <c r="D170" t="n">
-        <v>18.77825274660043</v>
+        <v>21.51455701706015</v>
       </c>
       <c r="E170" t="n">
-        <v>48.1998237391086</v>
+        <v>31.53521881911057</v>
       </c>
     </row>
     <row r="171">
@@ -3681,13 +3681,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C171" t="n">
-        <v>35.41657968836544</v>
+        <v>31.21387606844607</v>
       </c>
       <c r="D171" t="n">
-        <v>18.30127466419976</v>
+        <v>21.33122551811153</v>
       </c>
       <c r="E171" t="n">
-        <v>48.32568580807411</v>
+        <v>31.66108088807609</v>
       </c>
     </row>
     <row r="172">
@@ -3700,13 +3700,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C172" t="n">
-        <v>34.6010511298553</v>
+        <v>31.00489175517978</v>
       </c>
       <c r="D172" t="n">
-        <v>17.8363062757145</v>
+        <v>21.14938449906829</v>
       </c>
       <c r="E172" t="n">
-        <v>48.45154787703962</v>
+        <v>31.78694295704161</v>
       </c>
     </row>
     <row r="173">
@@ -3719,13 +3719,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C173" t="n">
-        <v>33.80430153971529</v>
+        <v>30.79730664152254</v>
       </c>
       <c r="D173" t="n">
-        <v>17.38304740138407</v>
+        <v>20.96902221975191</v>
       </c>
       <c r="E173" t="n">
-        <v>48.57740994600514</v>
+        <v>31.91280502600712</v>
       </c>
     </row>
     <row r="174">
@@ -3738,13 +3738,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C174" t="n">
-        <v>33.02589849942447</v>
+        <v>30.59111135950065</v>
       </c>
       <c r="D174" t="n">
-        <v>16.94120531786166</v>
+        <v>20.79012703037788</v>
       </c>
       <c r="E174" t="n">
-        <v>48.70327201497066</v>
+        <v>32.03866709497264</v>
       </c>
     </row>
     <row r="175">
@@ -3757,13 +3757,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C175" t="n">
-        <v>32.26541954765304</v>
+        <v>30.38629660386124</v>
       </c>
       <c r="D175" t="n">
-        <v>16.51049457398498</v>
+        <v>20.61268737087155</v>
       </c>
       <c r="E175" t="n">
-        <v>48.82913408393618</v>
+        <v>32.16452916393816</v>
       </c>
     </row>
     <row r="176">
@@ -3776,13 +3776,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C176" t="n">
-        <v>31.52245195098062</v>
+        <v>30.18285313165233</v>
       </c>
       <c r="D176" t="n">
-        <v>16.09063681107777</v>
+        <v>20.43669177018907</v>
       </c>
       <c r="E176" t="n">
-        <v>48.95499615290169</v>
+        <v>32.29039123290367</v>
       </c>
     </row>
     <row r="177">
@@ -3795,13 +3795,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C177" t="n">
-        <v>30.79659247989416</v>
+        <v>29.98077176180567</v>
       </c>
       <c r="D177" t="n">
-        <v>15.68136058767109</v>
+        <v>20.26212884564347</v>
       </c>
       <c r="E177" t="n">
-        <v>49.08085822186721</v>
+        <v>32.41625330186919</v>
       </c>
     </row>
     <row r="178">
@@ -3814,13 +3814,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C178" t="n">
-        <v>30.08744718994391</v>
+        <v>29.78004337472247</v>
       </c>
       <c r="D178" t="n">
-        <v>15.2824012085362</v>
+        <v>20.08898730223567</v>
       </c>
       <c r="E178" t="n">
-        <v>49.20672029083273</v>
+        <v>32.54211537083471</v>
       </c>
     </row>
     <row r="179">
@@ -3833,13 +3833,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C179" t="n">
-        <v>29.39463120793859</v>
+        <v>29.58065891186181</v>
       </c>
       <c r="D179" t="n">
-        <v>14.89350055792332</v>
+        <v>19.91725593199054</v>
       </c>
       <c r="E179" t="n">
-        <v>49.33258235979824</v>
+        <v>32.66797743980023</v>
       </c>
     </row>
     <row r="180">
@@ -3852,13 +3852,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C180" t="n">
-        <v>28.71776852306386</v>
+        <v>29.38260937533185</v>
       </c>
       <c r="D180" t="n">
-        <v>14.5144069369033</v>
+        <v>19.74692361329796</v>
       </c>
       <c r="E180" t="n">
-        <v>49.45844442876376</v>
+        <v>32.79383950876574</v>
       </c>
     </row>
     <row r="181">
@@ -3871,13 +3871,13 @@
         <v>365</v>
       </c>
       <c r="C181" t="n">
-        <v>28.0564917828106</v>
+        <v>29.18588582748376</v>
       </c>
       <c r="D181" t="n">
-        <v>14.14487490471156</v>
+        <v>19.57797931025875</v>
       </c>
       <c r="E181" t="n">
-        <v>49.58430649772928</v>
+        <v>32.91970157773126</v>
       </c>
     </row>
     <row r="182">
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>58.66364901394918</v>
+        <v>76.97030709117016</v>
       </c>
       <c r="D182" t="n">
-        <v>37.65879125115598</v>
+        <v>50.83682641008818</v>
       </c>
       <c r="E182" t="n">
-        <v>35.80557656377395</v>
+        <v>33.95267820632088</v>
       </c>
     </row>
     <row r="183">
@@ -3909,13 +3909,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C183" t="n">
-        <v>58.24753815111212</v>
+        <v>75.1330607471136</v>
       </c>
       <c r="D183" t="n">
-        <v>37.31835972526376</v>
+        <v>49.5288103803531</v>
       </c>
       <c r="E183" t="n">
-        <v>35.93143863273947</v>
+        <v>34.07854027528639</v>
       </c>
     </row>
     <row r="184">
@@ -3928,13 +3928,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C184" t="n">
-        <v>57.83437883072224</v>
+        <v>73.33966864057167</v>
       </c>
       <c r="D184" t="n">
-        <v>36.98086294676551</v>
+        <v>48.25427330080939</v>
       </c>
       <c r="E184" t="n">
-        <v>36.05730070170499</v>
+        <v>34.20440234425191</v>
       </c>
     </row>
     <row r="185">
@@ -3947,13 +3947,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C185" t="n">
-        <v>57.42415011700594</v>
+        <v>71.58908399077148</v>
       </c>
       <c r="D185" t="n">
-        <v>36.6462764104955</v>
+        <v>47.01236216573933</v>
       </c>
       <c r="E185" t="n">
-        <v>36.18316277067051</v>
+        <v>34.33026441321743</v>
       </c>
     </row>
     <row r="186">
@@ -3966,13 +3966,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C186" t="n">
-        <v>57.01683122269048</v>
+        <v>69.88028500312276</v>
       </c>
       <c r="D186" t="n">
-        <v>36.31457581127044</v>
+        <v>45.80224561633686</v>
       </c>
       <c r="E186" t="n">
-        <v>36.30902483963602</v>
+        <v>34.45612648218295</v>
       </c>
     </row>
     <row r="187">
@@ -3985,13 +3985,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C187" t="n">
-        <v>56.61240150795067</v>
+        <v>68.21227427280901</v>
       </c>
       <c r="D187" t="n">
-        <v>35.98573704228541</v>
+        <v>44.62311339330821</v>
       </c>
       <c r="E187" t="n">
-        <v>36.43488690860154</v>
+        <v>34.58198855114846</v>
       </c>
     </row>
     <row r="188">
@@ -4004,13 +4004,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C188" t="n">
-        <v>56.21084047936294</v>
+        <v>66.58407820261459</v>
       </c>
       <c r="D188" t="n">
-        <v>35.6597361935224</v>
+        <v>43.47417580327124</v>
       </c>
       <c r="E188" t="n">
-        <v>36.56074897756706</v>
+        <v>34.70785062011398</v>
       </c>
     </row>
     <row r="189">
@@ -4023,13 +4023,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C189" t="n">
-        <v>55.81212778886695</v>
+        <v>64.99474643464815</v>
       </c>
       <c r="D189" t="n">
-        <v>35.33654955017162</v>
+        <v>42.35466319860707</v>
       </c>
       <c r="E189" t="n">
-        <v>36.68661104653258</v>
+        <v>34.8337126890795</v>
       </c>
     </row>
     <row r="190">
@@ -4042,13 +4042,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C190" t="n">
-        <v>55.41624323273449</v>
+        <v>63.44335129563046</v>
       </c>
       <c r="D190" t="n">
-        <v>35.01615359106508</v>
+        <v>41.26382547042542</v>
       </c>
       <c r="E190" t="n">
-        <v>36.81247311549809</v>
+        <v>34.95957475804502</v>
       </c>
     </row>
     <row r="191">
@@ -4061,13 +4061,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C191" t="n">
-        <v>55.02316675054571</v>
+        <v>61.92898725542302</v>
       </c>
       <c r="D191" t="n">
-        <v>34.69852498712279</v>
+        <v>40.20093155431417</v>
       </c>
       <c r="E191" t="n">
-        <v>36.93833518446361</v>
+        <v>35.08543682701053</v>
       </c>
     </row>
     <row r="192">
@@ -4080,13 +4080,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C192" t="n">
-        <v>54.63287842417255</v>
+        <v>60.45077039848127</v>
       </c>
       <c r="D192" t="n">
-        <v>34.38364059981111</v>
+        <v>39.16526894855181</v>
       </c>
       <c r="E192" t="n">
-        <v>37.06419725342913</v>
+        <v>35.21129889597605</v>
       </c>
     </row>
     <row r="193">
@@ -4099,13 +4099,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C193" t="n">
-        <v>54.24535847676953</v>
+        <v>59.00783790792411</v>
       </c>
       <c r="D193" t="n">
-        <v>34.07147747961331</v>
+        <v>38.15614324446916</v>
       </c>
       <c r="E193" t="n">
-        <v>37.19005932239465</v>
+        <v>35.33716096494157</v>
       </c>
     </row>
     <row r="194">
@@ -4118,13 +4118,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C194" t="n">
-        <v>53.86058727177159</v>
+        <v>57.59934756191831</v>
       </c>
       <c r="D194" t="n">
-        <v>33.76201286451236</v>
+        <v>37.17287766865502</v>
       </c>
       <c r="E194" t="n">
-        <v>37.31592139136016</v>
+        <v>35.46302303390708</v>
       </c>
     </row>
     <row r="195">
@@ -4137,13 +4137,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C195" t="n">
-        <v>53.47854531189899</v>
+        <v>56.22447724208406</v>
       </c>
       <c r="D195" t="n">
-        <v>33.45522417848562</v>
+        <v>36.21481263670801</v>
       </c>
       <c r="E195" t="n">
-        <v>37.44178346032568</v>
+        <v>35.5888851028726</v>
       </c>
     </row>
     <row r="196">
@@ -4156,13 +4156,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C196" t="n">
-        <v>53.09921323816943</v>
+        <v>54.88242445363469</v>
       </c>
       <c r="D196" t="n">
-        <v>33.15108903001147</v>
+        <v>35.28130531824401</v>
       </c>
       <c r="E196" t="n">
-        <v>37.5676455292912</v>
+        <v>35.71474717183812</v>
       </c>
     </row>
     <row r="197">
@@ -4175,13 +4175,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C197" t="n">
-        <v>52.722571828917</v>
+        <v>53.57240585697033</v>
       </c>
       <c r="D197" t="n">
-        <v>32.84958521058781</v>
+        <v>34.37172921287619</v>
       </c>
       <c r="E197" t="n">
-        <v>37.69350759825672</v>
+        <v>35.84060924080364</v>
       </c>
     </row>
     <row r="198">
@@ -4194,13 +4194,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C198" t="n">
-        <v>52.34860199881825</v>
+        <v>52.29365681045231</v>
       </c>
       <c r="D198" t="n">
-        <v>32.55069069326228</v>
+        <v>33.48547373689184</v>
       </c>
       <c r="E198" t="n">
-        <v>37.81936966722223</v>
+        <v>35.96647130976915</v>
       </c>
     </row>
     <row r="199">
@@ -4213,13 +4213,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C199" t="n">
-        <v>51.97728479792504</v>
+        <v>51.04543092409135</v>
       </c>
       <c r="D199" t="n">
-        <v>32.25438363117409</v>
+        <v>32.62194382035658</v>
       </c>
       <c r="E199" t="n">
-        <v>37.94523173618775</v>
+        <v>36.09233337873466</v>
       </c>
     </row>
     <row r="200">
@@ -4232,13 +4232,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C200" t="n">
-        <v>51.60860141070428</v>
+        <v>49.82699962388887</v>
       </c>
       <c r="D200" t="n">
-        <v>31.9606423561074</v>
+        <v>31.78055951438397</v>
       </c>
       <c r="E200" t="n">
-        <v>38.07109380515327</v>
+        <v>36.21819544770018</v>
       </c>
     </row>
     <row r="201">
@@ -4251,13 +4251,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C201" t="n">
-        <v>51.2425331550846</v>
+        <v>48.63765172657746</v>
       </c>
       <c r="D201" t="n">
-        <v>31.66944537705625</v>
+        <v>30.9607556083146</v>
       </c>
       <c r="E201" t="n">
-        <v>38.19695587411879</v>
+        <v>36.3440575166657</v>
       </c>
     </row>
     <row r="202">
@@ -4270,13 +4270,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C202" t="n">
-        <v>50.87906148150957</v>
+        <v>47.47669302451193</v>
       </c>
       <c r="D202" t="n">
-        <v>31.38077137880073</v>
+        <v>30.16198125655545</v>
       </c>
       <c r="E202" t="n">
-        <v>38.3228179430843</v>
+        <v>36.46991958563122</v>
       </c>
     </row>
     <row r="203">
@@ -4289,13 +4289,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C203" t="n">
-        <v>50.5181679719978</v>
+        <v>46.34344588046896</v>
       </c>
       <c r="D203" t="n">
-        <v>31.09459922049453</v>
+        <v>29.38369961483633</v>
       </c>
       <c r="E203" t="n">
-        <v>38.44868001204981</v>
+        <v>36.59578165459673</v>
       </c>
     </row>
     <row r="204">
@@ -4308,13 +4308,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C204" t="n">
-        <v>50.15983433920969</v>
+        <v>45.23724883211858</v>
       </c>
       <c r="D204" t="n">
-        <v>30.81090793426367</v>
+        <v>28.62538748564667</v>
       </c>
       <c r="E204" t="n">
-        <v>38.57454208101533</v>
+        <v>36.72164372356225</v>
       </c>
     </row>
     <row r="205">
@@ -4327,13 +4327,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C205" t="n">
-        <v>49.8040424255207</v>
+        <v>44.15745620593688</v>
       </c>
       <c r="D205" t="n">
-        <v>30.52967672381626</v>
+        <v>27.88653497262138</v>
       </c>
       <c r="E205" t="n">
-        <v>38.70040414998085</v>
+        <v>36.84750579252777</v>
       </c>
     </row>
     <row r="206">
@@ -4346,13 +4346,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C206" t="n">
-        <v>49.4507742021013</v>
+        <v>43.1034377403343</v>
       </c>
       <c r="D206" t="n">
-        <v>30.2508849630634</v>
+        <v>27.16664514365077</v>
       </c>
       <c r="E206" t="n">
-        <v>38.82626621894637</v>
+        <v>36.97336786149329</v>
       </c>
     </row>
     <row r="207">
@@ -4365,13 +4365,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C207" t="n">
-        <v>49.10001176800343</v>
+        <v>42.07457821777975</v>
       </c>
       <c r="D207" t="n">
-        <v>29.9745121947509</v>
+        <v>26.46523370249491</v>
       </c>
       <c r="E207" t="n">
-        <v>38.95212828791188</v>
+        <v>37.0992299304588</v>
       </c>
     </row>
     <row r="208">
@@ -4384,13 +4384,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C208" t="n">
-        <v>48.75173734925332</v>
+        <v>41.07027710570578</v>
       </c>
       <c r="D208" t="n">
-        <v>29.70053812910191</v>
+        <v>25.7818286686883</v>
       </c>
       <c r="E208" t="n">
-        <v>39.0779903568774</v>
+        <v>37.22509199942432</v>
       </c>
     </row>
     <row r="209">
@@ -4403,13 +4403,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C209" t="n">
-        <v>48.40593329795096</v>
+        <v>40.08994820598513</v>
       </c>
       <c r="D209" t="n">
-        <v>29.4289426424703</v>
+        <v>25.11597006552635</v>
       </c>
       <c r="E209" t="n">
-        <v>39.20385242584292</v>
+        <v>37.35095406838984</v>
       </c>
     </row>
     <row r="210">
@@ -4422,13 +4422,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C210" t="n">
-        <v>48.06258209137577</v>
+        <v>39.13301931277415</v>
       </c>
       <c r="D210" t="n">
-        <v>29.15970577600475</v>
+        <v>24.46720961593002</v>
       </c>
       <c r="E210" t="n">
-        <v>39.32971449480844</v>
+        <v>37.47681613735536</v>
       </c>
     </row>
     <row r="211">
@@ -4441,13 +4441,13 @@
         <v>365</v>
       </c>
       <c r="C211" t="n">
-        <v>47.72166633109867</v>
+        <v>38.19893187852334</v>
       </c>
       <c r="D211" t="n">
-        <v>28.89280773432329</v>
+        <v>23.83511044599049</v>
       </c>
       <c r="E211" t="n">
-        <v>39.45557656377395</v>
+        <v>37.60267820632087</v>
       </c>
     </row>
     <row r="212">
@@ -4460,13 +4460,13 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>52.90882229335939</v>
+        <v>73.29561825987871</v>
       </c>
       <c r="D212" t="n">
-        <v>38.40489021196786</v>
+        <v>36.6892331530667</v>
       </c>
       <c r="E212" t="n">
-        <v>27.4130692249635</v>
+        <v>49.94348362956639</v>
       </c>
     </row>
     <row r="213">
@@ -4479,13 +4479,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C213" t="n">
-        <v>52.56268406602779</v>
+        <v>72.71701138309757</v>
       </c>
       <c r="D213" t="n">
-        <v>38.08748261483942</v>
+        <v>36.30807957205365</v>
       </c>
       <c r="E213" t="n">
-        <v>27.53893129392902</v>
+        <v>50.06934569853191</v>
       </c>
     </row>
     <row r="214">
@@ -4498,13 +4498,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C214" t="n">
-        <v>52.21881033197401</v>
+        <v>72.14297211793914</v>
       </c>
       <c r="D214" t="n">
-        <v>37.77258435707157</v>
+        <v>35.93065737369184</v>
       </c>
       <c r="E214" t="n">
-        <v>27.66479336289454</v>
+        <v>50.19520776749743</v>
       </c>
     </row>
     <row r="215">
@@ -4517,13 +4517,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C215" t="n">
-        <v>51.87718627651014</v>
+        <v>71.57346440697521</v>
       </c>
       <c r="D215" t="n">
-        <v>37.46017619066102</v>
+        <v>35.55693139836526</v>
       </c>
       <c r="E215" t="n">
-        <v>27.79065543186005</v>
+        <v>50.32106983646295</v>
       </c>
     </row>
     <row r="216">
@@ -4536,13 +4536,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C216" t="n">
-        <v>51.53779718186843</v>
+        <v>71.00845247742041</v>
       </c>
       <c r="D216" t="n">
-        <v>37.15023901205214</v>
+        <v>35.1868668090376</v>
       </c>
       <c r="E216" t="n">
-        <v>27.91651750082557</v>
+        <v>50.44693190542846</v>
       </c>
     </row>
     <row r="217">
@@ -4555,13 +4555,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C217" t="n">
-        <v>51.20062842656719</v>
+        <v>70.44790083888525</v>
       </c>
       <c r="D217" t="n">
-        <v>36.84275386107086</v>
+        <v>34.82042908835044</v>
       </c>
       <c r="E217" t="n">
-        <v>28.04237956979109</v>
+        <v>50.57279397439398</v>
       </c>
     </row>
     <row r="218">
@@ -4574,13 +4574,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C218" t="n">
-        <v>50.86566548478082</v>
+        <v>69.89177428114684</v>
       </c>
       <c r="D218" t="n">
-        <v>36.53770191986614</v>
+        <v>34.457584035747</v>
       </c>
       <c r="E218" t="n">
-        <v>28.16824163875661</v>
+        <v>50.6986560433595</v>
       </c>
     </row>
     <row r="219">
@@ -4593,13 +4593,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C219" t="n">
-        <v>50.53289392571412</v>
+        <v>69.34003787193718</v>
       </c>
       <c r="D219" t="n">
-        <v>36.23506451185936</v>
+        <v>34.09829776462145</v>
       </c>
       <c r="E219" t="n">
-        <v>28.29410370772212</v>
+        <v>50.82451811232502</v>
       </c>
     </row>
     <row r="220">
@@ -4612,13 +4612,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C220" t="n">
-        <v>50.20229941298051</v>
+        <v>68.79265695474901</v>
       </c>
       <c r="D220" t="n">
-        <v>35.93482310070119</v>
+        <v>33.74253669949339</v>
       </c>
       <c r="E220" t="n">
-        <v>28.41996577668764</v>
+        <v>50.95038018129053</v>
       </c>
     </row>
     <row r="221">
@@ -4631,13 +4631,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C221" t="n">
-        <v>49.87386770398441</v>
+        <v>68.24959714665879</v>
       </c>
       <c r="D221" t="n">
-        <v>35.63695928923621</v>
+        <v>33.3902675732075</v>
       </c>
       <c r="E221" t="n">
-        <v>28.54582784565316</v>
+        <v>51.07624225025605</v>
       </c>
     </row>
     <row r="222">
@@ -4650,13 +4650,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C222" t="n">
-        <v>49.54758464930764</v>
+        <v>67.71082433616711</v>
       </c>
       <c r="D222" t="n">
-        <v>35.34145481847496</v>
+        <v>33.04145742415796</v>
       </c>
       <c r="E222" t="n">
-        <v>28.67168991461867</v>
+        <v>51.20210431922157</v>
       </c>
     </row>
     <row r="223">
@@ -4669,13 +4669,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C223" t="n">
-        <v>49.22343619209985</v>
+        <v>67.176304681056</v>
       </c>
       <c r="D223" t="n">
-        <v>35.0482915665735</v>
+        <v>32.69607359353743</v>
       </c>
       <c r="E223" t="n">
-        <v>28.79755198358419</v>
+        <v>51.32796638818709</v>
       </c>
     </row>
     <row r="224">
@@ -4688,13 +4688,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C224" t="n">
-        <v>48.90140836747292</v>
+        <v>66.64600460626312</v>
       </c>
       <c r="D224" t="n">
-        <v>34.75745154782054</v>
+        <v>32.35408372261047</v>
       </c>
       <c r="E224" t="n">
-        <v>28.92341405254971</v>
+        <v>51.4538284571526</v>
       </c>
     </row>
     <row r="225">
@@ -4707,13 +4707,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C225" t="n">
-        <v>48.58148730189932</v>
+        <v>66.11989080177284</v>
       </c>
       <c r="D225" t="n">
-        <v>34.46891691163173</v>
+        <v>32.01545575001117</v>
       </c>
       <c r="E225" t="n">
-        <v>29.04927612151522</v>
+        <v>51.57969052611812</v>
       </c>
     </row>
     <row r="226">
@@ -4726,13 +4726,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C226" t="n">
-        <v>48.26365921261444</v>
+        <v>65.59793022052395</v>
       </c>
       <c r="D226" t="n">
-        <v>34.18266994155149</v>
+        <v>31.68015790906468</v>
       </c>
       <c r="E226" t="n">
-        <v>29.17513819048074</v>
+        <v>51.70555259508364</v>
       </c>
     </row>
     <row r="227">
@@ -4745,13 +4745,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C227" t="n">
-        <v>47.94791040702277</v>
+        <v>65.08009007633376</v>
       </c>
       <c r="D227" t="n">
-        <v>33.89869305426196</v>
+        <v>31.3481587251325</v>
       </c>
       <c r="E227" t="n">
-        <v>29.30100025944626</v>
+        <v>51.83141466404916</v>
       </c>
     </row>
     <row r="228">
@@ -4764,13 +4764,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C228" t="n">
-        <v>47.634227282108</v>
+        <v>64.56633784183877</v>
       </c>
       <c r="D228" t="n">
-        <v>33.61696879859932</v>
+        <v>31.01942701298143</v>
       </c>
       <c r="E228" t="n">
-        <v>29.42686232841178</v>
+        <v>51.95727673301467</v>
       </c>
     </row>
     <row r="229">
@@ -4783,13 +4783,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C229" t="n">
-        <v>47.32259632384702</v>
+        <v>64.05664124645155</v>
       </c>
       <c r="D229" t="n">
-        <v>33.33747985457711</v>
+        <v>30.6939318741757</v>
       </c>
       <c r="E229" t="n">
-        <v>29.55272439737729</v>
+        <v>52.08313880198018</v>
       </c>
     </row>
     <row r="230">
@@ -4802,13 +4802,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C230" t="n">
-        <v>47.01300410662768</v>
+        <v>63.55096827433355</v>
       </c>
       <c r="D230" t="n">
-        <v>33.06020903241689</v>
+        <v>30.37164269449232</v>
       </c>
       <c r="E230" t="n">
-        <v>29.67858646634281</v>
+        <v>52.2090008709457</v>
       </c>
     </row>
     <row r="231">
@@ -4821,13 +4821,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C231" t="n">
-        <v>46.70543729267039</v>
+        <v>63.04928716238422</v>
       </c>
       <c r="D231" t="n">
-        <v>32.78513927158574</v>
+        <v>30.0525291413594</v>
       </c>
       <c r="E231" t="n">
-        <v>29.80444853530833</v>
+        <v>52.33486293991122</v>
       </c>
     </row>
     <row r="232">
@@ -4840,13 +4840,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C232" t="n">
-        <v>46.3998826314535</v>
+        <v>62.5515663982458</v>
       </c>
       <c r="D232" t="n">
-        <v>32.51225363984096</v>
+        <v>29.73656116131713</v>
       </c>
       <c r="E232" t="n">
-        <v>29.93031060427385</v>
+        <v>52.46072500887674</v>
       </c>
     </row>
     <row r="233">
@@ -4859,13 +4859,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C233" t="n">
-        <v>46.09632695914247</v>
+        <v>62.05777471832393</v>
       </c>
       <c r="D233" t="n">
-        <v>32.24153533228162</v>
+        <v>29.42370897750135</v>
       </c>
       <c r="E233" t="n">
-        <v>30.05617267323936</v>
+        <v>52.58658707784225</v>
       </c>
     </row>
     <row r="234">
@@ -4878,13 +4878,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C234" t="n">
-        <v>45.79475719802274</v>
+        <v>61.56788110582388</v>
       </c>
       <c r="D234" t="n">
-        <v>31.97296767040714</v>
+        <v>29.1139430871494</v>
       </c>
       <c r="E234" t="n">
-        <v>30.18203474220488</v>
+        <v>52.71244914680777</v>
       </c>
     </row>
     <row r="235">
@@ -4897,13 +4897,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C235" t="n">
-        <v>45.49516035593626</v>
+        <v>61.08185478880223</v>
       </c>
       <c r="D235" t="n">
-        <v>31.7065341011826</v>
+        <v>28.80723425912819</v>
       </c>
       <c r="E235" t="n">
-        <v>30.3078968111704</v>
+        <v>52.83831121577329</v>
       </c>
     </row>
     <row r="236">
@@ -4916,13 +4916,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C236" t="n">
-        <v>45.19752352572191</v>
+        <v>60.59966523823405</v>
       </c>
       <c r="D236" t="n">
-        <v>31.442218196111</v>
+        <v>28.50355353148415</v>
       </c>
       <c r="E236" t="n">
-        <v>30.43375888013592</v>
+        <v>52.96417328473881</v>
       </c>
     </row>
     <row r="237">
@@ -4935,13 +4935,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C237" t="n">
-        <v>44.90183388465925</v>
+        <v>60.1212821660952</v>
       </c>
       <c r="D237" t="n">
-        <v>31.18000365031219</v>
+        <v>28.20287220901492</v>
       </c>
       <c r="E237" t="n">
-        <v>30.55962094910143</v>
+        <v>53.09003535370432</v>
       </c>
     </row>
     <row r="238">
@@ -4954,13 +4954,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C238" t="n">
-        <v>44.60807869391624</v>
+        <v>59.64667552345986</v>
       </c>
       <c r="D238" t="n">
-        <v>30.91987428160863</v>
+        <v>27.90516186086274</v>
       </c>
       <c r="E238" t="n">
-        <v>30.68548301806695</v>
+        <v>53.21589742266984</v>
       </c>
     </row>
     <row r="239">
@@ -4973,13 +4973,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C239" t="n">
-        <v>44.31624529800037</v>
+        <v>59.17581549861307</v>
       </c>
       <c r="D239" t="n">
-        <v>30.66181402961767</v>
+        <v>27.61039431812901</v>
       </c>
       <c r="E239" t="n">
-        <v>30.81134508703247</v>
+        <v>53.34175949163536</v>
       </c>
     </row>
     <row r="240">
@@ -4992,13 +4992,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C240" t="n">
-        <v>44.02632112421343</v>
+        <v>58.70867251517811</v>
       </c>
       <c r="D240" t="n">
-        <v>30.40580695485062</v>
+        <v>27.31854167151018</v>
       </c>
       <c r="E240" t="n">
-        <v>30.93720715599798</v>
+        <v>53.46762156060088</v>
       </c>
     </row>
     <row r="241">
@@ -5011,13 +5011,13 @@
         <v>365</v>
       </c>
       <c r="C241" t="n">
-        <v>43.7382936821099</v>
+        <v>58.24521723025873</v>
       </c>
       <c r="D241" t="n">
-        <v>30.15183723781827</v>
+        <v>27.02957626895463</v>
       </c>
       <c r="E241" t="n">
-        <v>31.0630692249635</v>
+        <v>53.59348362956639</v>
       </c>
     </row>
     <row r="242">
@@ -5030,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>20.84971002780165</v>
+        <v>40.04053487747244</v>
       </c>
       <c r="D242" t="n">
-        <v>11.72897574244574</v>
+        <v>31.4478337384184</v>
       </c>
       <c r="E242" t="n">
-        <v>43.74513733377608</v>
+        <v>21.46000587991259</v>
       </c>
     </row>
     <row r="243">
@@ -5049,13 +5049,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C243" t="n">
-        <v>20.53654198235303</v>
+        <v>39.6286224935212</v>
       </c>
       <c r="D243" t="n">
-        <v>11.52695577193116</v>
+        <v>31.0744403721103</v>
       </c>
       <c r="E243" t="n">
-        <v>43.8709994027416</v>
+        <v>21.58586794887811</v>
       </c>
     </row>
     <row r="244">
@@ -5068,13 +5068,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C244" t="n">
-        <v>20.22807780206894</v>
+        <v>39.22094761070653</v>
       </c>
       <c r="D244" t="n">
-        <v>11.32835843310353</v>
+        <v>30.70540135503004</v>
       </c>
       <c r="E244" t="n">
-        <v>43.99686147170711</v>
+        <v>21.71173001784363</v>
       </c>
     </row>
     <row r="245">
@@ -5087,13 +5087,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C245" t="n">
-        <v>19.92424683367611</v>
+        <v>38.81746663622429</v>
       </c>
       <c r="D245" t="n">
-        <v>11.13312648569198</v>
+        <v>30.3406666137724</v>
       </c>
       <c r="E245" t="n">
-        <v>44.12272354067263</v>
+        <v>21.83759208680915</v>
       </c>
     </row>
     <row r="246">
@@ -5106,13 +5106,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C246" t="n">
-        <v>19.6249794851318</v>
+        <v>38.41813642572625</v>
       </c>
       <c r="D246" t="n">
-        <v>10.94120363677933</v>
+        <v>29.9801866443589</v>
       </c>
       <c r="E246" t="n">
-        <v>44.24858560963815</v>
+        <v>21.96345415577466</v>
       </c>
     </row>
     <row r="247">
@@ -5125,13 +5125,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C247" t="n">
-        <v>19.33020720968371</v>
+        <v>38.02291427870673</v>
       </c>
       <c r="D247" t="n">
-        <v>10.75253452525694</v>
+        <v>29.62391250582132</v>
       </c>
       <c r="E247" t="n">
-        <v>44.37444767860367</v>
+        <v>22.08931622474018</v>
       </c>
     </row>
     <row r="248">
@@ -5144,13 +5144,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C248" t="n">
-        <v>19.03986249016956</v>
+        <v>37.63175793393653</v>
       </c>
       <c r="D248" t="n">
-        <v>10.56706470653287</v>
+        <v>29.27179581385679</v>
       </c>
       <c r="E248" t="n">
-        <v>44.50030974756918</v>
+        <v>22.2151782937057</v>
       </c>
     </row>
     <row r="249">
@@ -5163,13 +5163,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C249" t="n">
-        <v>18.75387882355233</v>
+        <v>37.244625564944</v>
       </c>
       <c r="D249" t="n">
-        <v>10.38474063748915</v>
+        <v>28.9237887345541</v>
       </c>
       <c r="E249" t="n">
-        <v>44.6261718165347</v>
+        <v>22.34104036267122</v>
       </c>
     </row>
     <row r="250">
@@ -5182,13 +5182,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C250" t="n">
-        <v>18.47219070568783</v>
+        <v>36.86147577554249</v>
       </c>
       <c r="D250" t="n">
-        <v>10.20550966168419</v>
+        <v>28.57984397818995</v>
       </c>
       <c r="E250" t="n">
-        <v>44.75203388550022</v>
+        <v>22.46690243163673</v>
       </c>
     </row>
     <row r="251">
@@ -5201,13 +5201,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C251" t="n">
-        <v>18.19473361632109</v>
+        <v>36.48226759540383</v>
       </c>
       <c r="D251" t="n">
-        <v>10.02931999479631</v>
+        <v>28.23991479309472</v>
       </c>
       <c r="E251" t="n">
-        <v>44.87789595446574</v>
+        <v>22.59276450060225</v>
       </c>
     </row>
     <row r="252">
@@ -5220,13 +5220,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C252" t="n">
-        <v>17.92144400430809</v>
+        <v>36.1069604756774</v>
       </c>
       <c r="D252" t="n">
-        <v>9.856120710304548</v>
+        <v>27.90395495958682</v>
       </c>
       <c r="E252" t="n">
-        <v>45.00375802343125</v>
+        <v>22.71862656956776</v>
       </c>
     </row>
     <row r="253">
@@ -5239,13 +5239,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C253" t="n">
-        <v>17.65225927305944</v>
+        <v>35.73551428465418</v>
       </c>
       <c r="D253" t="n">
-        <v>9.685861725402836</v>
+        <v>27.57191878397492</v>
       </c>
       <c r="E253" t="n">
-        <v>45.12962009239677</v>
+        <v>22.84448863853328</v>
       </c>
     </row>
     <row r="254">
@@ -5258,13 +5258,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C254" t="n">
-        <v>17.38711776620276</v>
+        <v>35.36788930347549</v>
       </c>
       <c r="D254" t="n">
-        <v>9.518493787143818</v>
+        <v>27.24376109262722</v>
       </c>
       <c r="E254" t="n">
-        <v>45.25548216136229</v>
+        <v>22.9703507074988</v>
       </c>
     </row>
     <row r="255">
@@ -5277,13 +5277,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C255" t="n">
-        <v>17.12595875346033</v>
+        <v>35.00404622188582</v>
       </c>
       <c r="D255" t="n">
-        <v>9.353968458808541</v>
+        <v>26.91943722610715</v>
       </c>
       <c r="E255" t="n">
-        <v>45.38134423032781</v>
+        <v>23.09621277646432</v>
       </c>
     </row>
     <row r="256">
@@ -5296,13 +5296,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C256" t="n">
-        <v>16.86872241673895</v>
+        <v>34.64394613402938</v>
       </c>
       <c r="D256" t="n">
-        <v>9.192238106498417</v>
+        <v>26.59890303337469</v>
       </c>
       <c r="E256" t="n">
-        <v>45.50720629929332</v>
+        <v>23.22207484542983</v>
       </c>
     </row>
     <row r="257">
@@ -5315,13 +5315,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C257" t="n">
-        <v>16.61534983642866</v>
+        <v>34.28755053428991</v>
       </c>
       <c r="D257" t="n">
-        <v>9.033255885945785</v>
+        <v>26.28211486605247</v>
       </c>
       <c r="E257" t="n">
-        <v>45.63306836825884</v>
+        <v>23.34793691439535</v>
       </c>
     </row>
     <row r="258">
@@ -5334,13 +5334,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C258" t="n">
-        <v>16.36578297790732</v>
+        <v>33.93482131317317</v>
       </c>
       <c r="D258" t="n">
-        <v>8.876975729539602</v>
+        <v>25.9690295727562</v>
       </c>
       <c r="E258" t="n">
-        <v>45.75893043722436</v>
+        <v>23.47379898336087</v>
       </c>
     </row>
     <row r="259">
@@ -5353,13 +5353,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C259" t="n">
-        <v>16.11996467824784</v>
+        <v>33.58572075323203</v>
       </c>
       <c r="D259" t="n">
-        <v>8.723352333562721</v>
+        <v>25.65960449348843</v>
       </c>
       <c r="E259" t="n">
-        <v>45.88479250618987</v>
+        <v>23.59966105232639</v>
       </c>
     </row>
     <row r="260">
@@ -5372,13 +5372,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C260" t="n">
-        <v>15.87783863312509</v>
+        <v>33.24021152503318</v>
       </c>
       <c r="D260" t="n">
-        <v>8.572341145637333</v>
+        <v>25.3537974540951</v>
       </c>
       <c r="E260" t="n">
-        <v>46.01065457515539</v>
+        <v>23.7255231212919</v>
       </c>
     </row>
     <row r="261">
@@ -5391,13 +5391,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C261" t="n">
-        <v>15.63934938391952</v>
+        <v>32.89825668316559</v>
       </c>
       <c r="D261" t="n">
-        <v>8.423898352375272</v>
+        <v>25.05156676078416</v>
       </c>
       <c r="E261" t="n">
-        <v>46.1365166441209</v>
+        <v>23.85138519025742</v>
       </c>
     </row>
     <row r="262">
@@ -5410,13 +5410,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C262" t="n">
-        <v>15.40444230501438</v>
+        <v>32.55981966228986</v>
       </c>
       <c r="D262" t="n">
-        <v>8.277980867229729</v>
+        <v>24.75287119470553</v>
       </c>
       <c r="E262" t="n">
-        <v>46.26237871308642</v>
+        <v>23.97724725922294</v>
       </c>
     </row>
     <row r="263">
@@ -5429,13 +5429,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C263" t="n">
-        <v>15.17306359128385</v>
+        <v>32.22486427322831</v>
       </c>
       <c r="D263" t="n">
-        <v>8.134546318545242</v>
+        <v>24.45767000659175</v>
       </c>
       <c r="E263" t="n">
-        <v>46.38824078205194</v>
+        <v>24.10310932818846</v>
       </c>
     </row>
     <row r="264">
@@ -5448,13 +5448,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C264" t="n">
-        <v>14.94516024576903</v>
+        <v>31.89335469909526</v>
       </c>
       <c r="D264" t="n">
-        <v>7.993553037802651</v>
+        <v>24.1659229114586</v>
       </c>
       <c r="E264" t="n">
-        <v>46.51410285101746</v>
+        <v>24.22897139715397</v>
       </c>
     </row>
     <row r="265">
@@ -5467,13 +5467,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C265" t="n">
-        <v>14.72068006753907</v>
+        <v>31.56525549146708</v>
       </c>
       <c r="D265" t="n">
-        <v>7.854960048055924</v>
+        <v>23.87759008336514</v>
       </c>
       <c r="E265" t="n">
-        <v>46.63996491998297</v>
+        <v>24.35483346611949</v>
       </c>
     </row>
     <row r="266">
@@ -5486,13 +5486,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C266" t="n">
-        <v>14.49957163973464</v>
+        <v>31.24053156659176</v>
       </c>
       <c r="D266" t="n">
-        <v>7.718727052557695</v>
+        <v>23.5926321502323</v>
       </c>
       <c r="E266" t="n">
-        <v>46.76582698894849</v>
+        <v>24.48069553508501</v>
       </c>
     </row>
     <row r="267">
@@ -5505,13 +5505,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C267" t="n">
-        <v>14.28178431779092</v>
+        <v>30.91914820163729</v>
       </c>
       <c r="D267" t="n">
-        <v>7.584814423570478</v>
+        <v>23.31101018871966</v>
       </c>
       <c r="E267" t="n">
-        <v>46.89168905791401</v>
+        <v>24.60655760405053</v>
       </c>
     </row>
     <row r="268">
@@ -5524,13 +5524,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C268" t="n">
-        <v>14.06726821783762</v>
+        <v>30.60107103097882</v>
       </c>
       <c r="D268" t="n">
-        <v>7.453183191360543</v>
+        <v>23.0326857191594</v>
       </c>
       <c r="E268" t="n">
-        <v>47.01755112687952</v>
+        <v>24.73241967301604</v>
       </c>
     </row>
     <row r="269">
@@ -5543,13 +5543,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C269" t="n">
-        <v>13.85597420527307</v>
+        <v>30.28626604252389</v>
       </c>
       <c r="D269" t="n">
-        <v>7.323795033371479</v>
+        <v>22.75762070054722</v>
       </c>
       <c r="E269" t="n">
-        <v>47.14341319584504</v>
+        <v>24.85828174198156</v>
       </c>
     </row>
     <row r="270">
@@ -5562,13 +5562,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C270" t="n">
-        <v>13.64785388351004</v>
+        <v>29.97469957407553</v>
       </c>
       <c r="D270" t="n">
-        <v>7.196612263574543</v>
+        <v>22.48577752558916</v>
       </c>
       <c r="E270" t="n">
-        <v>47.26927526481056</v>
+        <v>24.98414381094707</v>
       </c>
     </row>
     <row r="271">
@@ -5581,13 +5581,13 @@
         <v>365</v>
       </c>
       <c r="C271" t="n">
-        <v>13.44285958289061</v>
+        <v>29.66633830973273</v>
       </c>
       <c r="D271" t="n">
-        <v>7.07159782199293</v>
+        <v>22.21711901580408</v>
       </c>
       <c r="E271" t="n">
-        <v>47.39513733377608</v>
+        <v>25.11000587991259</v>
       </c>
     </row>
     <row r="272">
@@ -5600,13 +5600,13 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>65.23608753097416</v>
+        <v>51.45483093433405</v>
       </c>
       <c r="D272" t="n">
-        <v>49.87479173554549</v>
+        <v>42.99316062570914</v>
       </c>
       <c r="E272" t="n">
-        <v>23.54723647112515</v>
+        <v>16.44485105669395</v>
       </c>
     </row>
     <row r="273">
@@ -5619,13 +5619,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C273" t="n">
-        <v>63.67310697975894</v>
+        <v>50.75972409916069</v>
       </c>
       <c r="D273" t="n">
-        <v>48.59970962090326</v>
+        <v>42.34847583531254</v>
       </c>
       <c r="E273" t="n">
-        <v>23.67309854009067</v>
+        <v>16.57071312565946</v>
       </c>
     </row>
     <row r="274">
@@ -5638,13 +5638,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C274" t="n">
-        <v>62.14757361913922</v>
+        <v>50.07400750983074</v>
       </c>
       <c r="D274" t="n">
-        <v>47.35709705403609</v>
+        <v>41.71336319298969</v>
       </c>
       <c r="E274" t="n">
-        <v>23.79896060905618</v>
+        <v>16.69657519462498</v>
       </c>
     </row>
     <row r="275">
@@ -5657,13 +5657,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C275" t="n">
-        <v>60.65859025811514</v>
+        <v>49.39755431286998</v>
       </c>
       <c r="D275" t="n">
-        <v>46.14613009987335</v>
+        <v>41.08768172883939</v>
       </c>
       <c r="E275" t="n">
-        <v>23.9248226780217</v>
+        <v>16.8224372635905</v>
       </c>
     </row>
     <row r="276">
@@ -5676,13 +5676,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C276" t="n">
-        <v>59.20528120133653</v>
+        <v>48.73023936847645</v>
       </c>
       <c r="D276" t="n">
-        <v>44.96600566603579</v>
+        <v>40.471292534836</v>
       </c>
       <c r="E276" t="n">
-        <v>24.05068474698722</v>
+        <v>16.94829933255602</v>
       </c>
     </row>
     <row r="277">
@@ -5695,13 +5695,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C277" t="n">
-        <v>57.78679173409218</v>
+        <v>48.07193922737035</v>
       </c>
       <c r="D277" t="n">
-        <v>43.81594097706228</v>
+        <v>39.8640587348478</v>
       </c>
       <c r="E277" t="n">
-        <v>24.17654681595274</v>
+        <v>17.07416140152153</v>
       </c>
     </row>
     <row r="278">
@@ -5714,13 +5714,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C278" t="n">
-        <v>56.40228761963824</v>
+        <v>47.42253210795668</v>
       </c>
       <c r="D278" t="n">
-        <v>42.69517306186613</v>
+        <v>39.26584545508887</v>
       </c>
       <c r="E278" t="n">
-        <v>24.30240888491825</v>
+        <v>17.20002347048705</v>
       </c>
     </row>
     <row r="279">
@@ -5733,13 +5733,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C279" t="n">
-        <v>55.05095460857003</v>
+        <v>46.78189787379629</v>
       </c>
       <c r="D279" t="n">
-        <v>41.60295825408898</v>
+        <v>38.67651979499875</v>
       </c>
       <c r="E279" t="n">
-        <v>24.42827095388377</v>
+        <v>17.32588553945257</v>
       </c>
     </row>
     <row r="280">
@@ -5752,13 +5752,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C280" t="n">
-        <v>53.73199795994861</v>
+        <v>46.14991801138147</v>
       </c>
       <c r="D280" t="n">
-        <v>40.53857170502817</v>
+        <v>38.0959507985433</v>
       </c>
       <c r="E280" t="n">
-        <v>24.55413302284929</v>
+        <v>17.45174760841808</v>
       </c>
     </row>
     <row r="281">
@@ -5771,13 +5771,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C281" t="n">
-        <v>52.44464197390084</v>
+        <v>45.52647560821158</v>
       </c>
       <c r="D281" t="n">
-        <v>39.50130690882227</v>
+        <v>37.5240094259309</v>
       </c>
       <c r="E281" t="n">
-        <v>24.6799950918148</v>
+        <v>17.5776096773836</v>
       </c>
     </row>
     <row r="282">
@@ -5790,13 +5790,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C282" t="n">
-        <v>51.18812953541757</v>
+        <v>44.91145533116495</v>
       </c>
       <c r="D282" t="n">
-        <v>38.49047523958669</v>
+        <v>36.96056852573796</v>
       </c>
       <c r="E282" t="n">
-        <v>24.80585716078032</v>
+        <v>17.70347174634912</v>
       </c>
     </row>
     <row r="283">
@@ -5809,13 +5809,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C283" t="n">
-        <v>49.961721669082</v>
+        <v>44.30474340516297</v>
       </c>
       <c r="D283" t="n">
-        <v>37.50540550019939</v>
+        <v>36.40550280743787</v>
       </c>
       <c r="E283" t="n">
-        <v>24.93171922974584</v>
+        <v>17.82933381531463</v>
       </c>
     </row>
     <row r="284">
@@ -5828,13 +5828,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C284" t="n">
-        <v>48.76469710446619</v>
+        <v>43.70622759212235</v>
       </c>
       <c r="D284" t="n">
-        <v>36.54544348244423</v>
+        <v>35.85868881432749</v>
       </c>
       <c r="E284" t="n">
-        <v>25.05758129871136</v>
+        <v>17.95519588428015</v>
       </c>
     </row>
     <row r="285">
@@ -5847,13 +5847,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C285" t="n">
-        <v>47.59635185194023</v>
+        <v>43.11579717019174</v>
       </c>
       <c r="D285" t="n">
-        <v>35.60995153822664</v>
+        <v>35.32000489684552</v>
       </c>
       <c r="E285" t="n">
-        <v>25.18344336767687</v>
+        <v>18.08105795324567</v>
       </c>
     </row>
     <row r="286">
@@ -5866,13 +5866,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C286" t="n">
-        <v>46.45599878864443</v>
+        <v>42.53334291326889</v>
       </c>
       <c r="D286" t="n">
-        <v>34.69830816158353</v>
+        <v>34.7893311862772</v>
       </c>
       <c r="E286" t="n">
-        <v>25.30930543664239</v>
+        <v>18.20692002221119</v>
       </c>
     </row>
     <row r="287">
@@ -5885,13 +5885,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C287" t="n">
-        <v>45.34296725438121</v>
+        <v>41.95875707079441</v>
       </c>
       <c r="D287" t="n">
-        <v>33.80990758121641</v>
+        <v>34.26654956883947</v>
       </c>
       <c r="E287" t="n">
-        <v>25.43516750560791</v>
+        <v>18.3327820911767</v>
       </c>
     </row>
     <row r="288">
@@ -5904,13 +5904,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C288" t="n">
-        <v>44.25660265718895</v>
+        <v>41.39193334781864</v>
       </c>
       <c r="D288" t="n">
-        <v>32.94415936328343</v>
+        <v>33.75154366014156</v>
       </c>
       <c r="E288" t="n">
-        <v>25.56102957457342</v>
+        <v>18.45864416014222</v>
       </c>
     </row>
     <row r="289">
@@ -5923,13 +5923,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C289" t="n">
-        <v>43.1962660883657</v>
+        <v>40.83276688533766</v>
       </c>
       <c r="D289" t="n">
-        <v>32.10048802419244</v>
+        <v>33.24419878001503</v>
       </c>
       <c r="E289" t="n">
-        <v>25.68689164353894</v>
+        <v>18.58450622910774</v>
       </c>
     </row>
     <row r="290">
@@ -5942,13 +5942,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C290" t="n">
-        <v>42.1613339467167</v>
+        <v>40.28115424089498</v>
       </c>
       <c r="D290" t="n">
-        <v>31.27833265314418</v>
+        <v>32.74440192770857</v>
       </c>
       <c r="E290" t="n">
-        <v>25.81275371250446</v>
+        <v>18.71036829807326</v>
       </c>
     </row>
     <row r="291">
@@ -5961,13 +5961,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C291" t="n">
-        <v>41.15119757180426</v>
+        <v>39.73699336944539</v>
       </c>
       <c r="D291" t="n">
-        <v>30.47714654418035</v>
+        <v>32.25204175744173</v>
       </c>
       <c r="E291" t="n">
-        <v>25.93861578146998</v>
+        <v>18.83623036703877</v>
       </c>
     </row>
     <row r="292">
@@ -5980,13 +5980,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C292" t="n">
-        <v>40.16526288598475</v>
+        <v>39.20018360447715</v>
       </c>
       <c r="D292" t="n">
-        <v>29.69639683749807</v>
+        <v>31.76700855431279</v>
       </c>
       <c r="E292" t="n">
-        <v>26.06447785043549</v>
+        <v>18.96209243600429</v>
       </c>
     </row>
     <row r="293">
@@ -5999,13 +5999,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C293" t="n">
-        <v>39.20295004502178</v>
+        <v>38.67062563938934</v>
       </c>
       <c r="D293" t="n">
-        <v>28.9355641697976</v>
+        <v>31.28919421055551</v>
       </c>
       <c r="E293" t="n">
-        <v>26.19033991940101</v>
+        <v>19.08795450496981</v>
       </c>
     </row>
     <row r="294">
@@ -6018,13 +6018,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C294" t="n">
-        <v>38.26369309707042</v>
+        <v>38.14822150912072</v>
       </c>
       <c r="D294" t="n">
-        <v>28.19414233343671</v>
+        <v>30.81849220213972</v>
       </c>
       <c r="E294" t="n">
-        <v>26.31620198836653</v>
+        <v>19.21381657393533</v>
       </c>
     </row>
     <row r="295">
@@ -6037,13 +6037,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C295" t="n">
-        <v>37.34693964983168</v>
+        <v>37.63287457202674</v>
       </c>
       <c r="D295" t="n">
-        <v>27.47163794417004</v>
+        <v>30.35479756571082</v>
       </c>
       <c r="E295" t="n">
-        <v>26.44206405733205</v>
+        <v>19.33967864290084</v>
       </c>
     </row>
     <row r="296">
@@ -6056,13 +6056,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C296" t="n">
-        <v>36.4521505456816</v>
+        <v>37.12448949200147</v>
       </c>
       <c r="D296" t="n">
-        <v>26.76757011725814</v>
+        <v>29.89800687586338</v>
       </c>
       <c r="E296" t="n">
-        <v>26.56792612629756</v>
+        <v>19.46554071186636</v>
       </c>
     </row>
     <row r="297">
@@ -6075,13 +6075,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C297" t="n">
-        <v>35.57879954458397</v>
+        <v>36.62297222084098</v>
       </c>
       <c r="D297" t="n">
-        <v>26.0814701517355</v>
+        <v>29.44801822274385</v>
       </c>
       <c r="E297" t="n">
-        <v>26.69378819526308</v>
+        <v>19.59140278083188</v>
       </c>
     </row>
     <row r="298">
@@ -6094,13 +6094,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C298" t="n">
-        <v>34.72637301459983</v>
+        <v>36.12822998084492</v>
       </c>
       <c r="D298" t="n">
-        <v>25.4128812226327</v>
+        <v>29.00473118997783</v>
       </c>
       <c r="E298" t="n">
-        <v>26.8196502642286</v>
+        <v>19.7172648497974</v>
       </c>
     </row>
     <row r="299">
@@ -6113,13 +6113,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C299" t="n">
-        <v>33.89436962981232</v>
+        <v>35.64017124765329</v>
       </c>
       <c r="D299" t="n">
-        <v>24.76135808095284</v>
+        <v>28.568046832917</v>
       </c>
       <c r="E299" t="n">
-        <v>26.94551233319412</v>
+        <v>19.84312691876291</v>
       </c>
     </row>
     <row r="300">
@@ -6132,13 +6132,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C300" t="n">
-        <v>33.08230007548868</v>
+        <v>35.15870573331492</v>
       </c>
       <c r="D300" t="n">
-        <v>24.1264667612072</v>
+        <v>28.13786765720142</v>
       </c>
       <c r="E300" t="n">
-        <v>27.07137440215963</v>
+        <v>19.96898898772843</v>
       </c>
     </row>
     <row r="301">
@@ -6151,13 +6151,13 @@
         <v>365</v>
       </c>
       <c r="C301" t="n">
-        <v>32.28968676030628</v>
+        <v>34.68374436958476</v>
       </c>
       <c r="D301" t="n">
-        <v>23.50778429632019</v>
+        <v>27.71409759763223</v>
       </c>
       <c r="E301" t="n">
-        <v>27.19723647112515</v>
+        <v>20.09485105669394</v>
       </c>
     </row>
   </sheetData>

--- a/output/results/production_wells/forecast_results.xlsx
+++ b/output/results/production_wells/forecast_results.xlsx
@@ -470,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.35744333971034</v>
+        <v>48.21134383762951</v>
       </c>
       <c r="D2" t="n">
-        <v>61.85055154462324</v>
+        <v>40.56263151530737</v>
       </c>
       <c r="E2" t="n">
-        <v>17.92376598314013</v>
+        <v>15.8649639555416</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C3" t="n">
-        <v>74.12595293034306</v>
+        <v>47.13009556927913</v>
       </c>
       <c r="D3" t="n">
-        <v>60.74649413633724</v>
+        <v>39.59360398161177</v>
       </c>
       <c r="E3" t="n">
-        <v>18.04962805210564</v>
+        <v>15.99082602450711</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C4" t="n">
-        <v>72.91458752205267</v>
+        <v>46.07309673528902</v>
       </c>
       <c r="D4" t="n">
-        <v>59.6620038701622</v>
+        <v>38.64763943945857</v>
       </c>
       <c r="E4" t="n">
-        <v>18.17549012107116</v>
+        <v>16.11668809347263</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C5" t="n">
-        <v>71.72301823231984</v>
+        <v>45.03980348732757</v>
       </c>
       <c r="D5" t="n">
-        <v>58.59673606429877</v>
+        <v>37.72419081283483</v>
       </c>
       <c r="E5" t="n">
-        <v>18.30135219003668</v>
+        <v>16.24255016243815</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C6" t="n">
-        <v>70.55092155321937</v>
+        <v>44.02968417409026</v>
       </c>
       <c r="D6" t="n">
-        <v>57.55035207690707</v>
+        <v>36.82272396429006</v>
       </c>
       <c r="E6" t="n">
-        <v>18.4272142590022</v>
+        <v>16.36841223140366</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C7" t="n">
-        <v>69.39797926358851</v>
+        <v>43.04221906775378</v>
       </c>
       <c r="D7" t="n">
-        <v>56.52251920074773</v>
+        <v>35.94271738975266</v>
       </c>
       <c r="E7" t="n">
-        <v>18.55307632796771</v>
+        <v>16.49427430036918</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C8" t="n">
-        <v>68.26387834263087</v>
+        <v>42.07690009656505</v>
       </c>
       <c r="D8" t="n">
-        <v>55.51291055965341</v>
+        <v>35.08366192052722</v>
       </c>
       <c r="E8" t="n">
-        <v>18.67893839693323</v>
+        <v>16.6201363693347</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C9" t="n">
-        <v>67.14831088493203</v>
+        <v>41.1332305834275</v>
       </c>
       <c r="D9" t="n">
-        <v>54.5212050067992</v>
+        <v>34.24506043230431</v>
       </c>
       <c r="E9" t="n">
-        <v>18.80480046589875</v>
+        <v>16.74599843830022</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C10" t="n">
-        <v>66.05097401686407</v>
+        <v>40.21072499035017</v>
       </c>
       <c r="D10" t="n">
-        <v>53.54708702474066</v>
+        <v>33.42642756101804</v>
       </c>
       <c r="E10" t="n">
-        <v>18.93066253486426</v>
+        <v>16.87186050726573</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C11" t="n">
-        <v>64.97156981435614</v>
+        <v>39.30890866862809</v>
       </c>
       <c r="D11" t="n">
-        <v>52.59024662718892</v>
+        <v>32.62728942539057</v>
       </c>
       <c r="E11" t="n">
-        <v>19.05652460382978</v>
+        <v>16.99772257623125</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C12" t="n">
-        <v>63.90980522200892</v>
+        <v>38.4273176146255</v>
       </c>
       <c r="D12" t="n">
-        <v>51.65037926249285</v>
+        <v>31.8471833560065</v>
       </c>
       <c r="E12" t="n">
-        <v>19.1823866727953</v>
+        <v>17.12358464519677</v>
       </c>
     </row>
     <row r="13">
@@ -679,13 +679,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C13" t="n">
-        <v>62.86539197353076</v>
+        <v>37.56549823103607</v>
       </c>
       <c r="D13" t="n">
-        <v>50.7271857187985</v>
+        <v>31.08565763076392</v>
       </c>
       <c r="E13" t="n">
-        <v>19.30824874176081</v>
+        <v>17.24944671416229</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +698,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C14" t="n">
-        <v>61.83804651347423</v>
+        <v>36.72300709349751</v>
       </c>
       <c r="D14" t="n">
-        <v>49.82037203085716</v>
+        <v>30.34227121655239</v>
       </c>
       <c r="E14" t="n">
-        <v>19.43411081072633</v>
+        <v>17.3753087831278</v>
       </c>
     </row>
     <row r="15">
@@ -717,13 +717,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C15" t="n">
-        <v>60.82748992025152</v>
+        <v>35.89941072244032</v>
       </c>
       <c r="D15" t="n">
-        <v>48.92964938845303</v>
+        <v>29.61659351701133</v>
       </c>
       <c r="E15" t="n">
-        <v>19.55997287969185</v>
+        <v>17.50117085209332</v>
       </c>
     </row>
     <row r="16">
@@ -736,13 +736,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C16" t="n">
-        <v>59.83344783040794</v>
+        <v>35.09428536005327</v>
       </c>
       <c r="D16" t="n">
-        <v>48.05473404642282</v>
+        <v>28.90820412622635</v>
       </c>
       <c r="E16" t="n">
-        <v>19.68583494865737</v>
+        <v>17.62703292105884</v>
       </c>
     </row>
     <row r="17">
@@ -755,13 +755,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C17" t="n">
-        <v>58.85565036413301</v>
+        <v>34.30721675225116</v>
       </c>
       <c r="D17" t="n">
-        <v>47.19534723623951</v>
+        <v>28.21669258822397</v>
       </c>
       <c r="E17" t="n">
-        <v>19.81169701762288</v>
+        <v>17.75289499002436</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C18" t="n">
-        <v>57.89383205198879</v>
+        <v>33.53779993553219</v>
       </c>
       <c r="D18" t="n">
-        <v>46.35121507913327</v>
+        <v>27.54165816212833</v>
       </c>
       <c r="E18" t="n">
-        <v>19.9375590865884</v>
+        <v>17.87875705898987</v>
       </c>
     </row>
     <row r="19">
@@ -793,13 +793,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C19" t="n">
-        <v>56.9477317628356</v>
+        <v>32.78563902861568</v>
       </c>
       <c r="D19" t="n">
-        <v>45.52206850072275</v>
+        <v>26.88270959284713</v>
       </c>
       <c r="E19" t="n">
-        <v>20.06342115555392</v>
+        <v>18.00461912795539</v>
       </c>
     </row>
     <row r="20">
@@ -812,13 +812,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C20" t="n">
-        <v>56.01709263293565</v>
+        <v>32.05034702875272</v>
       </c>
       <c r="D20" t="n">
-        <v>44.70764314713086</v>
+        <v>26.23946488715681</v>
       </c>
       <c r="E20" t="n">
-        <v>20.18928322451944</v>
+        <v>18.1304811969209</v>
       </c>
     </row>
     <row r="21">
@@ -831,13 +831,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C21" t="n">
-        <v>55.10166199621516</v>
+        <v>31.33154561260511</v>
       </c>
       <c r="D21" t="n">
-        <v>43.90767930255907</v>
+        <v>25.61155109506014</v>
       </c>
       <c r="E21" t="n">
-        <v>20.31514529348495</v>
+        <v>18.25634326588642</v>
       </c>
     </row>
     <row r="22">
@@ -850,13 +850,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C22" t="n">
-        <v>54.20119131566624</v>
+        <v>30.6288649415899</v>
       </c>
       <c r="D22" t="n">
-        <v>43.12192180829503</v>
+        <v>24.99860409629237</v>
       </c>
       <c r="E22" t="n">
-        <v>20.44100736245047</v>
+        <v>18.38220533485194</v>
       </c>
     </row>
     <row r="23">
@@ -869,13 +869,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C23" t="n">
-        <v>53.31543611586965</v>
+        <v>29.94194347158966</v>
       </c>
       <c r="D23" t="n">
-        <v>42.35011998312874</v>
+        <v>24.40026839185493</v>
       </c>
       <c r="E23" t="n">
-        <v>20.56686943141599</v>
+        <v>18.50806740381746</v>
       </c>
     </row>
     <row r="24">
@@ -888,13 +888,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C24" t="n">
-        <v>52.44415591662053</v>
+        <v>29.27042776693029</v>
       </c>
       <c r="D24" t="n">
-        <v>41.5920275451528</v>
+        <v>23.81619690045861</v>
       </c>
       <c r="E24" t="n">
-        <v>20.69273150038151</v>
+        <v>18.63392947278297</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +907,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C25" t="n">
-        <v>51.58711416763848</v>
+        <v>28.6139723185309</v>
       </c>
       <c r="D25" t="n">
-        <v>40.84740253492279</v>
+        <v>23.24605075976088</v>
       </c>
       <c r="E25" t="n">
-        <v>20.81859356934702</v>
+        <v>18.75979154174849</v>
       </c>
     </row>
     <row r="26">
@@ -926,13 +926,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C26" t="n">
-        <v>50.74407818434491</v>
+        <v>27.97223936613207</v>
       </c>
       <c r="D26" t="n">
-        <v>40.11600723995416</v>
+        <v>22.68949913228458</v>
       </c>
       <c r="E26" t="n">
-        <v>20.94445563831254</v>
+        <v>18.88565361071401</v>
       </c>
     </row>
     <row r="27">
@@ -945,13 +945,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C27" t="n">
-        <v>49.91481908468973</v>
+        <v>27.34489872451099</v>
       </c>
       <c r="D27" t="n">
-        <v>39.39760812053255</v>
+        <v>22.1462190159081</v>
       </c>
       <c r="E27" t="n">
-        <v>21.07031770727806</v>
+        <v>19.01151567967953</v>
       </c>
     </row>
     <row r="28">
@@ -964,13 +964,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C28" t="n">
-        <v>49.09911172701049</v>
+        <v>26.73162761359421</v>
       </c>
       <c r="D28" t="n">
-        <v>38.69197573681465</v>
+        <v>21.61589505881958</v>
       </c>
       <c r="E28" t="n">
-        <v>21.19617977624358</v>
+        <v>19.13737774864504</v>
       </c>
     </row>
     <row r="29">
@@ -983,13 +983,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C29" t="n">
-        <v>48.29673464890699</v>
+        <v>26.13211049238038</v>
       </c>
       <c r="D29" t="n">
-        <v>37.99888467719745</v>
+        <v>21.09821937883018</v>
       </c>
       <c r="E29" t="n">
-        <v>21.32204184520909</v>
+        <v>19.26323981761056</v>
       </c>
     </row>
     <row r="30">
@@ -1002,13 +1002,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C30" t="n">
-        <v>47.50747000711488</v>
+        <v>25.54603889658775</v>
       </c>
       <c r="D30" t="n">
-        <v>37.31811348793357</v>
+        <v>20.59289138694399</v>
       </c>
       <c r="E30" t="n">
-        <v>21.44790391417461</v>
+        <v>19.38910188657608</v>
       </c>
     </row>
     <row r="31">
@@ -1021,13 +1021,13 @@
         <v>365</v>
       </c>
       <c r="C31" t="n">
-        <v>46.73110351836172</v>
+        <v>24.97311127994272</v>
       </c>
       <c r="D31" t="n">
-        <v>36.6494446039714</v>
+        <v>20.0996176150846</v>
       </c>
       <c r="E31" t="n">
-        <v>21.57376598314012</v>
+        <v>19.5149639555416</v>
       </c>
     </row>
     <row r="32">
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>27.06652090686436</v>
+        <v>32.57606738439313</v>
       </c>
       <c r="D32" t="n">
-        <v>20.75009912051755</v>
+        <v>25.52994026999042</v>
       </c>
       <c r="E32" t="n">
-        <v>23.33665936631293</v>
+        <v>21.62976589917799</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1059,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C33" t="n">
-        <v>26.87558101124086</v>
+        <v>32.36051725672205</v>
       </c>
       <c r="D33" t="n">
-        <v>20.56989205562285</v>
+        <v>25.32028351378272</v>
       </c>
       <c r="E33" t="n">
-        <v>23.46252143527845</v>
+        <v>21.75562796814351</v>
       </c>
     </row>
     <row r="34">
@@ -1078,13 +1078,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C34" t="n">
-        <v>26.68598809493052</v>
+        <v>32.14639338646229</v>
       </c>
       <c r="D34" t="n">
-        <v>20.39119488120141</v>
+        <v>25.11228352031367</v>
       </c>
       <c r="E34" t="n">
-        <v>23.58838350424396</v>
+        <v>21.88149003710902</v>
       </c>
     </row>
     <row r="35">
@@ -1097,13 +1097,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C35" t="n">
-        <v>26.49773265571137</v>
+        <v>31.93368633631859</v>
       </c>
       <c r="D35" t="n">
-        <v>20.21399526240345</v>
+        <v>24.90592754383554</v>
       </c>
       <c r="E35" t="n">
-        <v>23.71424557320948</v>
+        <v>22.00735210607454</v>
       </c>
     </row>
     <row r="36">
@@ -1116,13 +1116,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C36" t="n">
-        <v>26.31080525839457</v>
+        <v>31.72238673144057</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03828096327026</v>
+        <v>24.70120293473634</v>
       </c>
       <c r="E36" t="n">
-        <v>23.840107642175</v>
+        <v>22.13321417504006</v>
       </c>
     </row>
     <row r="37">
@@ -1135,13 +1135,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C37" t="n">
-        <v>26.1251965343515</v>
+        <v>31.51248525900964</v>
       </c>
       <c r="D37" t="n">
-        <v>19.86403984595288</v>
+        <v>24.49809713882566</v>
       </c>
       <c r="E37" t="n">
-        <v>23.96596971114052</v>
+        <v>22.25907624400558</v>
       </c>
     </row>
     <row r="38">
@@ -1154,13 +1154,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C38" t="n">
-        <v>25.94089718104424</v>
+        <v>31.30397266782845</v>
       </c>
       <c r="D38" t="n">
-        <v>19.69125986993679</v>
+        <v>24.29659769662572</v>
       </c>
       <c r="E38" t="n">
-        <v>24.09183178010603</v>
+        <v>22.38493831297109</v>
       </c>
     </row>
     <row r="39">
@@ -1173,13 +1173,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C39" t="n">
-        <v>25.75789796155932</v>
+        <v>31.09683976791325</v>
       </c>
       <c r="D39" t="n">
-        <v>19.51992909127264</v>
+        <v>24.09669224266761</v>
       </c>
       <c r="E39" t="n">
-        <v>24.21769384907155</v>
+        <v>22.51080038193661</v>
       </c>
     </row>
     <row r="40">
@@ -1192,13 +1192,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C40" t="n">
-        <v>25.57618970414476</v>
+        <v>30.89107743008876</v>
       </c>
       <c r="D40" t="n">
-        <v>19.35003566181304</v>
+        <v>23.89836850479275</v>
       </c>
       <c r="E40" t="n">
-        <v>24.34355591803707</v>
+        <v>22.63666245090213</v>
       </c>
     </row>
     <row r="41">
@@ -1211,13 +1211,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C41" t="n">
-        <v>25.39576330175044</v>
+        <v>30.68667658558587</v>
       </c>
       <c r="D41" t="n">
-        <v>19.18156782845531</v>
+        <v>23.7016143034594</v>
       </c>
       <c r="E41" t="n">
-        <v>24.46941798700259</v>
+        <v>22.76252451986765</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C42" t="n">
-        <v>25.2166097115716</v>
+        <v>30.48362822564193</v>
       </c>
       <c r="D42" t="n">
-        <v>19.01451393239012</v>
+        <v>23.50641755105434</v>
       </c>
       <c r="E42" t="n">
-        <v>24.5952800559681</v>
+        <v>22.88838658883316</v>
       </c>
     </row>
     <row r="43">
@@ -1249,13 +1249,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C43" t="n">
-        <v>25.03871995459567</v>
+        <v>30.28192340110369</v>
       </c>
       <c r="D43" t="n">
-        <v>18.84886240835596</v>
+        <v>23.31276625120956</v>
       </c>
       <c r="E43" t="n">
-        <v>24.72114212493362</v>
+        <v>23.01424865779868</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C44" t="n">
-        <v>24.86208511515223</v>
+        <v>30.08155322203287</v>
       </c>
       <c r="D44" t="n">
-        <v>18.68460178389958</v>
+        <v>23.12064849812396</v>
       </c>
       <c r="E44" t="n">
-        <v>24.84700419389914</v>
+        <v>23.1401107267642</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C45" t="n">
-        <v>24.68669634046616</v>
+        <v>29.88250885731437</v>
       </c>
       <c r="D45" t="n">
-        <v>18.52172067864204</v>
+        <v>22.93005247589008</v>
       </c>
       <c r="E45" t="n">
-        <v>24.97286626286465</v>
+        <v>23.26597279572971</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C46" t="n">
-        <v>24.51254484021397</v>
+        <v>29.68478153426701</v>
       </c>
       <c r="D46" t="n">
-        <v>18.36020780355061</v>
+        <v>22.74096645782573</v>
       </c>
       <c r="E46" t="n">
-        <v>25.09872833183017</v>
+        <v>23.39183486469523</v>
       </c>
     </row>
     <row r="47">
@@ -1325,13 +1325,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C47" t="n">
-        <v>24.33962188608321</v>
+        <v>29.48836253825692</v>
       </c>
       <c r="D47" t="n">
-        <v>18.2000519602163</v>
+        <v>22.55337880581051</v>
       </c>
       <c r="E47" t="n">
-        <v>25.22459040079569</v>
+        <v>23.51769693366075</v>
       </c>
     </row>
     <row r="48">
@@ -1344,13 +1344,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C48" t="n">
-        <v>24.16791881133505</v>
+        <v>29.29324321231343</v>
       </c>
       <c r="D48" t="n">
-        <v>18.04124204013708</v>
+        <v>22.36727796962729</v>
       </c>
       <c r="E48" t="n">
-        <v>25.3504524697612</v>
+        <v>23.64355900262627</v>
       </c>
     </row>
     <row r="49">
@@ -1363,13 +1363,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C49" t="n">
-        <v>23.99742701036985</v>
+        <v>29.09941495674753</v>
       </c>
       <c r="D49" t="n">
-        <v>17.88376702400666</v>
+        <v>22.18265248630845</v>
       </c>
       <c r="E49" t="n">
-        <v>25.47631453872672</v>
+        <v>23.76942107159178</v>
       </c>
     </row>
     <row r="50">
@@ -1382,13 +1382,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C50" t="n">
-        <v>23.82813793829592</v>
+        <v>28.90686922877283</v>
       </c>
       <c r="D50" t="n">
-        <v>17.72761598100888</v>
+        <v>21.99949097948693</v>
       </c>
       <c r="E50" t="n">
-        <v>25.60217660769224</v>
+        <v>23.8952831405573</v>
       </c>
     </row>
     <row r="51">
@@ -1401,13 +1401,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C51" t="n">
-        <v>23.66004311050123</v>
+        <v>28.71559754212908</v>
       </c>
       <c r="D51" t="n">
-        <v>17.57277806811758</v>
+        <v>21.81778215875209</v>
       </c>
       <c r="E51" t="n">
-        <v>25.72803867665776</v>
+        <v>24.02114520952282</v>
       </c>
     </row>
     <row r="52">
@@ -1420,13 +1420,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C52" t="n">
-        <v>23.49313410222818</v>
+        <v>28.52559146670812</v>
       </c>
       <c r="D52" t="n">
-        <v>17.41924252940193</v>
+        <v>21.63751481901026</v>
       </c>
       <c r="E52" t="n">
-        <v>25.85390074562327</v>
+        <v>24.14700727848833</v>
       </c>
     </row>
     <row r="53">
@@ -1439,13 +1439,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C53" t="n">
-        <v>23.32740254815132</v>
+        <v>28.33684262818233</v>
       </c>
       <c r="D53" t="n">
-        <v>17.26699869533727</v>
+        <v>21.45867783985002</v>
       </c>
       <c r="E53" t="n">
-        <v>25.97976281458879</v>
+        <v>24.27286934745385</v>
       </c>
     </row>
     <row r="54">
@@ -1458,13 +1458,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C54" t="n">
-        <v>23.16284014195815</v>
+        <v>28.14934270763555</v>
       </c>
       <c r="D54" t="n">
-        <v>17.11603598212122</v>
+        <v>21.28126018491212</v>
       </c>
       <c r="E54" t="n">
-        <v>26.10562488355431</v>
+        <v>24.39873141641937</v>
       </c>
     </row>
     <row r="55">
@@ -1477,13 +1477,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C55" t="n">
-        <v>22.99943863593277</v>
+        <v>27.96308344119645</v>
       </c>
       <c r="D55" t="n">
-        <v>16.96634389099526</v>
+        <v>21.10525090126404</v>
       </c>
       <c r="E55" t="n">
-        <v>26.23148695251983</v>
+        <v>24.52459348538489</v>
       </c>
     </row>
     <row r="56">
@@ -1496,13 +1496,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C56" t="n">
-        <v>22.8371898405425</v>
+        <v>27.77805661967426</v>
       </c>
       <c r="D56" t="n">
-        <v>16.81791200757152</v>
+        <v>20.93063911877917</v>
       </c>
       <c r="E56" t="n">
-        <v>26.35734902148534</v>
+        <v>24.6504555543504</v>
       </c>
     </row>
     <row r="57">
@@ -1515,13 +1515,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C57" t="n">
-        <v>22.6760856240275</v>
+        <v>27.59425408819699</v>
       </c>
       <c r="D57" t="n">
-        <v>16.67073000116492</v>
+        <v>20.75741404952046</v>
       </c>
       <c r="E57" t="n">
-        <v>26.48321109045086</v>
+        <v>24.77631762331592</v>
       </c>
     </row>
     <row r="58">
@@ -1534,13 +1534,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C58" t="n">
-        <v>22.51611791199314</v>
+        <v>27.41166774585204</v>
       </c>
       <c r="D58" t="n">
-        <v>16.52478762413043</v>
+        <v>20.58556498712881</v>
       </c>
       <c r="E58" t="n">
-        <v>26.60907315941638</v>
+        <v>24.90217969228144</v>
       </c>
     </row>
     <row r="59">
@@ -1553,13 +1553,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C59" t="n">
-        <v>22.35727868700533</v>
+        <v>27.23028954532908</v>
       </c>
       <c r="D59" t="n">
-        <v>16.38007471120563</v>
+        <v>20.41508130621565</v>
       </c>
       <c r="E59" t="n">
-        <v>26.7349352283819</v>
+        <v>25.02804176124696</v>
       </c>
     </row>
     <row r="60">
@@ -1572,13 +1572,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C60" t="n">
-        <v>22.19955998818876</v>
+        <v>27.05011149256547</v>
       </c>
       <c r="D60" t="n">
-        <v>16.23658117885834</v>
+        <v>20.2459524617603</v>
       </c>
       <c r="E60" t="n">
-        <v>26.86079729734741</v>
+        <v>25.15390383021247</v>
       </c>
     </row>
     <row r="61">
@@ -1591,13 +1591,13 @@
         <v>365</v>
       </c>
       <c r="C61" t="n">
-        <v>22.0429539108278</v>
+        <v>26.87112564639384</v>
       </c>
       <c r="D61" t="n">
-        <v>16.09429702463935</v>
+        <v>20.0781679885115</v>
       </c>
       <c r="E61" t="n">
-        <v>26.98665936631293</v>
+        <v>25.27976589917799</v>
       </c>
     </row>
     <row r="62">
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>17.80486869037646</v>
+        <v>55.778753620023</v>
       </c>
       <c r="D62" t="n">
-        <v>15.71597782510111</v>
+        <v>48.10546254510672</v>
       </c>
       <c r="E62" t="n">
-        <v>11.73213294408845</v>
+        <v>13.75665567428846</v>
       </c>
     </row>
     <row r="63">
@@ -1629,13 +1629,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C63" t="n">
-        <v>17.58485325178762</v>
+        <v>55.10436825385866</v>
       </c>
       <c r="D63" t="n">
-        <v>15.49964223013779</v>
+        <v>47.45449455370872</v>
       </c>
       <c r="E63" t="n">
-        <v>11.85799501305397</v>
+        <v>13.88251774325398</v>
       </c>
     </row>
     <row r="64">
@@ -1648,13 +1648,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C64" t="n">
-        <v>17.36755655232903</v>
+        <v>54.43813645141851</v>
       </c>
       <c r="D64" t="n">
-        <v>15.28625339645901</v>
+        <v>46.81223553460949</v>
       </c>
       <c r="E64" t="n">
-        <v>11.98385708201949</v>
+        <v>14.0083798122195</v>
       </c>
     </row>
     <row r="65">
@@ -1667,13 +1667,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C65" t="n">
-        <v>17.15294499643801</v>
+        <v>53.77995963315924</v>
       </c>
       <c r="D65" t="n">
-        <v>15.07577153124643</v>
+        <v>46.17857005500485</v>
       </c>
       <c r="E65" t="n">
-        <v>12.10971915098501</v>
+        <v>14.13424188118502</v>
       </c>
     </row>
     <row r="66">
@@ -1686,13 +1686,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C66" t="n">
-        <v>16.94098540369351</v>
+        <v>53.12974041140001</v>
       </c>
       <c r="D66" t="n">
-        <v>14.86815737516462</v>
+        <v>45.55338420028923</v>
       </c>
       <c r="E66" t="n">
-        <v>12.23558121995052</v>
+        <v>14.26010395015053</v>
       </c>
     </row>
     <row r="67">
@@ -1705,13 +1705,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C67" t="n">
-        <v>16.73164500368621</v>
+        <v>52.48738257591233</v>
       </c>
       <c r="D67" t="n">
-        <v>14.66337219525279</v>
+        <v>44.93656555421814</v>
       </c>
       <c r="E67" t="n">
-        <v>12.36144328891604</v>
+        <v>14.38596601911605</v>
       </c>
     </row>
     <row r="68">
@@ -1724,13 +1724,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C68" t="n">
-        <v>16.52489143095201</v>
+        <v>51.85279107968432</v>
       </c>
       <c r="D68" t="n">
-        <v>14.46137777791063</v>
+        <v>44.32800317932843</v>
       </c>
       <c r="E68" t="n">
-        <v>12.48730535788156</v>
+        <v>14.51182808808157</v>
       </c>
     </row>
     <row r="69">
@@ -1743,13 +1743,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C69" t="n">
-        <v>16.32069271996803</v>
+        <v>51.2258720248569</v>
       </c>
       <c r="D69" t="n">
-        <v>14.26213642197722</v>
+        <v>43.7275875976129</v>
       </c>
       <c r="E69" t="n">
-        <v>12.61316742684707</v>
+        <v>14.63769015704708</v>
       </c>
     </row>
     <row r="70">
@@ -1762,13 +1762,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C70" t="n">
-        <v>16.11901730021061</v>
+        <v>50.60653264883023</v>
       </c>
       <c r="D70" t="n">
-        <v>14.06561093190165</v>
+        <v>43.13521077144606</v>
       </c>
       <c r="E70" t="n">
-        <v>12.73902949581259</v>
+        <v>14.7635522260126</v>
       </c>
     </row>
     <row r="71">
@@ -1781,13 +1781,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C71" t="n">
-        <v>15.91983399127423</v>
+        <v>49.99468131053791</v>
       </c>
       <c r="D71" t="n">
-        <v>13.87176461100412</v>
+        <v>42.55076608475792</v>
       </c>
       <c r="E71" t="n">
-        <v>12.86489156477811</v>
+        <v>14.88941429497812</v>
       </c>
     </row>
     <row r="72">
@@ -1800,13 +1800,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C72" t="n">
-        <v>15.72311199805084</v>
+        <v>49.39022747688728</v>
       </c>
       <c r="D72" t="n">
-        <v>13.68056125482647</v>
+        <v>41.97414832445222</v>
       </c>
       <c r="E72" t="n">
-        <v>12.99075363374363</v>
+        <v>15.01527636394364</v>
       </c>
     </row>
     <row r="73">
@@ -1819,13 +1819,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C73" t="n">
-        <v>15.52882090596868</v>
+        <v>48.79308170936365</v>
       </c>
       <c r="D73" t="n">
-        <v>13.49196514457082</v>
+        <v>41.40525366206642</v>
       </c>
       <c r="E73" t="n">
-        <v>13.11661570270914</v>
+        <v>15.14113843290915</v>
       </c>
     </row>
     <row r="74">
@@ -1838,13 +1838,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C74" t="n">
-        <v>15.33693067629005</v>
+        <v>48.20315565079636</v>
       </c>
       <c r="D74" t="n">
-        <v>13.30594104062519</v>
+        <v>40.84397963566985</v>
       </c>
       <c r="E74" t="n">
-        <v>13.24247777167466</v>
+        <v>15.26700050187467</v>
       </c>
     </row>
     <row r="75">
@@ -1857,13 +1857,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C75" t="n">
-        <v>15.14741164146705</v>
+        <v>47.62036201228505</v>
       </c>
       <c r="D75" t="n">
-        <v>13.12245417617504</v>
+        <v>40.29022513199742</v>
       </c>
       <c r="E75" t="n">
-        <v>13.36833984064018</v>
+        <v>15.39286257084019</v>
       </c>
     </row>
     <row r="76">
@@ -1876,13 +1876,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C76" t="n">
-        <v>14.96023450055478</v>
+        <v>47.04461456028381</v>
       </c>
       <c r="D76" t="n">
-        <v>12.94147025089942</v>
+        <v>39.74389036881543</v>
       </c>
       <c r="E76" t="n">
-        <v>13.49420190960569</v>
+        <v>15.5187246398057</v>
       </c>
     </row>
     <row r="77">
@@ -1895,13 +1895,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C77" t="n">
-        <v>14.77537031468126</v>
+        <v>46.47582810384159</v>
       </c>
       <c r="D77" t="n">
-        <v>12.76295542475085</v>
+        <v>39.20487687751663</v>
       </c>
       <c r="E77" t="n">
-        <v>13.62006397857121</v>
+        <v>15.64458670877122</v>
       </c>
     </row>
     <row r="78">
@@ -1914,13 +1914,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C78" t="n">
-        <v>14.59279050257322</v>
+        <v>45.91391848199681</v>
       </c>
       <c r="D78" t="n">
-        <v>12.58687631181755</v>
+        <v>38.6730874859417</v>
       </c>
       <c r="E78" t="n">
-        <v>13.74592604753673</v>
+        <v>15.77044877773674</v>
       </c>
     </row>
     <row r="79">
@@ -1933,13 +1933,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C79" t="n">
-        <v>14.41246683613731</v>
+        <v>45.35880255132449</v>
       </c>
       <c r="D79" t="n">
-        <v>12.41319997426719</v>
+        <v>38.14842630142403</v>
       </c>
       <c r="E79" t="n">
-        <v>13.87178811650225</v>
+        <v>15.89631084670226</v>
       </c>
     </row>
     <row r="80">
@@ -1952,13 +1952,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C80" t="n">
-        <v>14.23437143609577</v>
+        <v>44.8103981736338</v>
       </c>
       <c r="D80" t="n">
-        <v>12.24189391637094</v>
+        <v>37.63079869405496</v>
       </c>
       <c r="E80" t="n">
-        <v>13.99765018546776</v>
+        <v>16.02217291566777</v>
       </c>
     </row>
     <row r="81">
@@ -1971,13 +1971,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C81" t="n">
-        <v>14.05847676767612</v>
+        <v>44.26862420381444</v>
       </c>
       <c r="D81" t="n">
-        <v>12.07292607860673</v>
+        <v>37.12011128016665</v>
       </c>
       <c r="E81" t="n">
-        <v>14.12351225443328</v>
+        <v>16.14803498463329</v>
       </c>
     </row>
     <row r="82">
@@ -1990,13 +1990,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C82" t="n">
-        <v>13.88475563635416</v>
+        <v>43.73340047782992</v>
       </c>
       <c r="D82" t="n">
-        <v>11.90626483184084</v>
+        <v>36.61627190602979</v>
       </c>
       <c r="E82" t="n">
-        <v>14.2493743233988</v>
+        <v>16.27389705359881</v>
       </c>
     </row>
     <row r="83">
@@ -2009,13 +2009,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C83" t="n">
-        <v>13.71318118364941</v>
+        <v>43.20464780085606</v>
       </c>
       <c r="D83" t="n">
-        <v>11.74187897158658</v>
+        <v>36.11918963176338</v>
       </c>
       <c r="E83" t="n">
-        <v>14.37523639236432</v>
+        <v>16.39975912256433</v>
       </c>
     </row>
     <row r="84">
@@ -2028,13 +2028,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C84" t="n">
-        <v>13.54372688297267</v>
+        <v>42.68228793556279</v>
       </c>
       <c r="D84" t="n">
-        <v>11.57973771233921</v>
+        <v>35.62877471545364</v>
       </c>
       <c r="E84" t="n">
-        <v>14.50109846132983</v>
+        <v>16.52562119152984</v>
       </c>
     </row>
     <row r="85">
@@ -2047,13 +2047,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C85" t="n">
-        <v>13.37636653552483</v>
+        <v>42.16624359053777</v>
       </c>
       <c r="D85" t="n">
-        <v>11.41981068198598</v>
+        <v>35.14493859747968</v>
       </c>
       <c r="E85" t="n">
-        <v>14.62696053029535</v>
+        <v>16.65148326049536</v>
       </c>
     </row>
     <row r="86">
@@ -2066,13 +2066,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C86" t="n">
-        <v>13.2110742662463</v>
+        <v>41.65643840884989</v>
       </c>
       <c r="D86" t="n">
-        <v>11.26206791629038</v>
+        <v>34.66759388504297</v>
       </c>
       <c r="E86" t="n">
-        <v>14.75282259926087</v>
+        <v>16.77734532946088</v>
       </c>
     </row>
     <row r="87">
@@ -2085,13 +2085,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C87" t="n">
-        <v>13.04782451981661</v>
+        <v>41.152796956751</v>
       </c>
       <c r="D87" t="n">
-        <v>11.10647985344957</v>
+        <v>34.19665433689808</v>
       </c>
       <c r="E87" t="n">
-        <v>14.87868466822638</v>
+        <v>16.9032073984264</v>
       </c>
     </row>
     <row r="88">
@@ -2104,13 +2104,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C88" t="n">
-        <v>12.88659205670334</v>
+        <v>40.65524471251436</v>
       </c>
       <c r="D88" t="n">
-        <v>10.95301732872403</v>
+        <v>33.73203484828211</v>
       </c>
       <c r="E88" t="n">
-        <v>15.0045467371919</v>
+        <v>17.02906946739191</v>
       </c>
     </row>
     <row r="89">
@@ -2123,13 +2123,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C89" t="n">
-        <v>12.72735194925995</v>
+        <v>40.16370805540792</v>
       </c>
       <c r="D89" t="n">
-        <v>10.80165156913848</v>
+        <v>33.27365143604022</v>
       </c>
       <c r="E89" t="n">
-        <v>15.13040880615742</v>
+        <v>17.15493153635743</v>
       </c>
     </row>
     <row r="90">
@@ -2142,13 +2142,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C90" t="n">
-        <v>12.57007957787176</v>
+        <v>39.678114254801</v>
       </c>
       <c r="D90" t="n">
-        <v>10.65235418825313</v>
+        <v>32.82142122394462</v>
       </c>
       <c r="E90" t="n">
-        <v>15.25627087512294</v>
+        <v>17.28079360532294</v>
       </c>
     </row>
     <row r="91">
@@ -2161,13 +2161,13 @@
         <v>365</v>
       </c>
       <c r="C91" t="n">
-        <v>12.4147506271496</v>
+        <v>39.19839145940264</v>
       </c>
       <c r="D91" t="n">
-        <v>10.50509718100439</v>
+        <v>32.37526242820472</v>
       </c>
       <c r="E91" t="n">
-        <v>15.38213294408845</v>
+        <v>17.40665567428846</v>
       </c>
     </row>
     <row r="92">
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>33.11374513252724</v>
+        <v>53.95442736672652</v>
       </c>
       <c r="D92" t="n">
-        <v>20.89578822884072</v>
+        <v>41.34433451090897</v>
       </c>
       <c r="E92" t="n">
-        <v>36.89693465595037</v>
+        <v>23.37174810531702</v>
       </c>
     </row>
     <row r="93">
@@ -2199,13 +2199,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C93" t="n">
-        <v>32.89575474179463</v>
+        <v>52.87910315096261</v>
       </c>
       <c r="D93" t="n">
-        <v>20.71682633261313</v>
+        <v>40.45377762889267</v>
       </c>
       <c r="E93" t="n">
-        <v>37.02279672491589</v>
+        <v>23.49761017428253</v>
       </c>
     </row>
     <row r="94">
@@ -2218,13 +2218,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C94" t="n">
-        <v>32.67919939896318</v>
+        <v>51.82521039551518</v>
       </c>
       <c r="D94" t="n">
-        <v>20.5393151176702</v>
+        <v>39.58229620272574</v>
       </c>
       <c r="E94" t="n">
-        <v>37.14865879388141</v>
+        <v>23.62347224324805</v>
       </c>
     </row>
     <row r="95">
@@ -2237,13 +2237,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C95" t="n">
-        <v>32.46406965699958</v>
+        <v>50.79232196642354</v>
       </c>
       <c r="D95" t="n">
-        <v>20.36324323977211</v>
+        <v>38.72948361768173</v>
       </c>
       <c r="E95" t="n">
-        <v>37.27452086284693</v>
+        <v>23.74933431221357</v>
       </c>
     </row>
     <row r="96">
@@ -2256,13 +2256,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C96" t="n">
-        <v>32.25035613106112</v>
+        <v>49.78001924260564</v>
       </c>
       <c r="D96" t="n">
-        <v>20.18859944117101</v>
+        <v>37.8949418898448</v>
       </c>
       <c r="E96" t="n">
-        <v>37.40038293181244</v>
+        <v>23.87519638117909</v>
       </c>
     </row>
     <row r="97">
@@ -2275,13 +2275,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C97" t="n">
-        <v>32.03804949808623</v>
+        <v>48.78789194619439</v>
       </c>
       <c r="D97" t="n">
-        <v>20.01537254996387</v>
+        <v>37.07828148359489</v>
       </c>
       <c r="E97" t="n">
-        <v>37.52624500077796</v>
+        <v>24.0010584501446</v>
       </c>
     </row>
     <row r="98">
@@ -2294,13 +2294,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C98" t="n">
-        <v>31.82714049638777</v>
+        <v>47.8155379762555</v>
       </c>
       <c r="D98" t="n">
-        <v>19.84355147945016</v>
+        <v>36.27912113293942</v>
       </c>
       <c r="E98" t="n">
-        <v>37.65210706974348</v>
+        <v>24.12692051911012</v>
       </c>
     </row>
     <row r="99">
@@ -2313,13 +2313,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C99" t="n">
-        <v>31.61761992524905</v>
+        <v>46.8625632458193</v>
       </c>
       <c r="D99" t="n">
-        <v>19.67312522749416</v>
+        <v>35.4970876666113</v>
       </c>
       <c r="E99" t="n">
-        <v>37.777969138709</v>
+        <v>24.25278258807564</v>
       </c>
     </row>
     <row r="100">
@@ -2332,13 +2332,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C100" t="n">
-        <v>31.4094786445224</v>
+        <v>45.92858152216052</v>
       </c>
       <c r="D100" t="n">
-        <v>19.50408287589206</v>
+        <v>34.73181583685354</v>
       </c>
       <c r="E100" t="n">
-        <v>37.90383120767451</v>
+        <v>24.37864465704116</v>
       </c>
     </row>
     <row r="101">
@@ -2351,13 +2351,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C101" t="n">
-        <v>31.20270757423047</v>
+        <v>45.01321427026149</v>
       </c>
       <c r="D101" t="n">
-        <v>19.33641358974369</v>
+        <v>33.98294815181347</v>
       </c>
       <c r="E101" t="n">
-        <v>38.02969327664003</v>
+        <v>24.50450672600667</v>
       </c>
     </row>
     <row r="102">
@@ -2370,13 +2370,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C102" t="n">
-        <v>30.9972976941701</v>
+        <v>44.11609049939496</v>
       </c>
       <c r="D102" t="n">
-        <v>19.17010661682892</v>
+        <v>33.2501347114703</v>
       </c>
       <c r="E102" t="n">
-        <v>38.15555534560555</v>
+        <v>24.63036879497219</v>
       </c>
     </row>
     <row r="103">
@@ -2389,13 +2389,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C103" t="n">
-        <v>30.79324004351888</v>
+        <v>43.23684661276469</v>
       </c>
       <c r="D103" t="n">
-        <v>19.00515128698857</v>
+        <v>32.53303304702203</v>
       </c>
       <c r="E103" t="n">
-        <v>38.28141741457107</v>
+        <v>24.75623086393771</v>
       </c>
     </row>
     <row r="104">
@@ -2408,13 +2408,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C104" t="n">
-        <v>30.59052572044414</v>
+        <v>42.37512626014265</v>
       </c>
       <c r="D104" t="n">
-        <v>18.84153701151002</v>
+        <v>31.83130796365888</v>
       </c>
       <c r="E104" t="n">
-        <v>38.40727948353658</v>
+        <v>24.88209293290322</v>
       </c>
     </row>
     <row r="105">
@@ -2427,13 +2427,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C105" t="n">
-        <v>30.38914588171472</v>
+        <v>41.5305801934433</v>
       </c>
       <c r="D105" t="n">
-        <v>18.67925328251722</v>
+        <v>31.14463138665199</v>
       </c>
       <c r="E105" t="n">
-        <v>38.5331415525021</v>
+        <v>25.00795500186874</v>
       </c>
     </row>
     <row r="106">
@@ -2446,13 +2446,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C106" t="n">
-        <v>30.18909174231513</v>
+        <v>40.70286612517621</v>
       </c>
       <c r="D106" t="n">
-        <v>18.51828967236534</v>
+        <v>30.47268221068785</v>
       </c>
       <c r="E106" t="n">
-        <v>38.65900362146762</v>
+        <v>25.13381707083426</v>
       </c>
     </row>
     <row r="107">
@@ -2465,13 +2465,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C107" t="n">
-        <v>29.99035457506232</v>
+        <v>39.89164858971978</v>
       </c>
       <c r="D107" t="n">
-        <v>18.35863583303973</v>
+        <v>29.8151461523801</v>
       </c>
       <c r="E107" t="n">
-        <v>38.78486569043314</v>
+        <v>25.25967913979978</v>
       </c>
     </row>
     <row r="108">
@@ -2484,13 +2484,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C108" t="n">
-        <v>29.792925710225</v>
+        <v>39.09659880735986</v>
       </c>
       <c r="D108" t="n">
-        <v>18.20028149555946</v>
+        <v>29.17171560589188</v>
       </c>
       <c r="E108" t="n">
-        <v>38.91072775939865</v>
+        <v>25.38554120876529</v>
       </c>
     </row>
     <row r="109">
@@ -2503,13 +2503,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C109" t="n">
-        <v>29.59679653514537</v>
+        <v>38.31739455103803</v>
       </c>
       <c r="D109" t="n">
-        <v>18.04321646938517</v>
+        <v>28.54208950160347</v>
       </c>
       <c r="E109" t="n">
-        <v>39.03658982836417</v>
+        <v>25.51140327773081</v>
       </c>
     </row>
     <row r="110">
@@ -2522,13 +2522,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C110" t="n">
-        <v>29.40195849386347</v>
+        <v>37.55372001575566</v>
       </c>
       <c r="D110" t="n">
-        <v>17.88743064183135</v>
+        <v>27.92597316776097</v>
       </c>
       <c r="E110" t="n">
-        <v>39.16245189732969</v>
+        <v>25.63726534669633</v>
       </c>
     </row>
     <row r="111">
@@ -2541,13 +2541,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C111" t="n">
-        <v>29.20840308674386</v>
+        <v>36.80526569058079</v>
       </c>
       <c r="D111" t="n">
-        <v>17.73291397748287</v>
+        <v>27.32307819504359</v>
       </c>
       <c r="E111" t="n">
-        <v>39.28831396629521</v>
+        <v>25.76312741566185</v>
       </c>
     </row>
     <row r="112">
@@ -2560,13 +2560,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C112" t="n">
-        <v>29.0161218701049</v>
+        <v>36.0717282332059</v>
       </c>
       <c r="D112" t="n">
-        <v>17.57965651761597</v>
+        <v>26.73312230398787</v>
       </c>
       <c r="E112" t="n">
-        <v>39.41417603526072</v>
+        <v>25.88898948462736</v>
       </c>
     </row>
     <row r="113">
@@ -2579,13 +2579,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C113" t="n">
-        <v>28.82510645585035</v>
+        <v>35.35281034700586</v>
       </c>
       <c r="D113" t="n">
-        <v>17.42764837962335</v>
+        <v>26.15582921520906</v>
       </c>
       <c r="E113" t="n">
-        <v>39.54003810422623</v>
+        <v>26.01485155359288</v>
       </c>
     </row>
     <row r="114">
@@ -2598,13 +2598,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C114" t="n">
-        <v>28.63534851110349</v>
+        <v>34.64822066054598</v>
       </c>
       <c r="D114" t="n">
-        <v>17.27687975644363</v>
+        <v>25.59092852236055</v>
       </c>
       <c r="E114" t="n">
-        <v>39.66590017319175</v>
+        <v>26.1407136225584</v>
       </c>
     </row>
     <row r="115">
@@ -2617,13 +2617,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C115" t="n">
-        <v>28.44683975784356</v>
+        <v>33.95767360949168</v>
       </c>
       <c r="D115" t="n">
-        <v>17.12734091599498</v>
+        <v>25.03815556777391</v>
       </c>
       <c r="E115" t="n">
-        <v>39.79176224215727</v>
+        <v>26.26657569152392</v>
       </c>
     </row>
     <row r="116">
@@ -2636,13 +2636,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C116" t="n">
-        <v>28.25957197254467</v>
+        <v>33.2808893208716</v>
       </c>
       <c r="D116" t="n">
-        <v>16.97902220061294</v>
+        <v>24.49725132072319</v>
       </c>
       <c r="E116" t="n">
-        <v>39.91762431112279</v>
+        <v>26.39243776048943</v>
       </c>
     </row>
     <row r="117">
@@ -2655,13 +2655,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C117" t="n">
-        <v>28.07353698581706</v>
+        <v>32.61759349964745</v>
       </c>
       <c r="D117" t="n">
-        <v>16.83191402649236</v>
+        <v>23.96796225825813</v>
       </c>
       <c r="E117" t="n">
-        <v>40.0434863800883</v>
+        <v>26.51829982945495</v>
       </c>
     </row>
     <row r="118">
@@ -2674,13 +2674,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C118" t="n">
-        <v>27.88872668205069</v>
+        <v>31.96751731754447</v>
       </c>
       <c r="D118" t="n">
-        <v>16.6860068831335</v>
+        <v>23.45004024855232</v>
       </c>
       <c r="E118" t="n">
-        <v>40.16934844905382</v>
+        <v>26.64416189842047</v>
       </c>
     </row>
     <row r="119">
@@ -2693,13 +2693,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C119" t="n">
-        <v>27.70513299906122</v>
+        <v>31.33039730409758</v>
       </c>
       <c r="D119" t="n">
-        <v>16.54129133279226</v>
+        <v>22.9432424367134</v>
       </c>
       <c r="E119" t="n">
-        <v>40.29521051801934</v>
+        <v>26.77002396738598</v>
       </c>
     </row>
     <row r="120">
@@ -2712,13 +2712,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C120" t="n">
-        <v>27.52274792773833</v>
+        <v>30.70597523986904</v>
       </c>
       <c r="D120" t="n">
-        <v>16.39775800993435</v>
+        <v>22.44733113300355</v>
       </c>
       <c r="E120" t="n">
-        <v>40.42107258698486</v>
+        <v>26.8958860363515</v>
       </c>
     </row>
     <row r="121">
@@ -2731,13 +2731,13 @@
         <v>365</v>
       </c>
       <c r="C121" t="n">
-        <v>27.34156351169626</v>
+        <v>30.09399805179418</v>
       </c>
       <c r="D121" t="n">
-        <v>16.25539762069361</v>
+        <v>21.96207370341935</v>
       </c>
       <c r="E121" t="n">
-        <v>40.54693465595037</v>
+        <v>27.02174810531702</v>
       </c>
     </row>
     <row r="122">
@@ -2750,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>68.15040714569363</v>
+        <v>60.85261565329055</v>
       </c>
       <c r="D122" t="n">
-        <v>44.2761296323477</v>
+        <v>34.73634148752021</v>
       </c>
       <c r="E122" t="n">
-        <v>35.03174597667027</v>
+        <v>42.91725817435447</v>
       </c>
     </row>
     <row r="123">
@@ -2769,13 +2769,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C123" t="n">
-        <v>66.88650193357678</v>
+        <v>60.23739133330979</v>
       </c>
       <c r="D123" t="n">
-        <v>43.37080774833325</v>
+        <v>34.30933855027406</v>
       </c>
       <c r="E123" t="n">
-        <v>35.15760804563578</v>
+        <v>43.04312024331998</v>
       </c>
     </row>
     <row r="124">
@@ -2788,13 +2788,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C124" t="n">
-        <v>65.64603688054513</v>
+        <v>59.62838697544296</v>
       </c>
       <c r="D124" t="n">
-        <v>42.48383707637784</v>
+        <v>33.88741914891284</v>
       </c>
       <c r="E124" t="n">
-        <v>35.2834701146013</v>
+        <v>43.1689823122855</v>
       </c>
     </row>
     <row r="125">
@@ -2807,13 +2807,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C125" t="n">
-        <v>64.42857726961779</v>
+        <v>59.0255396954258</v>
       </c>
       <c r="D125" t="n">
-        <v>41.61484832307281</v>
+        <v>33.47052413909766</v>
       </c>
       <c r="E125" t="n">
-        <v>35.40933218356682</v>
+        <v>43.29484438125102</v>
       </c>
     </row>
     <row r="126">
@@ -2826,13 +2826,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C126" t="n">
-        <v>63.23369644599692</v>
+        <v>58.42878724475852</v>
       </c>
       <c r="D126" t="n">
-        <v>40.76347958085528</v>
+        <v>33.05859505279036</v>
       </c>
       <c r="E126" t="n">
-        <v>35.53519425253234</v>
+        <v>43.42070645021654</v>
       </c>
     </row>
     <row r="127">
@@ -2845,13 +2845,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C127" t="n">
-        <v>62.06097566754798</v>
+        <v>57.83806800427813</v>
       </c>
       <c r="D127" t="n">
-        <v>39.92937618107262</v>
+        <v>32.65157409062404</v>
       </c>
       <c r="E127" t="n">
-        <v>35.66105632149785</v>
+        <v>43.54656851918205</v>
       </c>
     </row>
     <row r="128">
@@ -2864,13 +2864,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C128" t="n">
-        <v>60.9100039580528</v>
+        <v>57.25332097779583</v>
       </c>
       <c r="D128" t="n">
-        <v>39.11219054995644</v>
+        <v>32.24940411435861</v>
       </c>
       <c r="E128" t="n">
-        <v>35.78691839046337</v>
+        <v>43.67243058814757</v>
       </c>
     </row>
     <row r="129">
@@ -2883,13 +2883,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C129" t="n">
-        <v>59.7803779631844</v>
+        <v>56.67448578579863</v>
       </c>
       <c r="D129" t="n">
-        <v>38.31158206744917</v>
+        <v>31.85202863942059</v>
       </c>
       <c r="E129" t="n">
-        <v>35.91278045942889</v>
+        <v>43.79829265711309</v>
       </c>
     </row>
     <row r="130">
@@ -2902,13 +2902,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C130" t="n">
-        <v>58.67170180915267</v>
+        <v>56.10150265921479</v>
       </c>
       <c r="D130" t="n">
-        <v>37.52721692882663</v>
+        <v>31.45939182752619</v>
       </c>
       <c r="E130" t="n">
-        <v>36.0386425283944</v>
+        <v>43.9241547260786</v>
       </c>
     </row>
     <row r="131">
@@ -2921,13 +2921,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C131" t="n">
-        <v>57.58358696397173</v>
+        <v>55.53431243324219</v>
       </c>
       <c r="D131" t="n">
-        <v>36.75876800906143</v>
+        <v>31.07143847938673</v>
       </c>
       <c r="E131" t="n">
-        <v>36.16450459735992</v>
+        <v>44.05001679504412</v>
       </c>
     </row>
     <row r="132">
@@ -2940,13 +2940,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C132" t="n">
-        <v>56.51565210130016</v>
+        <v>54.9728565412391</v>
       </c>
       <c r="D132" t="n">
-        <v>36.00591472987347</v>
+        <v>30.68811402749551</v>
       </c>
       <c r="E132" t="n">
-        <v>36.29036666632544</v>
+        <v>44.17587886400964</v>
       </c>
     </row>
     <row r="133">
@@ -2959,13 +2959,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C133" t="n">
-        <v>55.46752296680636</v>
+        <v>54.41707700867673</v>
       </c>
       <c r="D133" t="n">
-        <v>35.26834292941411</v>
+        <v>30.30936452899517</v>
       </c>
       <c r="E133" t="n">
-        <v>36.41622873529096</v>
+        <v>44.30174093297516</v>
       </c>
     </row>
     <row r="134">
@@ -2978,13 +2978,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C134" t="n">
-        <v>54.43883224701236</v>
+        <v>53.86691644715298</v>
       </c>
       <c r="D134" t="n">
-        <v>34.54574473453225</v>
+        <v>29.93513665862477</v>
       </c>
       <c r="E134" t="n">
-        <v>36.54209080425647</v>
+        <v>44.42760300194067</v>
       </c>
     </row>
     <row r="135">
@@ -2997,13 +2997,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C135" t="n">
-        <v>53.42921944056999</v>
+        <v>53.32231804846661</v>
       </c>
       <c r="D135" t="n">
-        <v>33.83781843557142</v>
+        <v>29.56537770174553</v>
       </c>
       <c r="E135" t="n">
-        <v>36.66795287322199</v>
+        <v>44.55346507090619</v>
       </c>
     </row>
     <row r="136">
@@ -3016,13 +3016,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C136" t="n">
-        <v>52.43833073192435</v>
+        <v>52.78322557875136</v>
       </c>
       <c r="D136" t="n">
-        <v>33.14426836364786</v>
+        <v>29.2000355474446</v>
       </c>
       <c r="E136" t="n">
-        <v>36.79381494218751</v>
+        <v>44.67932713987171</v>
       </c>
     </row>
     <row r="137">
@@ -3035,13 +3035,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C137" t="n">
-        <v>51.46581886732024</v>
+        <v>52.24958337266942</v>
       </c>
       <c r="D137" t="n">
-        <v>32.46480477036055</v>
+        <v>28.83905868171573</v>
       </c>
       <c r="E137" t="n">
-        <v>36.91967701115303</v>
+        <v>44.80518920883723</v>
       </c>
     </row>
     <row r="138">
@@ -3054,13 +3054,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C138" t="n">
-        <v>50.51134303310833</v>
+        <v>51.72133632766356</v>
       </c>
       <c r="D138" t="n">
-        <v>31.79914370988545</v>
+        <v>28.48239618071623</v>
       </c>
       <c r="E138" t="n">
-        <v>37.04553908011854</v>
+        <v>44.93105127780274</v>
       </c>
     </row>
     <row r="139">
@@ -3073,13 +3073,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C139" t="n">
-        <v>49.57456873630793</v>
+        <v>51.19842989826734</v>
       </c>
       <c r="D139" t="n">
-        <v>31.1470069234065</v>
+        <v>28.12999770409914</v>
       </c>
       <c r="E139" t="n">
-        <v>37.17140114908406</v>
+        <v>45.05691334676825</v>
       </c>
     </row>
     <row r="140">
@@ -3092,13 +3092,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C140" t="n">
-        <v>48.65516768738515</v>
+        <v>50.68081009047293</v>
       </c>
       <c r="D140" t="n">
-        <v>30.5081217258377</v>
+        <v>27.78181348842001</v>
       </c>
       <c r="E140" t="n">
-        <v>37.29726321804958</v>
+        <v>45.18277541573377</v>
       </c>
     </row>
     <row r="141">
@@ -3111,13 +3111,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C141" t="n">
-        <v>47.75281768520485</v>
+        <v>50.16842345615578</v>
       </c>
       <c r="D141" t="n">
-        <v>29.88222089479073</v>
+        <v>27.43779434061731</v>
       </c>
       <c r="E141" t="n">
-        <v>37.4231252870151</v>
+        <v>45.30863748469929</v>
       </c>
     </row>
     <row r="142">
@@ -3130,13 +3130,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C142" t="n">
-        <v>46.86720250411623</v>
+        <v>49.66121708755573</v>
       </c>
       <c r="D142" t="n">
-        <v>29.2690425617438</v>
+        <v>27.09789163156571</v>
       </c>
       <c r="E142" t="n">
-        <v>37.54898735598061</v>
+        <v>45.43449955366481</v>
       </c>
     </row>
     <row r="143">
@@ -3149,13 +3149,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C143" t="n">
-        <v>45.99801178313267</v>
+        <v>49.15913861181389</v>
       </c>
       <c r="D143" t="n">
-        <v>28.66833010536846</v>
+        <v>26.76205728970139</v>
       </c>
       <c r="E143" t="n">
-        <v>37.67484942494612</v>
+        <v>45.56036162263032</v>
       </c>
     </row>
     <row r="144">
@@ -3168,13 +3168,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C144" t="n">
-        <v>45.14494091716665</v>
+        <v>48.66213618556474</v>
       </c>
       <c r="D144" t="n">
-        <v>28.07983204697162</v>
+        <v>26.43024379471863</v>
       </c>
       <c r="E144" t="n">
-        <v>37.80071149391164</v>
+        <v>45.68622369159584</v>
       </c>
     </row>
     <row r="145">
@@ -3187,13 +3187,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C145" t="n">
-        <v>44.30769095028189</v>
+        <v>48.1701584895829</v>
       </c>
       <c r="D145" t="n">
-        <v>27.50330194801096</v>
+        <v>26.10240417133685</v>
       </c>
       <c r="E145" t="n">
-        <v>37.92657356287716</v>
+        <v>45.81208576056136</v>
       </c>
     </row>
     <row r="146">
@@ -3206,13 +3206,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C146" t="n">
-        <v>43.48596847092526</v>
+        <v>47.68315472348404</v>
       </c>
       <c r="D146" t="n">
-        <v>26.93849830964302</v>
+        <v>25.77849198313737</v>
       </c>
       <c r="E146" t="n">
-        <v>38.05243563184268</v>
+        <v>45.93794782952688</v>
       </c>
     </row>
     <row r="147">
@@ -3225,13 +3225,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C147" t="n">
-        <v>42.67948550910154</v>
+        <v>47.20107460047939</v>
       </c>
       <c r="D147" t="n">
-        <v>26.38518447426346</v>
+        <v>25.45846132646899</v>
       </c>
       <c r="E147" t="n">
-        <v>38.17829770080819</v>
+        <v>46.06380989849239</v>
       </c>
     </row>
     <row r="148">
@@ -3244,13 +3244,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C148" t="n">
-        <v>41.88795943545536</v>
+        <v>46.72386834218325</v>
       </c>
       <c r="D148" t="n">
-        <v>25.84312852900054</v>
+        <v>25.14226682442189</v>
       </c>
       <c r="E148" t="n">
-        <v>38.30415976977371</v>
+        <v>46.18967196745791</v>
       </c>
     </row>
     <row r="149">
@@ -3263,13 +3263,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C149" t="n">
-        <v>41.11111286222462</v>
+        <v>46.25148667347292</v>
       </c>
       <c r="D149" t="n">
-        <v>25.31210321112297</v>
+        <v>24.82986362086872</v>
       </c>
       <c r="E149" t="n">
-        <v>38.43002183873923</v>
+        <v>46.31553403642343</v>
       </c>
     </row>
     <row r="150">
@@ -3282,13 +3282,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C150" t="n">
-        <v>40.34867354603085</v>
+        <v>45.78388081740078</v>
       </c>
       <c r="D150" t="n">
-        <v>24.79188581532442</v>
+        <v>24.52120737457249</v>
       </c>
       <c r="E150" t="n">
-        <v>38.55588390770475</v>
+        <v>46.44139610538895</v>
       </c>
     </row>
     <row r="151">
@@ -3301,13 +3301,13 @@
         <v>365</v>
       </c>
       <c r="C151" t="n">
-        <v>39.60037429247236</v>
+        <v>45.32100249015763</v>
       </c>
       <c r="D151" t="n">
-        <v>24.28225810284757</v>
+        <v>24.21625425336031</v>
       </c>
       <c r="E151" t="n">
-        <v>38.68174597667026</v>
+        <v>46.56725817435446</v>
       </c>
     </row>
     <row r="152">
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>35.46335867184844</v>
+        <v>67.41360589240355</v>
       </c>
       <c r="D152" t="n">
-        <v>25.08333941915792</v>
+        <v>57.97719193004198</v>
       </c>
       <c r="E152" t="n">
-        <v>29.26970157773126</v>
+        <v>13.99778848415658</v>
       </c>
     </row>
     <row r="153">
@@ -3339,13 +3339,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C153" t="n">
-        <v>35.22592306334213</v>
+        <v>66.3699434630452</v>
       </c>
       <c r="D153" t="n">
-        <v>24.87106442912096</v>
+        <v>56.99608457602</v>
       </c>
       <c r="E153" t="n">
-        <v>29.39556364669678</v>
+        <v>14.12365055312209</v>
       </c>
     </row>
     <row r="154">
@@ -3358,13 +3358,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C154" t="n">
-        <v>34.99007714262339</v>
+        <v>65.34243847330212</v>
       </c>
       <c r="D154" t="n">
-        <v>24.66050751111089</v>
+        <v>56.0314594554691</v>
       </c>
       <c r="E154" t="n">
-        <v>29.5214257156623</v>
+        <v>14.24951262208761</v>
       </c>
     </row>
     <row r="155">
@@ -3377,13 +3377,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C155" t="n">
-        <v>34.75581026635494</v>
+        <v>64.33084078208695</v>
       </c>
       <c r="D155" t="n">
-        <v>24.45165517480947</v>
+        <v>55.08304137775714</v>
       </c>
       <c r="E155" t="n">
-        <v>29.64728778462781</v>
+        <v>14.37537469105313</v>
       </c>
     </row>
     <row r="156">
@@ -3396,13 +3396,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C156" t="n">
-        <v>34.52311186245919</v>
+        <v>63.3349041208667</v>
       </c>
       <c r="D156" t="n">
-        <v>24.24449403352556</v>
+        <v>54.15055972256901</v>
       </c>
       <c r="E156" t="n">
-        <v>29.77314985359333</v>
+        <v>14.50123676001865</v>
       </c>
     </row>
     <row r="157">
@@ -3415,13 +3415,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C157" t="n">
-        <v>34.29197142964109</v>
+        <v>62.35438603370991</v>
       </c>
       <c r="D157" t="n">
-        <v>24.03901080341223</v>
+        <v>53.23374836435286</v>
       </c>
       <c r="E157" t="n">
-        <v>29.89901192255885</v>
+        <v>14.62709882898416</v>
       </c>
     </row>
     <row r="158">
@@ -3434,13 +3434,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C158" t="n">
-        <v>34.0623785369143</v>
+        <v>61.38904781826187</v>
       </c>
       <c r="D158" t="n">
-        <v>23.83519230268974</v>
+        <v>52.33234559801006</v>
       </c>
       <c r="E158" t="n">
-        <v>30.02487399152437</v>
+        <v>14.75296089794968</v>
       </c>
     </row>
     <row r="159">
@@ -3453,13 +3453,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C159" t="n">
-        <v>33.83432282313035</v>
+        <v>60.43865446763377</v>
       </c>
       <c r="D159" t="n">
-        <v>23.63302545087423</v>
+        <v>51.44609406580896</v>
       </c>
       <c r="E159" t="n">
-        <v>30.15073606048988</v>
+        <v>14.8788229669152</v>
       </c>
     </row>
     <row r="160">
@@ -3472,13 +3472,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C160" t="n">
-        <v>33.60779399651117</v>
+        <v>59.50297461319138</v>
       </c>
       <c r="D160" t="n">
-        <v>23.43249726801224</v>
+        <v>50.57474068550196</v>
       </c>
       <c r="E160" t="n">
-        <v>30.2765981294554</v>
+        <v>15.00468503588071</v>
       </c>
     </row>
     <row r="161">
@@ -3491,13 +3491,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C161" t="n">
-        <v>33.38278183418458</v>
+        <v>58.58178046822949</v>
       </c>
       <c r="D161" t="n">
-        <v>23.23359487392092</v>
+        <v>49.71803657962642</v>
       </c>
       <c r="E161" t="n">
-        <v>30.40246019842092</v>
+        <v>15.13054710484623</v>
       </c>
     </row>
     <row r="162">
@@ -3510,13 +3510,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C162" t="n">
-        <v>33.15927618172292</v>
+        <v>57.67484777251828</v>
       </c>
       <c r="D162" t="n">
-        <v>23.03630548743384</v>
+        <v>48.87573700596985</v>
       </c>
       <c r="E162" t="n">
-        <v>30.52832226738643</v>
+        <v>15.25640917381175</v>
       </c>
     </row>
     <row r="163">
@@ -3529,13 +3529,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C163" t="n">
-        <v>32.93726695268489</v>
+        <v>56.78195573770841</v>
       </c>
       <c r="D163" t="n">
-        <v>22.84061642565254</v>
+        <v>48.04760128918037</v>
       </c>
       <c r="E163" t="n">
-        <v>30.65418433635195</v>
+        <v>15.38227124277727</v>
       </c>
     </row>
     <row r="164">
@@ -3548,13 +3548,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C164" t="n">
-        <v>32.71674412816029</v>
+        <v>55.902886993581</v>
       </c>
       <c r="D164" t="n">
-        <v>22.64651510320357</v>
+        <v>47.23339275350354</v>
       </c>
       <c r="E164" t="n">
-        <v>30.78004640531747</v>
+        <v>15.50813331174278</v>
       </c>
     </row>
     <row r="165">
@@ -3567,13 +3567,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C165" t="n">
-        <v>32.49769775631786</v>
+        <v>55.03742753513004</v>
       </c>
       <c r="D165" t="n">
-        <v>22.45398903150115</v>
+        <v>46.43287865662713</v>
       </c>
       <c r="E165" t="n">
-        <v>30.90590847428298</v>
+        <v>15.6339953807083</v>
       </c>
     </row>
     <row r="166">
@@ -3586,13 +3586,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C166" t="n">
-        <v>32.28011795195628</v>
+        <v>54.18536667046384</v>
       </c>
       <c r="D166" t="n">
-        <v>22.26302581801524</v>
+        <v>45.64583012461566</v>
       </c>
       <c r="E166" t="n">
-        <v>31.0317705432485</v>
+        <v>15.75985744967382</v>
       </c>
     </row>
     <row r="167">
@@ -3605,13 +3605,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C167" t="n">
-        <v>32.06399489605796</v>
+        <v>53.34649696951313</v>
       </c>
       <c r="D167" t="n">
-        <v>22.07361316554516</v>
+        <v>44.87202208791685</v>
       </c>
       <c r="E167" t="n">
-        <v>31.15763261221402</v>
+        <v>15.88571951863933</v>
       </c>
     </row>
     <row r="168">
@@ -3624,13 +3624,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C168" t="n">
-        <v>31.84931883534597</v>
+        <v>52.52061421353325</v>
       </c>
       <c r="D168" t="n">
-        <v>21.8857388714986</v>
+        <v>44.11123321842219</v>
       </c>
       <c r="E168" t="n">
-        <v>31.28349468117954</v>
+        <v>16.01158158760485</v>
       </c>
     </row>
     <row r="169">
@@ -3643,13 +3643,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C169" t="n">
-        <v>31.6360800818439</v>
+        <v>51.70751734538804</v>
       </c>
       <c r="D169" t="n">
-        <v>21.69939082717596</v>
+        <v>43.36324586756469</v>
       </c>
       <c r="E169" t="n">
-        <v>31.40935675014505</v>
+        <v>16.13744365657037</v>
       </c>
     </row>
     <row r="170">
@@ -3662,13 +3662,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C170" t="n">
-        <v>31.42426901243863</v>
+        <v>50.9070084206035</v>
       </c>
       <c r="D170" t="n">
-        <v>21.51455701706015</v>
+        <v>42.62784600543645</v>
       </c>
       <c r="E170" t="n">
-        <v>31.53521881911057</v>
+        <v>16.26330572553589</v>
       </c>
     </row>
     <row r="171">
@@ -3681,13 +3681,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C171" t="n">
-        <v>31.21387606844607</v>
+        <v>50.11889255917916</v>
       </c>
       <c r="D171" t="n">
-        <v>21.33122551811153</v>
+        <v>41.90482316090941</v>
       </c>
       <c r="E171" t="n">
-        <v>31.66108088807609</v>
+        <v>16.3891677945014</v>
       </c>
     </row>
     <row r="172">
@@ -3700,13 +3700,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C172" t="n">
-        <v>31.00489175517978</v>
+        <v>49.34297789814547</v>
       </c>
       <c r="D172" t="n">
-        <v>21.14938449906829</v>
+        <v>41.19397036274286</v>
       </c>
       <c r="E172" t="n">
-        <v>31.78694295704161</v>
+        <v>16.51502986346692</v>
       </c>
     </row>
     <row r="173">
@@ -3719,13 +3719,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C173" t="n">
-        <v>30.79730664152254</v>
+        <v>48.57907554485573</v>
       </c>
       <c r="D173" t="n">
-        <v>20.96902221975191</v>
+        <v>40.49508408166158</v>
       </c>
       <c r="E173" t="n">
-        <v>31.91280502600712</v>
+        <v>16.64089193243244</v>
       </c>
     </row>
     <row r="174">
@@ -3738,13 +3738,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C174" t="n">
-        <v>30.59111135950065</v>
+        <v>47.82699953100109</v>
       </c>
       <c r="D174" t="n">
-        <v>20.79012703037788</v>
+        <v>39.80796417338838</v>
       </c>
       <c r="E174" t="n">
-        <v>32.03866709497264</v>
+        <v>16.76675400139796</v>
       </c>
     </row>
     <row r="175">
@@ -3757,13 +3757,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C175" t="n">
-        <v>30.38629660386124</v>
+        <v>47.08656676733742</v>
       </c>
       <c r="D175" t="n">
-        <v>20.61268737087155</v>
+        <v>39.13241382261575</v>
       </c>
       <c r="E175" t="n">
-        <v>32.16452916393816</v>
+        <v>16.89261607036347</v>
       </c>
     </row>
     <row r="176">
@@ -3776,13 +3776,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C176" t="n">
-        <v>30.18285313165233</v>
+        <v>46.35759699911321</v>
       </c>
       <c r="D176" t="n">
-        <v>20.43669177018907</v>
+        <v>38.4682394879009</v>
       </c>
       <c r="E176" t="n">
-        <v>32.29039123290367</v>
+        <v>17.01847813932899</v>
       </c>
     </row>
     <row r="177">
@@ -3795,13 +3795,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C177" t="n">
-        <v>29.98077176180567</v>
+        <v>45.63991276218736</v>
       </c>
       <c r="D177" t="n">
-        <v>20.26212884564347</v>
+        <v>37.81525084746914</v>
       </c>
       <c r="E177" t="n">
-        <v>32.41625330186919</v>
+        <v>17.14434020829451</v>
       </c>
     </row>
     <row r="178">
@@ -3814,13 +3814,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C178" t="n">
-        <v>29.78004337472247</v>
+        <v>44.93333933982642</v>
       </c>
       <c r="D178" t="n">
-        <v>20.08898730223567</v>
+        <v>37.17326074591074</v>
       </c>
       <c r="E178" t="n">
-        <v>32.54211537083471</v>
+        <v>17.27020227726003</v>
       </c>
     </row>
     <row r="179">
@@ -3833,13 +3833,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C179" t="n">
-        <v>29.58065891186181</v>
+        <v>44.23770472017064</v>
       </c>
       <c r="D179" t="n">
-        <v>19.91725593199054</v>
+        <v>36.5420851417565</v>
       </c>
       <c r="E179" t="n">
-        <v>32.66797743980023</v>
+        <v>17.39606434622554</v>
       </c>
     </row>
     <row r="180">
@@ -3852,13 +3852,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C180" t="n">
-        <v>29.38260937533185</v>
+        <v>43.55283955435857</v>
       </c>
       <c r="D180" t="n">
-        <v>19.74692361329796</v>
+        <v>35.92154305591764</v>
       </c>
       <c r="E180" t="n">
-        <v>32.79383950876574</v>
+        <v>17.52192641519106</v>
       </c>
     </row>
     <row r="181">
@@ -3871,13 +3871,13 @@
         <v>365</v>
       </c>
       <c r="C181" t="n">
-        <v>29.18588582748376</v>
+        <v>42.87857711529983</v>
       </c>
       <c r="D181" t="n">
-        <v>19.57797931025875</v>
+        <v>35.31145652097575</v>
       </c>
       <c r="E181" t="n">
-        <v>32.91970157773126</v>
+        <v>17.64778848415657</v>
       </c>
     </row>
     <row r="182">
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>76.97030709117016</v>
+        <v>67.19586573437418</v>
       </c>
       <c r="D182" t="n">
-        <v>50.83682641008818</v>
+        <v>57.21845433310215</v>
       </c>
       <c r="E182" t="n">
-        <v>33.95267820632088</v>
+        <v>14.84825188608004</v>
       </c>
     </row>
     <row r="183">
@@ -3909,13 +3909,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C183" t="n">
-        <v>75.1330607471136</v>
+        <v>66.08971201904734</v>
       </c>
       <c r="D183" t="n">
-        <v>49.5288103803531</v>
+        <v>56.19336322875375</v>
       </c>
       <c r="E183" t="n">
-        <v>34.07854027528639</v>
+        <v>14.97411395504556</v>
       </c>
     </row>
     <row r="184">
@@ -3928,13 +3928,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C184" t="n">
-        <v>73.33966864057167</v>
+        <v>65.00176740079156</v>
       </c>
       <c r="D184" t="n">
-        <v>48.25427330080939</v>
+        <v>55.18651610808859</v>
       </c>
       <c r="E184" t="n">
-        <v>34.20440234425191</v>
+        <v>15.09997602401108</v>
       </c>
     </row>
     <row r="185">
@@ -3947,13 +3947,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C185" t="n">
-        <v>71.58908399077148</v>
+        <v>63.93173212812425</v>
       </c>
       <c r="D185" t="n">
-        <v>47.01236216573933</v>
+        <v>54.19759010426056</v>
       </c>
       <c r="E185" t="n">
-        <v>34.33026441321743</v>
+        <v>15.22583809297659</v>
       </c>
     </row>
     <row r="186">
@@ -3966,13 +3966,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C186" t="n">
-        <v>69.88028500312276</v>
+        <v>62.87931138396188</v>
       </c>
       <c r="D186" t="n">
-        <v>45.80224561633686</v>
+        <v>53.22626803640212</v>
       </c>
       <c r="E186" t="n">
-        <v>34.45612648218295</v>
+        <v>15.35170016194211</v>
       </c>
     </row>
     <row r="187">
@@ -3985,13 +3985,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C187" t="n">
-        <v>68.21227427280901</v>
+        <v>61.84421520439169</v>
       </c>
       <c r="D187" t="n">
-        <v>44.62311339330821</v>
+        <v>52.27223830991553</v>
       </c>
       <c r="E187" t="n">
-        <v>34.58198855114846</v>
+        <v>15.47756223090763</v>
       </c>
     </row>
     <row r="188">
@@ -4004,13 +4004,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C188" t="n">
-        <v>66.58407820261459</v>
+        <v>60.82615839878056</v>
       </c>
       <c r="D188" t="n">
-        <v>43.47417580327124</v>
+        <v>51.3351948185059</v>
       </c>
       <c r="E188" t="n">
-        <v>34.70785062011398</v>
+        <v>15.60342429987315</v>
       </c>
     </row>
     <row r="189">
@@ -4023,13 +4023,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C189" t="n">
-        <v>64.99474643464815</v>
+        <v>59.82486047119912</v>
       </c>
       <c r="D189" t="n">
-        <v>42.35466319860707</v>
+        <v>50.41483684792605</v>
       </c>
       <c r="E189" t="n">
-        <v>34.8337126890795</v>
+        <v>15.72928636883866</v>
       </c>
     </row>
     <row r="190">
@@ -4042,13 +4042,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C190" t="n">
-        <v>63.44335129563046</v>
+        <v>58.84004554313913</v>
       </c>
       <c r="D190" t="n">
-        <v>41.26382547042542</v>
+        <v>49.51086898140284</v>
       </c>
       <c r="E190" t="n">
-        <v>34.95957475804502</v>
+        <v>15.85514843780418</v>
       </c>
     </row>
     <row r="191">
@@ -4061,13 +4061,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C191" t="n">
-        <v>61.92898725542302</v>
+        <v>57.87144227750326</v>
       </c>
       <c r="D191" t="n">
-        <v>40.20093155431417</v>
+        <v>48.62300100671631</v>
       </c>
       <c r="E191" t="n">
-        <v>35.08543682701053</v>
+        <v>15.9810105067697</v>
       </c>
     </row>
     <row r="192">
@@ -4080,13 +4080,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C192" t="n">
-        <v>60.45077039848127</v>
+        <v>56.91878380384607</v>
       </c>
       <c r="D192" t="n">
-        <v>39.16526894855181</v>
+        <v>47.75094782490237</v>
       </c>
       <c r="E192" t="n">
-        <v>35.21129889597605</v>
+        <v>16.10687257573521</v>
       </c>
     </row>
     <row r="193">
@@ -4099,13 +4099,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C193" t="n">
-        <v>59.00783790792411</v>
+        <v>55.98180764484553</v>
       </c>
       <c r="D193" t="n">
-        <v>38.15614324446916</v>
+        <v>46.89442936055097</v>
       </c>
       <c r="E193" t="n">
-        <v>35.33716096494157</v>
+        <v>16.23273464470073</v>
       </c>
     </row>
     <row r="194">
@@ -4118,13 +4118,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C194" t="n">
-        <v>57.59934756191831</v>
+        <v>55.06025564398514</v>
       </c>
       <c r="D194" t="n">
-        <v>37.17287766865502</v>
+        <v>46.05317047367195</v>
       </c>
       <c r="E194" t="n">
-        <v>35.46302303390708</v>
+        <v>16.35859671366625</v>
       </c>
     </row>
     <row r="195">
@@ -4137,13 +4137,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C195" t="n">
-        <v>56.22447724208406</v>
+        <v>54.15387389442635</v>
       </c>
       <c r="D195" t="n">
-        <v>36.21481263670801</v>
+        <v>45.22690087310126</v>
       </c>
       <c r="E195" t="n">
-        <v>35.5888851028726</v>
+        <v>16.48445878263177</v>
       </c>
     </row>
     <row r="196">
@@ -4156,13 +4156,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C196" t="n">
-        <v>54.88242445363469</v>
+        <v>53.26241266905193</v>
       </c>
       <c r="D196" t="n">
-        <v>35.28130531824401</v>
+        <v>44.4153550314206</v>
       </c>
       <c r="E196" t="n">
-        <v>35.71474717183812</v>
+        <v>16.61032085159728</v>
       </c>
     </row>
     <row r="197">
@@ -4175,13 +4175,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C197" t="n">
-        <v>53.57240585697033</v>
+        <v>52.3856263516609</v>
       </c>
       <c r="D197" t="n">
-        <v>34.37172921287619</v>
+        <v>43.61827210136438</v>
       </c>
       <c r="E197" t="n">
-        <v>35.84060924080364</v>
+        <v>16.7361829205628</v>
       </c>
     </row>
     <row r="198">
@@ -4194,13 +4194,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C198" t="n">
-        <v>52.29365681045231</v>
+        <v>51.52327336929624</v>
       </c>
       <c r="D198" t="n">
-        <v>33.48547373689184</v>
+        <v>42.83539583368784</v>
       </c>
       <c r="E198" t="n">
-        <v>35.96647130976915</v>
+        <v>16.86204498952832</v>
       </c>
     </row>
     <row r="199">
@@ -4213,13 +4213,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C199" t="n">
-        <v>51.04543092409135</v>
+        <v>50.67511612568634</v>
       </c>
       <c r="D199" t="n">
-        <v>32.62194382035658</v>
+        <v>42.06647449647092</v>
       </c>
       <c r="E199" t="n">
-        <v>36.09233337873466</v>
+        <v>16.98790705849384</v>
       </c>
     </row>
     <row r="200">
@@ -4232,13 +4232,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C200" t="n">
-        <v>49.82699962388887</v>
+        <v>49.84092093578239</v>
       </c>
       <c r="D200" t="n">
-        <v>31.78055951438397</v>
+        <v>41.31126079583304</v>
       </c>
       <c r="E200" t="n">
-        <v>36.21819544770018</v>
+        <v>17.11376912745935</v>
       </c>
     </row>
     <row r="201">
@@ -4251,13 +4251,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C201" t="n">
-        <v>48.63765172657746</v>
+        <v>49.02045796137317</v>
       </c>
       <c r="D201" t="n">
-        <v>30.9607556083146</v>
+        <v>40.56951179803394</v>
       </c>
       <c r="E201" t="n">
-        <v>36.3440575166657</v>
+        <v>17.23963119642487</v>
       </c>
     </row>
     <row r="202">
@@ -4270,13 +4270,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C202" t="n">
-        <v>47.47669302451193</v>
+        <v>48.21350114775989</v>
       </c>
       <c r="D202" t="n">
-        <v>30.16198125655545</v>
+        <v>39.84098885293673</v>
       </c>
       <c r="E202" t="n">
-        <v>36.46991958563122</v>
+        <v>17.36549326539039</v>
       </c>
     </row>
     <row r="203">
@@ -4289,13 +4289,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C203" t="n">
-        <v>46.34344588046896</v>
+        <v>47.41982816147336</v>
       </c>
       <c r="D203" t="n">
-        <v>29.38369961483633</v>
+        <v>39.12545751880909</v>
       </c>
       <c r="E203" t="n">
-        <v>36.59578165459673</v>
+        <v>17.49135533435591</v>
       </c>
     </row>
     <row r="204">
@@ -4308,13 +4308,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C204" t="n">
-        <v>45.23724883211858</v>
+        <v>46.63922032901647</v>
       </c>
       <c r="D204" t="n">
-        <v>28.62538748564667</v>
+        <v>38.42268748843956</v>
       </c>
       <c r="E204" t="n">
-        <v>36.72164372356225</v>
+        <v>17.61721740332142</v>
       </c>
     </row>
     <row r="205">
@@ -4327,13 +4327,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C205" t="n">
-        <v>44.15745620593688</v>
+        <v>45.87146257661509</v>
       </c>
       <c r="D205" t="n">
-        <v>27.88653497262138</v>
+        <v>37.73245251654591</v>
       </c>
       <c r="E205" t="n">
-        <v>36.84750579252777</v>
+        <v>17.74307947228694</v>
       </c>
     </row>
     <row r="206">
@@ -4346,13 +4346,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C206" t="n">
-        <v>43.1034377403343</v>
+        <v>45.11634337096071</v>
       </c>
       <c r="D206" t="n">
-        <v>27.16664514365077</v>
+        <v>37.05453034845301</v>
       </c>
       <c r="E206" t="n">
-        <v>36.97336786149329</v>
+        <v>17.86894154125246</v>
       </c>
     </row>
     <row r="207">
@@ -4365,13 +4365,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C207" t="n">
-        <v>42.07457821777975</v>
+        <v>44.37365466092865</v>
       </c>
       <c r="D207" t="n">
-        <v>26.46523370249491</v>
+        <v>36.38870265001821</v>
       </c>
       <c r="E207" t="n">
-        <v>37.0992299304588</v>
+        <v>17.99480361021797</v>
       </c>
     </row>
     <row r="208">
@@ -4384,13 +4384,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C208" t="n">
-        <v>41.07027710570578</v>
+        <v>43.64319182025559</v>
       </c>
       <c r="D208" t="n">
-        <v>25.7818286686883</v>
+        <v>35.73475493878232</v>
       </c>
       <c r="E208" t="n">
-        <v>37.22509199942432</v>
+        <v>18.12066567918349</v>
       </c>
     </row>
     <row r="209">
@@ -4403,13 +4403,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C209" t="n">
-        <v>40.08994820598513</v>
+        <v>42.92475359116076</v>
       </c>
       <c r="D209" t="n">
-        <v>25.11597006552635</v>
+        <v>35.09247651632502</v>
       </c>
       <c r="E209" t="n">
-        <v>37.35095406838984</v>
+        <v>18.24652774814901</v>
       </c>
     </row>
     <row r="210">
@@ -4422,13 +4422,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C210" t="n">
-        <v>39.13301931277415</v>
+        <v>42.21814202889522</v>
       </c>
       <c r="D210" t="n">
-        <v>24.46720961593002</v>
+        <v>34.46166040180353</v>
       </c>
       <c r="E210" t="n">
-        <v>37.47681613735536</v>
+        <v>18.37238981711452</v>
       </c>
     </row>
     <row r="211">
@@ -4441,13 +4441,13 @@
         <v>365</v>
       </c>
       <c r="C211" t="n">
-        <v>38.19893187852334</v>
+        <v>41.52316244720394</v>
       </c>
       <c r="D211" t="n">
-        <v>23.83511044599049</v>
+        <v>33.84210326665396</v>
       </c>
       <c r="E211" t="n">
-        <v>37.60267820632087</v>
+        <v>18.49825188608004</v>
       </c>
     </row>
     <row r="212">
@@ -4460,13 +4460,13 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>73.29561825987871</v>
+        <v>56.45469626035633</v>
       </c>
       <c r="D212" t="n">
-        <v>36.6892331530667</v>
+        <v>50.37526981642155</v>
       </c>
       <c r="E212" t="n">
-        <v>49.94348362956639</v>
+        <v>10.76868152101614</v>
       </c>
     </row>
     <row r="213">
@@ -4479,13 +4479,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C213" t="n">
-        <v>72.71701138309757</v>
+        <v>55.52575245446176</v>
       </c>
       <c r="D213" t="n">
-        <v>36.30807957205365</v>
+        <v>49.47647514964512</v>
       </c>
       <c r="E213" t="n">
-        <v>50.06934569853191</v>
+        <v>10.89454358998166</v>
       </c>
     </row>
     <row r="214">
@@ -4498,13 +4498,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C214" t="n">
-        <v>72.14297211793914</v>
+        <v>54.61209411907136</v>
       </c>
       <c r="D214" t="n">
-        <v>35.93065737369184</v>
+        <v>48.59361980830366</v>
       </c>
       <c r="E214" t="n">
-        <v>50.19520776749743</v>
+        <v>11.02040565894717</v>
       </c>
     </row>
     <row r="215">
@@ -4517,13 +4517,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C215" t="n">
-        <v>71.57346440697521</v>
+        <v>53.71346973670146</v>
       </c>
       <c r="D215" t="n">
-        <v>35.55693139836526</v>
+        <v>47.72642259389735</v>
       </c>
       <c r="E215" t="n">
-        <v>50.32106983646295</v>
+        <v>11.14626772791269</v>
       </c>
     </row>
     <row r="216">
@@ -4536,13 +4536,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C216" t="n">
-        <v>71.00845247742041</v>
+        <v>52.8296319285074</v>
       </c>
       <c r="D216" t="n">
-        <v>35.1868668090376</v>
+        <v>46.87460724631304</v>
       </c>
       <c r="E216" t="n">
-        <v>50.44693190542846</v>
+        <v>11.27212979687821</v>
       </c>
     </row>
     <row r="217">
@@ -4555,13 +4555,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C217" t="n">
-        <v>70.44790083888525</v>
+        <v>51.96033738618357</v>
       </c>
       <c r="D217" t="n">
-        <v>34.82042908835044</v>
+        <v>46.03790235744142</v>
       </c>
       <c r="E217" t="n">
-        <v>50.57279397439398</v>
+        <v>11.39799186584372</v>
       </c>
     </row>
     <row r="218">
@@ -4574,13 +4574,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C218" t="n">
-        <v>69.89177428114684</v>
+        <v>51.105346804984</v>
       </c>
       <c r="D218" t="n">
-        <v>34.457584035747</v>
+        <v>45.21604128629995</v>
       </c>
       <c r="E218" t="n">
-        <v>50.6986560433595</v>
+        <v>11.52385393480924</v>
       </c>
     </row>
     <row r="219">
@@ -4593,13 +4593,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C219" t="n">
-        <v>69.34003787193718</v>
+        <v>50.26442481784507</v>
       </c>
       <c r="D219" t="n">
-        <v>34.09829776462145</v>
+        <v>44.40876207563524</v>
       </c>
       <c r="E219" t="n">
-        <v>50.82451811232502</v>
+        <v>11.64971600377476</v>
       </c>
     </row>
     <row r="220">
@@ -4612,13 +4612,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C220" t="n">
-        <v>68.79265695474901</v>
+        <v>49.43733993059222</v>
       </c>
       <c r="D220" t="n">
-        <v>33.74253669949339</v>
+        <v>43.61580736997933</v>
       </c>
       <c r="E220" t="n">
-        <v>50.95038018129053</v>
+        <v>11.77557807274028</v>
       </c>
     </row>
     <row r="221">
@@ -4631,13 +4631,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C221" t="n">
-        <v>68.24959714665879</v>
+        <v>48.62386445821284</v>
       </c>
       <c r="D221" t="n">
-        <v>33.3902675732075</v>
+        <v>42.83692433513448</v>
       </c>
       <c r="E221" t="n">
-        <v>51.07624225025605</v>
+        <v>11.90144014170579</v>
       </c>
     </row>
     <row r="222">
@@ -4650,13 +4650,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C222" t="n">
-        <v>67.71082433616711</v>
+        <v>47.82377446217768</v>
       </c>
       <c r="D222" t="n">
-        <v>33.04145742415796</v>
+        <v>42.07186457906172</v>
       </c>
       <c r="E222" t="n">
-        <v>51.20210431922157</v>
+        <v>12.02730221067131</v>
       </c>
     </row>
     <row r="223">
@@ -4669,13 +4669,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C223" t="n">
-        <v>67.176304681056</v>
+        <v>47.03684968879376</v>
       </c>
       <c r="D223" t="n">
-        <v>32.69607359353743</v>
+        <v>41.32038407414881</v>
       </c>
       <c r="E223" t="n">
-        <v>51.32796638818709</v>
+        <v>12.15316427963683</v>
       </c>
     </row>
     <row r="224">
@@ -4688,13 +4688,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C224" t="n">
-        <v>66.64600460626312</v>
+        <v>46.2628735085715</v>
       </c>
       <c r="D224" t="n">
-        <v>32.35408372261047</v>
+        <v>40.58224308083343</v>
       </c>
       <c r="E224" t="n">
-        <v>51.4538284571526</v>
+        <v>12.27902634860235</v>
       </c>
     </row>
     <row r="225">
@@ -4707,13 +4707,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C225" t="n">
-        <v>66.11989080177284</v>
+        <v>45.50163285658963</v>
       </c>
       <c r="D225" t="n">
-        <v>32.01545575001117</v>
+        <v>39.85720607255829</v>
       </c>
       <c r="E225" t="n">
-        <v>51.57969052611812</v>
+        <v>12.40488841756786</v>
       </c>
     </row>
     <row r="226">
@@ -4726,13 +4726,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C226" t="n">
-        <v>65.59793022052395</v>
+        <v>44.75291817384144</v>
       </c>
       <c r="D226" t="n">
-        <v>31.68015790906468</v>
+        <v>39.14504166203492</v>
       </c>
       <c r="E226" t="n">
-        <v>51.70555259508364</v>
+        <v>12.53075048653338</v>
       </c>
     </row>
     <row r="227">
@@ -4745,13 +4745,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C227" t="n">
-        <v>65.08009007633376</v>
+        <v>44.01652334954601</v>
       </c>
       <c r="D227" t="n">
-        <v>31.3481587251325</v>
+        <v>38.44552252879327</v>
       </c>
       <c r="E227" t="n">
-        <v>51.83141466404916</v>
+        <v>12.6566125554989</v>
       </c>
     </row>
     <row r="228">
@@ -4764,13 +4764,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C228" t="n">
-        <v>64.56633784183877</v>
+        <v>43.29224566440882</v>
       </c>
       <c r="D228" t="n">
-        <v>31.01942701298143</v>
+        <v>37.75842534799497</v>
       </c>
       <c r="E228" t="n">
-        <v>51.95727673301467</v>
+        <v>12.78247462446441</v>
       </c>
     </row>
     <row r="229">
@@ -4783,13 +4783,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C229" t="n">
-        <v>64.05664124645155</v>
+        <v>42.57988573481587</v>
       </c>
       <c r="D229" t="n">
-        <v>30.6939318741757</v>
+        <v>37.08353072048809</v>
       </c>
       <c r="E229" t="n">
-        <v>52.08313880198018</v>
+        <v>12.90833669342993</v>
       </c>
     </row>
     <row r="230">
@@ -4802,13 +4802,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C230" t="n">
-        <v>63.55096827433355</v>
+        <v>41.87924745794621</v>
       </c>
       <c r="D230" t="n">
-        <v>30.37164269449232</v>
+        <v>36.42062310408205</v>
       </c>
       <c r="E230" t="n">
-        <v>52.2090008709457</v>
+        <v>13.03419876239545</v>
       </c>
     </row>
     <row r="231">
@@ -4821,13 +4821,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C231" t="n">
-        <v>63.04928716238422</v>
+        <v>41.19013795778751</v>
       </c>
       <c r="D231" t="n">
-        <v>30.0525291413594</v>
+        <v>35.76949074602117</v>
       </c>
       <c r="E231" t="n">
-        <v>52.33486293991122</v>
+        <v>13.16006083136097</v>
       </c>
     </row>
     <row r="232">
@@ -4840,13 +4840,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C232" t="n">
-        <v>62.5515663982458</v>
+        <v>40.51236753203997</v>
       </c>
       <c r="D232" t="n">
-        <v>29.73656116131713</v>
+        <v>35.12992561663624</v>
       </c>
       <c r="E232" t="n">
-        <v>52.46072500887674</v>
+        <v>13.28592290032648</v>
       </c>
     </row>
     <row r="233">
@@ -4859,13 +4859,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C233" t="n">
-        <v>62.05777471832393</v>
+        <v>39.84574959989391</v>
       </c>
       <c r="D233" t="n">
-        <v>29.42370897750135</v>
+        <v>34.5017233441536</v>
       </c>
       <c r="E233" t="n">
-        <v>52.58658707784225</v>
+        <v>13.411784969292</v>
       </c>
     </row>
     <row r="234">
@@ -4878,13 +4878,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C234" t="n">
-        <v>61.56788110582388</v>
+        <v>39.19010065066663</v>
       </c>
       <c r="D234" t="n">
-        <v>29.1139430871494</v>
+        <v>33.88468315064152</v>
       </c>
       <c r="E234" t="n">
-        <v>52.71244914680777</v>
+        <v>13.53764703825752</v>
       </c>
     </row>
     <row r="235">
@@ -4897,13 +4897,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C235" t="n">
-        <v>61.08185478880223</v>
+        <v>38.54524019328452</v>
       </c>
       <c r="D235" t="n">
-        <v>28.80723425912819</v>
+        <v>33.27860778907409</v>
       </c>
       <c r="E235" t="n">
-        <v>52.83831121577329</v>
+        <v>13.66350910722304</v>
       </c>
     </row>
     <row r="236">
@@ -4916,13 +4916,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C236" t="n">
-        <v>60.59966523823405</v>
+        <v>37.9109907065963</v>
       </c>
       <c r="D236" t="n">
-        <v>28.50355353148415</v>
+        <v>32.68330348149339</v>
       </c>
       <c r="E236" t="n">
-        <v>52.96417328473881</v>
+        <v>13.78937117618855</v>
       </c>
     </row>
     <row r="237">
@@ -4935,13 +4935,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C237" t="n">
-        <v>60.1212821660952</v>
+        <v>37.28717759050396</v>
       </c>
       <c r="D237" t="n">
-        <v>28.20287220901492</v>
+        <v>32.09857985825052</v>
       </c>
       <c r="E237" t="n">
-        <v>53.09003535370432</v>
+        <v>13.91523324515407</v>
       </c>
     </row>
     <row r="238">
@@ -4954,13 +4954,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C238" t="n">
-        <v>59.64667552345986</v>
+        <v>36.67362911789774</v>
       </c>
       <c r="D238" t="n">
-        <v>27.90516186086274</v>
+        <v>31.524249898307</v>
       </c>
       <c r="E238" t="n">
-        <v>53.21589742266984</v>
+        <v>14.04109531411959</v>
       </c>
     </row>
     <row r="239">
@@ -4973,13 +4973,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C239" t="n">
-        <v>59.17581549861307</v>
+        <v>36.07017638738206</v>
       </c>
       <c r="D239" t="n">
-        <v>27.61039431812901</v>
+        <v>30.96012987057802</v>
       </c>
       <c r="E239" t="n">
-        <v>53.34175949163536</v>
+        <v>14.1669573830851</v>
       </c>
     </row>
     <row r="240">
@@ -4992,13 +4992,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C240" t="n">
-        <v>58.70867251517811</v>
+        <v>35.47665327677925</v>
       </c>
       <c r="D240" t="n">
-        <v>27.31854167151018</v>
+        <v>30.40603927629919</v>
       </c>
       <c r="E240" t="n">
-        <v>53.46762156060088</v>
+        <v>14.29281945205062</v>
       </c>
     </row>
     <row r="241">
@@ -5011,13 +5011,13 @@
         <v>365</v>
       </c>
       <c r="C241" t="n">
-        <v>58.24521723025873</v>
+        <v>34.8928963973985</v>
       </c>
       <c r="D241" t="n">
-        <v>27.02957626895463</v>
+        <v>29.8618007923995</v>
       </c>
       <c r="E241" t="n">
-        <v>53.59348362956639</v>
+        <v>14.41868152101614</v>
       </c>
     </row>
     <row r="242">
@@ -5030,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>40.04053487747244</v>
+        <v>19.10522070429979</v>
       </c>
       <c r="D242" t="n">
-        <v>31.4478337384184</v>
+        <v>13.08594414852392</v>
       </c>
       <c r="E242" t="n">
-        <v>21.46000587991259</v>
+        <v>31.50592525958717</v>
       </c>
     </row>
     <row r="243">
@@ -5049,13 +5049,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C243" t="n">
-        <v>39.6286224935212</v>
+        <v>18.97909029283396</v>
       </c>
       <c r="D243" t="n">
-        <v>31.0744403721103</v>
+        <v>12.97566481451073</v>
       </c>
       <c r="E243" t="n">
-        <v>21.58586794887811</v>
+        <v>31.63178732855269</v>
       </c>
     </row>
     <row r="244">
@@ -5068,13 +5068,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C244" t="n">
-        <v>39.22094761070653</v>
+        <v>18.85379257945326</v>
       </c>
       <c r="D244" t="n">
-        <v>30.70540135503004</v>
+        <v>12.86627123393519</v>
       </c>
       <c r="E244" t="n">
-        <v>21.71173001784363</v>
+        <v>31.75764939751821</v>
       </c>
     </row>
     <row r="245">
@@ -5087,13 +5087,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C245" t="n">
-        <v>38.81746663622429</v>
+        <v>18.72932206678325</v>
       </c>
       <c r="D245" t="n">
-        <v>30.3406666137724</v>
+        <v>12.75775651802575</v>
       </c>
       <c r="E245" t="n">
-        <v>21.83759208680915</v>
+        <v>31.88351146648372</v>
       </c>
     </row>
     <row r="246">
@@ -5106,13 +5106,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C246" t="n">
-        <v>38.41813642572625</v>
+        <v>18.6056732937425</v>
       </c>
       <c r="D246" t="n">
-        <v>29.9801866443589</v>
+        <v>12.65011383036314</v>
       </c>
       <c r="E246" t="n">
-        <v>21.96345415577466</v>
+        <v>32.00937353544924</v>
       </c>
     </row>
     <row r="247">
@@ -5125,13 +5125,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C247" t="n">
-        <v>38.02291427870673</v>
+        <v>18.48284083530299</v>
       </c>
       <c r="D247" t="n">
-        <v>29.62391250582132</v>
+        <v>12.5433363864894</v>
       </c>
       <c r="E247" t="n">
-        <v>22.08931622474018</v>
+        <v>32.13523560441476</v>
       </c>
     </row>
     <row r="248">
@@ -5144,13 +5144,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C248" t="n">
-        <v>37.63175793393653</v>
+        <v>18.36081930225211</v>
       </c>
       <c r="D248" t="n">
-        <v>29.27179581385679</v>
+        <v>12.43741745351969</v>
       </c>
       <c r="E248" t="n">
-        <v>22.2151782937057</v>
+        <v>32.26109767338028</v>
       </c>
     </row>
     <row r="249">
@@ -5163,13 +5163,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C249" t="n">
-        <v>37.244625564944</v>
+        <v>18.23960334095617</v>
       </c>
       <c r="D249" t="n">
-        <v>28.9237887345541</v>
+        <v>12.33235034975713</v>
       </c>
       <c r="E249" t="n">
-        <v>22.34104036267122</v>
+        <v>32.38695974234579</v>
       </c>
     </row>
     <row r="250">
@@ -5182,13 +5182,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C250" t="n">
-        <v>36.86147577554249</v>
+        <v>18.11918763312555</v>
       </c>
       <c r="D250" t="n">
-        <v>28.57984397818995</v>
+        <v>12.22812844431029</v>
       </c>
       <c r="E250" t="n">
-        <v>22.46690243163673</v>
+        <v>32.51282181131131</v>
       </c>
     </row>
     <row r="251">
@@ -5201,13 +5201,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C251" t="n">
-        <v>36.48226759540383</v>
+        <v>17.99956689558137</v>
       </c>
       <c r="D251" t="n">
-        <v>28.23991479309472</v>
+        <v>12.12474515671361</v>
       </c>
       <c r="E251" t="n">
-        <v>22.59276450060225</v>
+        <v>32.63868388027683</v>
       </c>
     </row>
     <row r="252">
@@ -5220,13 +5220,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C252" t="n">
-        <v>36.1069604756774</v>
+        <v>17.88073588002365</v>
       </c>
       <c r="D252" t="n">
-        <v>27.90395495958682</v>
+        <v>12.02219395655064</v>
       </c>
       <c r="E252" t="n">
-        <v>22.71862656956776</v>
+        <v>32.76454594924235</v>
       </c>
     </row>
     <row r="253">
@@ -5239,13 +5239,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C253" t="n">
-        <v>35.73551428465418</v>
+        <v>17.76268937280106</v>
       </c>
       <c r="D253" t="n">
-        <v>27.57191878397492</v>
+        <v>11.92046836307994</v>
       </c>
       <c r="E253" t="n">
-        <v>22.84448863853328</v>
+        <v>32.89040801820786</v>
       </c>
     </row>
     <row r="254">
@@ -5258,13 +5258,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C254" t="n">
-        <v>35.36788930347549</v>
+        <v>17.64542219468221</v>
       </c>
       <c r="D254" t="n">
-        <v>27.24376109262722</v>
+        <v>11.81956194486389</v>
       </c>
       <c r="E254" t="n">
-        <v>22.9703507074988</v>
+        <v>33.01627008717338</v>
       </c>
     </row>
     <row r="255">
@@ -5277,13 +5277,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C255" t="n">
-        <v>35.00404622188582</v>
+        <v>17.52892920062835</v>
       </c>
       <c r="D255" t="n">
-        <v>26.91943722610715</v>
+        <v>11.71946831940008</v>
       </c>
       <c r="E255" t="n">
-        <v>23.09621277646432</v>
+        <v>33.1421321561389</v>
       </c>
     </row>
     <row r="256">
@@ -5296,13 +5296,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C256" t="n">
-        <v>34.64394613402938</v>
+        <v>17.41320527956771</v>
       </c>
       <c r="D256" t="n">
-        <v>26.59890303337469</v>
+        <v>11.62018115275554</v>
       </c>
       <c r="E256" t="n">
-        <v>23.22207484542983</v>
+        <v>33.26799422510442</v>
       </c>
     </row>
     <row r="257">
@@ -5315,13 +5315,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C257" t="n">
-        <v>34.28755053428991</v>
+        <v>17.29824535417116</v>
       </c>
       <c r="D257" t="n">
-        <v>26.28211486605247</v>
+        <v>11.52169415920361</v>
       </c>
       <c r="E257" t="n">
-        <v>23.34793691439535</v>
+        <v>33.39385629406993</v>
       </c>
     </row>
     <row r="258">
@@ -5334,13 +5334,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C258" t="n">
-        <v>33.93482131317317</v>
+        <v>17.18404438062954</v>
       </c>
       <c r="D258" t="n">
-        <v>25.9690295727562</v>
+        <v>11.4240011008635</v>
       </c>
       <c r="E258" t="n">
-        <v>23.47379898336087</v>
+        <v>33.51971836303545</v>
       </c>
     </row>
     <row r="259">
@@ -5353,13 +5353,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C259" t="n">
-        <v>33.58572075323203</v>
+        <v>17.07059734843231</v>
       </c>
       <c r="D259" t="n">
-        <v>25.65960449348843</v>
+        <v>11.32709578734249</v>
       </c>
       <c r="E259" t="n">
-        <v>23.59966105232639</v>
+        <v>33.64558043200097</v>
       </c>
     </row>
     <row r="260">
@@ -5372,13 +5372,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C260" t="n">
-        <v>33.24021152503318</v>
+        <v>16.95789928014772</v>
       </c>
       <c r="D260" t="n">
-        <v>25.3537974540951</v>
+        <v>11.23097207538083</v>
       </c>
       <c r="E260" t="n">
-        <v>23.7255231212919</v>
+        <v>33.77144250096649</v>
       </c>
     </row>
     <row r="261">
@@ -5391,13 +5391,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C261" t="n">
-        <v>32.89825668316559</v>
+        <v>16.84594523120446</v>
       </c>
       <c r="D261" t="n">
-        <v>25.05156676078416</v>
+        <v>11.13562386849915</v>
       </c>
       <c r="E261" t="n">
-        <v>23.85138519025742</v>
+        <v>33.897304569932</v>
       </c>
     </row>
     <row r="262">
@@ -5410,13 +5410,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C262" t="n">
-        <v>32.55981966228986</v>
+        <v>16.73473028967465</v>
       </c>
       <c r="D262" t="n">
-        <v>24.75287119470553</v>
+        <v>11.04104511664859</v>
       </c>
       <c r="E262" t="n">
-        <v>23.97724725922294</v>
+        <v>34.02316663889751</v>
       </c>
     </row>
     <row r="263">
@@ -5429,13 +5429,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C263" t="n">
-        <v>32.22486427322831</v>
+        <v>16.62424957605844</v>
       </c>
       <c r="D263" t="n">
-        <v>24.45767000659175</v>
+        <v>10.94722981586344</v>
       </c>
       <c r="E263" t="n">
-        <v>24.10310932818846</v>
+        <v>34.14902870786303</v>
       </c>
     </row>
     <row r="264">
@@ -5448,13 +5448,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C264" t="n">
-        <v>31.89335469909526</v>
+        <v>16.51449824306981</v>
       </c>
       <c r="D264" t="n">
-        <v>24.1659229114586</v>
+        <v>10.85417200791636</v>
       </c>
       <c r="E264" t="n">
-        <v>24.22897139715397</v>
+        <v>34.27489077682855</v>
       </c>
     </row>
     <row r="265">
@@ -5467,13 +5467,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C265" t="n">
-        <v>31.56525549146708</v>
+        <v>16.40547147542397</v>
       </c>
       <c r="D265" t="n">
-        <v>23.87759008336514</v>
+        <v>10.76186577997612</v>
       </c>
       <c r="E265" t="n">
-        <v>24.35483346611949</v>
+        <v>34.40075284579407</v>
       </c>
     </row>
     <row r="266">
@@ -5486,13 +5486,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C266" t="n">
-        <v>31.24053156659176</v>
+        <v>16.29716448962608</v>
       </c>
       <c r="D266" t="n">
-        <v>23.5926321502323</v>
+        <v>10.67030526426794</v>
       </c>
       <c r="E266" t="n">
-        <v>24.48069553508501</v>
+        <v>34.52661491475958</v>
       </c>
     </row>
     <row r="267">
@@ -5505,13 +5505,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C267" t="n">
-        <v>30.91914820163729</v>
+        <v>16.18957253376135</v>
       </c>
       <c r="D267" t="n">
-        <v>23.31101018871966</v>
+        <v>10.57948463773622</v>
       </c>
       <c r="E267" t="n">
-        <v>24.60655760405053</v>
+        <v>34.6524769837251</v>
       </c>
     </row>
     <row r="268">
@@ -5524,13 +5524,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C268" t="n">
-        <v>30.60107103097882</v>
+        <v>16.08269088728659</v>
       </c>
       <c r="D268" t="n">
-        <v>23.0326857191594</v>
+        <v>10.48939812170988</v>
       </c>
       <c r="E268" t="n">
-        <v>24.73241967301604</v>
+        <v>34.77833905269062</v>
       </c>
     </row>
     <row r="269">
@@ -5543,13 +5543,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C269" t="n">
-        <v>30.28626604252389</v>
+        <v>15.97651486082307</v>
       </c>
       <c r="D269" t="n">
-        <v>22.75762070054722</v>
+        <v>10.4000399815701</v>
       </c>
       <c r="E269" t="n">
-        <v>24.85828174198156</v>
+        <v>34.90420112165614</v>
       </c>
     </row>
     <row r="270">
@@ -5562,13 +5562,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C270" t="n">
-        <v>29.97469957407553</v>
+        <v>15.87103979595077</v>
       </c>
       <c r="D270" t="n">
-        <v>22.48577752558916</v>
+        <v>10.31140452642051</v>
       </c>
       <c r="E270" t="n">
-        <v>24.98414381094707</v>
+        <v>35.03006319062165</v>
       </c>
     </row>
     <row r="271">
@@ -5581,13 +5581,13 @@
         <v>365</v>
       </c>
       <c r="C271" t="n">
-        <v>29.66633830973273</v>
+        <v>15.76626106500404</v>
       </c>
       <c r="D271" t="n">
-        <v>22.21711901580408</v>
+        <v>10.22348610875982</v>
       </c>
       <c r="E271" t="n">
-        <v>25.11000587991259</v>
+        <v>35.15592525958717</v>
       </c>
     </row>
     <row r="272">
@@ -5600,13 +5600,13 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>51.45483093433405</v>
+        <v>79.70305340599327</v>
       </c>
       <c r="D272" t="n">
-        <v>42.99316062570914</v>
+        <v>43.30009445509817</v>
       </c>
       <c r="E272" t="n">
-        <v>16.44485105669395</v>
+        <v>45.67323006493222</v>
       </c>
     </row>
     <row r="273">
@@ -5619,13 +5619,13 @@
         <v>12.58620689655172</v>
       </c>
       <c r="C273" t="n">
-        <v>50.75972409916069</v>
+        <v>79.02306101599021</v>
       </c>
       <c r="D273" t="n">
-        <v>42.34847583531254</v>
+        <v>42.83121649425062</v>
       </c>
       <c r="E273" t="n">
-        <v>16.57071312565946</v>
+        <v>45.79909213389774</v>
       </c>
     </row>
     <row r="274">
@@ -5638,13 +5638,13 @@
         <v>25.17241379310345</v>
       </c>
       <c r="C274" t="n">
-        <v>50.07400750983074</v>
+        <v>78.34887003045915</v>
       </c>
       <c r="D274" t="n">
-        <v>41.71336319298969</v>
+        <v>42.36718735050993</v>
       </c>
       <c r="E274" t="n">
-        <v>16.69657519462498</v>
+        <v>45.92495420286325</v>
       </c>
     </row>
     <row r="275">
@@ -5657,13 +5657,13 @@
         <v>37.75862068965517</v>
       </c>
       <c r="C275" t="n">
-        <v>49.39755431286998</v>
+        <v>77.68043095429643</v>
       </c>
       <c r="D275" t="n">
-        <v>41.08768172883939</v>
+        <v>41.90795841636858</v>
       </c>
       <c r="E275" t="n">
-        <v>16.8224372635905</v>
+        <v>46.05081627182877</v>
       </c>
     </row>
     <row r="276">
@@ -5676,13 +5676,13 @@
         <v>50.3448275862069</v>
       </c>
       <c r="C276" t="n">
-        <v>48.73023936847645</v>
+        <v>77.0176947146694</v>
       </c>
       <c r="D276" t="n">
-        <v>40.471292534836</v>
+        <v>41.45348156078159</v>
       </c>
       <c r="E276" t="n">
-        <v>16.94829933255602</v>
+        <v>46.17667834079429</v>
       </c>
     </row>
     <row r="277">
@@ -5695,13 +5695,13 @@
         <v>62.93103448275862</v>
       </c>
       <c r="C277" t="n">
-        <v>48.07193922737035</v>
+        <v>76.36061265741392</v>
       </c>
       <c r="D277" t="n">
-        <v>39.8640587348478</v>
+        <v>41.00370912457468</v>
       </c>
       <c r="E277" t="n">
-        <v>17.07416140152153</v>
+        <v>46.30254040975981</v>
       </c>
     </row>
     <row r="278">
@@ -5714,13 +5714,13 @@
         <v>75.51724137931035</v>
       </c>
       <c r="C278" t="n">
-        <v>47.42253210795668</v>
+        <v>75.70913654346232</v>
       </c>
       <c r="D278" t="n">
-        <v>39.26584545508887</v>
+        <v>40.55859391589592</v>
       </c>
       <c r="E278" t="n">
-        <v>17.20002347048705</v>
+        <v>46.42840247872532</v>
       </c>
     </row>
     <row r="279">
@@ -5733,13 +5733,13 @@
         <v>88.10344827586206</v>
       </c>
       <c r="C279" t="n">
-        <v>46.78189787379629</v>
+        <v>75.06321854530209</v>
       </c>
       <c r="D279" t="n">
-        <v>38.67651979499875</v>
+        <v>40.11808920571082</v>
       </c>
       <c r="E279" t="n">
-        <v>17.32588553945257</v>
+        <v>46.55426454769084</v>
       </c>
     </row>
     <row r="280">
@@ -5752,13 +5752,13 @@
         <v>100.6896551724138</v>
       </c>
       <c r="C280" t="n">
-        <v>46.14991801138147</v>
+        <v>74.42281124346459</v>
       </c>
       <c r="D280" t="n">
-        <v>38.0959507985433</v>
+        <v>39.68214872334016</v>
       </c>
       <c r="E280" t="n">
-        <v>17.45174760841808</v>
+        <v>46.68012661665636</v>
       </c>
     </row>
     <row r="281">
@@ -5771,13 +5771,13 @@
         <v>113.2758620689655</v>
       </c>
       <c r="C281" t="n">
-        <v>45.52647560821158</v>
+        <v>73.78786762304384</v>
       </c>
       <c r="D281" t="n">
-        <v>37.5240094259309</v>
+        <v>39.2507266520403</v>
       </c>
       <c r="E281" t="n">
-        <v>17.5776096773836</v>
+        <v>46.80598868562188</v>
       </c>
     </row>
     <row r="282">
@@ -5790,13 +5790,13 @@
         <v>125.8620689655172</v>
       </c>
       <c r="C282" t="n">
-        <v>44.91145533116495</v>
+        <v>73.15834107024493</v>
       </c>
       <c r="D282" t="n">
-        <v>36.96056852573796</v>
+        <v>38.82377762462557</v>
       </c>
       <c r="E282" t="n">
-        <v>17.70347174634912</v>
+        <v>46.93185075458739</v>
       </c>
     </row>
     <row r="283">
@@ -5809,13 +5809,13 @@
         <v>138.448275862069</v>
       </c>
       <c r="C283" t="n">
-        <v>44.30474340516297</v>
+        <v>72.53418536896191</v>
       </c>
       <c r="D283" t="n">
-        <v>36.40550280743787</v>
+        <v>38.40125671913228</v>
       </c>
       <c r="E283" t="n">
-        <v>17.82933381531463</v>
+        <v>47.05771282355291</v>
       </c>
     </row>
     <row r="284">
@@ -5828,13 +5828,13 @@
         <v>151.0344827586207</v>
       </c>
       <c r="C284" t="n">
-        <v>43.70622759212235</v>
+        <v>71.91535469738496</v>
       </c>
       <c r="D284" t="n">
-        <v>35.85868881432749</v>
+        <v>37.98311945452405</v>
       </c>
       <c r="E284" t="n">
-        <v>17.95519588428015</v>
+        <v>47.18357489251843</v>
       </c>
     </row>
     <row r="285">
@@ -5847,13 +5847,13 @@
         <v>163.6206896551724</v>
       </c>
       <c r="C285" t="n">
-        <v>43.11579717019174</v>
+        <v>71.30180362463628</v>
       </c>
       <c r="D285" t="n">
-        <v>35.32000489684552</v>
+        <v>37.5693217864379</v>
       </c>
       <c r="E285" t="n">
-        <v>18.08105795324567</v>
+        <v>47.30943696148395</v>
       </c>
     </row>
     <row r="286">
@@ -5866,13 +5866,13 @@
         <v>176.2068965517241</v>
       </c>
       <c r="C286" t="n">
-        <v>42.53334291326889</v>
+        <v>70.69348710743495</v>
       </c>
       <c r="D286" t="n">
-        <v>34.7893311862772</v>
+        <v>37.15982010297094</v>
       </c>
       <c r="E286" t="n">
-        <v>18.20692002221119</v>
+        <v>47.43529903044946</v>
       </c>
     </row>
     <row r="287">
@@ -5885,13 +5885,13 @@
         <v>188.7931034482759</v>
       </c>
       <c r="C287" t="n">
-        <v>41.95875707079441</v>
+        <v>70.09036048679006</v>
       </c>
       <c r="D287" t="n">
-        <v>34.26654956883947</v>
+        <v>36.75457122050714</v>
       </c>
       <c r="E287" t="n">
-        <v>18.3327820911767</v>
+        <v>47.56116109941498</v>
       </c>
     </row>
     <row r="288">
@@ -5904,13 +5904,13 @@
         <v>201.3793103448276</v>
       </c>
       <c r="C288" t="n">
-        <v>41.39193334781864</v>
+        <v>69.49237948472215</v>
       </c>
       <c r="D288" t="n">
-        <v>33.75154366014156</v>
+        <v>36.3535323795838</v>
       </c>
       <c r="E288" t="n">
-        <v>18.45864416014222</v>
+        <v>47.6870231683805</v>
       </c>
     </row>
     <row r="289">
@@ -5923,13 +5923,13 @@
         <v>213.9655172413793</v>
       </c>
       <c r="C289" t="n">
-        <v>40.83276688533766</v>
+        <v>68.89950020101251</v>
       </c>
       <c r="D289" t="n">
-        <v>33.24419878001503</v>
+        <v>35.95666124079742</v>
       </c>
       <c r="E289" t="n">
-        <v>18.58450622910774</v>
+        <v>47.81288523734601</v>
       </c>
     </row>
     <row r="290">
@@ -5942,13 +5942,13 @@
         <v>226.551724137931</v>
       </c>
       <c r="C290" t="n">
-        <v>40.28115424089498</v>
+        <v>68.31167910998039</v>
       </c>
       <c r="D290" t="n">
-        <v>32.74440192770857</v>
+        <v>35.5639158807485</v>
       </c>
       <c r="E290" t="n">
-        <v>18.71036829807326</v>
+        <v>47.93874730631153</v>
       </c>
     </row>
     <row r="291">
@@ -5961,13 +5961,13 @@
         <v>239.1379310344828</v>
       </c>
       <c r="C291" t="n">
-        <v>39.73699336944539</v>
+        <v>67.72887305728749</v>
       </c>
       <c r="D291" t="n">
-        <v>32.25204175744173</v>
+        <v>35.17525478802499</v>
       </c>
       <c r="E291" t="n">
-        <v>18.83623036703877</v>
+        <v>48.06460937527704</v>
       </c>
     </row>
     <row r="292">
@@ -5980,13 +5980,13 @@
         <v>251.7241379310345</v>
       </c>
       <c r="C292" t="n">
-        <v>39.20018360447715</v>
+        <v>67.15103925676995</v>
       </c>
       <c r="D292" t="n">
-        <v>31.76700855431279</v>
+        <v>34.79063685922412</v>
       </c>
       <c r="E292" t="n">
-        <v>18.96209243600429</v>
+        <v>48.19047144424256</v>
       </c>
     </row>
     <row r="293">
@@ -5999,13 +5999,13 @@
         <v>264.3103448275862</v>
       </c>
       <c r="C293" t="n">
-        <v>38.67062563938934</v>
+        <v>66.57813528729709</v>
       </c>
       <c r="D293" t="n">
-        <v>31.28919421055551</v>
+        <v>34.41002139501175</v>
       </c>
       <c r="E293" t="n">
-        <v>19.08795450496981</v>
+        <v>48.31633351320808</v>
       </c>
     </row>
     <row r="294">
@@ -6018,13 +6018,13 @@
         <v>276.8965517241379</v>
       </c>
       <c r="C294" t="n">
-        <v>38.14822150912072</v>
+        <v>66.01011908965727</v>
       </c>
       <c r="D294" t="n">
-        <v>30.81849220213972</v>
+        <v>34.03336809621978</v>
       </c>
       <c r="E294" t="n">
-        <v>19.21381657393533</v>
+        <v>48.4421955821736</v>
       </c>
     </row>
     <row r="295">
@@ -6037,13 +6037,13 @@
         <v>289.4827586206897</v>
       </c>
       <c r="C295" t="n">
-        <v>37.63287457202674</v>
+        <v>65.44694896347001</v>
       </c>
       <c r="D295" t="n">
-        <v>30.35479756571082</v>
+        <v>33.6606370599803</v>
       </c>
       <c r="E295" t="n">
-        <v>19.33967864290084</v>
+        <v>48.56805765113911</v>
       </c>
     </row>
     <row r="296">
@@ -6056,13 +6056,13 @@
         <v>302.0689655172414</v>
       </c>
       <c r="C296" t="n">
-        <v>37.12448949200147</v>
+        <v>64.8885835641247</v>
       </c>
       <c r="D296" t="n">
-        <v>29.89800687586338</v>
+        <v>33.2917887758968</v>
       </c>
       <c r="E296" t="n">
-        <v>19.46554071186636</v>
+        <v>48.69391972010463</v>
       </c>
     </row>
     <row r="297">
@@ -6075,13 +6075,13 @@
         <v>314.6551724137931</v>
       </c>
       <c r="C297" t="n">
-        <v>36.62297222084098</v>
+        <v>64.33498189974524</v>
       </c>
       <c r="D297" t="n">
-        <v>29.44801822274385</v>
+        <v>32.92678412225184</v>
       </c>
       <c r="E297" t="n">
-        <v>19.59140278083188</v>
+        <v>48.81978178907015</v>
       </c>
     </row>
     <row r="298">
@@ -6094,13 +6094,13 @@
         <v>327.2413793103448</v>
       </c>
       <c r="C298" t="n">
-        <v>36.12822998084492</v>
+        <v>63.78610332818074</v>
       </c>
       <c r="D298" t="n">
-        <v>29.00473118997783</v>
+        <v>32.56558436225076</v>
       </c>
       <c r="E298" t="n">
-        <v>19.7172648497974</v>
+        <v>48.94564385803567</v>
       </c>
     </row>
     <row r="299">
@@ -6113,13 +6113,13 @@
         <v>339.8275862068966</v>
       </c>
       <c r="C299" t="n">
-        <v>35.64017124765329</v>
+        <v>63.24190755402172</v>
       </c>
       <c r="D299" t="n">
-        <v>28.568046832917</v>
+        <v>32.20815114030134</v>
       </c>
       <c r="E299" t="n">
-        <v>19.84312691876291</v>
+        <v>49.07150592700118</v>
       </c>
     </row>
     <row r="300">
@@ -6132,13 +6132,13 @@
         <v>352.4137931034483</v>
       </c>
       <c r="C300" t="n">
-        <v>35.15870573331492</v>
+        <v>62.70235462564196</v>
       </c>
       <c r="D300" t="n">
-        <v>28.13786765720142</v>
+        <v>31.85444647832884</v>
       </c>
       <c r="E300" t="n">
-        <v>19.96898898772843</v>
+        <v>49.1973679959667</v>
       </c>
     </row>
     <row r="301">
@@ -6151,13 +6151,13 @@
         <v>365</v>
       </c>
       <c r="C301" t="n">
-        <v>34.68374436958476</v>
+        <v>62.16740493226543</v>
       </c>
       <c r="D301" t="n">
-        <v>27.71409759763223</v>
+        <v>31.50443277212613</v>
       </c>
       <c r="E301" t="n">
-        <v>20.09485105669394</v>
+        <v>49.32323006493222</v>
       </c>
     </row>
   </sheetData>
